--- a/data/RSP_Rookies.xlsx
+++ b/data/RSP_Rookies.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28a1ee50a88aa706/python_work/Dynasty_tools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{0EB90C79-FC22-4A12-A94D-9985B2A593C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FC2149D-B560-42B1-93F7-9F725FF0DCA1}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="8_{0EB90C79-FC22-4A12-A94D-9985B2A593C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06E58B38-EF1A-45B1-B827-5316FD62CDB8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="38020" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$50</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="216">
   <si>
     <t>Player</t>
   </si>
@@ -777,6 +777,682 @@
 Player Comparisons:
 J.K. Dobbins / Khalil Herbert: These comparisons suggest potential as an efficient, explosive runner often effective in zone schemes, likely fitting best within a committee approach.
 Bottom Line for Rookie Drafts: Hunter is a physically gifted back with the raw tools to succeed, particularly fitting a zone-running scheme. His blend of speed and power offers upside. However, the need for significant technical refinement in receiving, pass protection, and decision-making in certain run concepts makes him more of a developmental prospect than a finished product. He projects as a committee back who could offer splash weeks if he earns a role. The RSP evaluator suggests he's worth stashing (Rounds 3-4+ value in rookie drafts), betting on his athletic ability and potential for rapid development with NFL coaching.</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>X/Brandon Aiyuk – Rashee Rice - Dontayvion Wicks/Quintez Cephus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franchise: Challenging for the lead role and leadership anchor. </t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Luther Burden III grades out as the RSP WR1 and a "Franchise" level talent, projected for immediate high-level production in the NFL. The evaluator holds him in exceptionally high regard, suggesting he would have ranked Burden ahead of Marvin Harrison Jr. pre-draft last year. Burden is lauded as a highly versatile, athletic receiver whose superpower is his elite ability after the catch ("one of the two best runners... in this receiver class"). While needing refinement in his releases against press coverage and as a blocker, his combination of speed, elite short-area quickness, reliable hands, route savvy, and football IQ points towards a potential alpha receiver profile. He's strongly recommended as a top-3 rookie pick, regardless of landing spot.
+Fantasy Strengths:
+Elite After-the-Catch Ability: Exceptional vision, patience, elite short-area quickness, power, balance, and a diverse repertoire of moves make him incredibly dangerous with the ball in his hands. Creates yards and touchdowns independently.
+Versatility: Can effectively play all three wide receiver positions (slot, flanker, potentially X with development) and contribute on various routes (vertical, crossers, screens) and manufactured touches (sweeps).
+Athleticism: Possesses difference-making speed to win deep or pull away after the catch, combined with elite quickness and deceleration for separation and YAC.
+Reliable Hands &amp; Catching: Excellent catch reliability (100% pinpoint catch rate in tracked games), tracks the ball well (over-shoulder, adjusting to placement), extends effectively, uses his body well, and makes contested/difficult catches (including one-handed grabs).
+Route Running &amp; Football IQ: Understands how to attack zone coverage, tempos routes effectively, works the scramble drill intelligently, and shows nuance in stems and breaks (though limited exposure to hard comeback routes). High football IQ evident in his play.
+Good Ball Security &amp; Durability: Generally takes care of the football and has no significant injury history reported.
+Fantasy Weaknesses:
+Release vs. Press Coverage: Needs to refine the pacing and artistry of his release packages to consistently defeat top-tier press corners at the line of scrimmage. This is the primary area holding him back from being a dominant 'X' receiver immediately.
+Blocking Technique: Requires significant improvement in technique (closing distance, punch timing/force, avoiding overextension) to become a reliable blocker.
+Catching Technique (Minor): Hands could be slightly tighter on occasion when attacking the ball to prevent potential issues against NFL velocity (though drops weren't observed).
+Player Comparisons:
+Spectrum includes Brandon Aiyuk, Rashee Rice, Dontayvion Wicks, Quintez Cephus.
+The Brandon Aiyuk comparison aligns well with Burden's profile as a versatile, explosive receiver who excels after the catch and can win at multiple levels. Rashee Rice highlights the YAC prowess and potential slot/intermediate effectiveness.
+Bottom Line for Rookie Drafts: Burden profiles as an elite fantasy asset with immediate WR1/WR2 potential. His game-breaking YAC ability, versatility, and overall polish make him a high-floor, high-ceiling prospect. The RSP evaluator considers him a cornerstone talent likely being undervalued by the consensus (potentially enabling a trade-down scenario while still acquiring him). He should be considered a lock for a top-3 pick in rookie drafts, with a strong argument for being the 1.01 depending on format and team needs.</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>X – Chris Olave/Ricky Pearsall</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Travis Hunter presents perhaps the biggest risk/reward conundrum in this draft class for fantasy football managers. Evaluated here as the RSP WR2 with "Franchise" level talent, he possesses Pro-Bowl potential as a wide receiver due to his skilled route running, vertical ability, reliable hands, and good YAC skills, drawing comparisons to Chris Olave and Ricky Pearsall. HOWEVER, the massive uncertainty about his NFL position overshadows everything. The evaluator expresses skepticism about him playing both ways significantly and leans towards Hunter primarily playing Cornerback in the NFL, despite acknowledging his offensive gifts. This positional ambiguity makes drafting him for fantasy purposes before the NFL Draft clarifies his role extremely risky.
+Fantasy Strengths (as a potential WR):
+Skilled Route Running: Polished and nuanced route runner with a variety of releases (though needing more consistent pacing/artfulness vs. press), effective setups, and precise breaks. Wins vs. man coverage.
+Vertical Threat: Possesses big-play ability downfield, capable of stacking defenders and winning on intermediate-to-deep routes.
+Reliable Hands &amp; Catching: Excellent catch reliability (100% pinpoint/tight coverage catch rate in tracked games), sound technique, wins through contact, and positions himself well on contested catches.
+Good YAC Ability: Shows agility, quick deceleration, spin moves, and vision to create yards after the catch, leveraging blockers well on screens/RPOs.
+High Football IQ: Understands zone concepts, works scramble drills effectively, and shows good situational awareness as a receiver.
+Durability: No significant injuries reported despite heavy college workload (playing both ways).
+Fantasy Weaknesses/Concerns:
+Positional Uncertainty (MASSIVE RISK): The biggest factor. Will he be a WR, CB, or some limited mix? The evaluator leans CB, which would make him essentially worthless in standard fantasy formats. Drafting him pre-NFL Draft is a huge gamble on his offensive role.
+Release vs. Press: Needs refinement in pacing and technique to consistently beat physical press coverage at the NFL level. Can get pushed off his line.
+Decision-Making (YAC): Occasionally tries to do too much after the catch, leading to retreats or poor decisions instead of taking available yards (though expected to improve).
+Unnecessary Leaping: Sometimes leaves his feet unnecessarily for higher targets, potentially costing YAC opportunities.
+Player Comparisons (as a WR):
+Chris Olave / Ricky Pearsall: These comparisons highlight his potential as a smooth, skilled route runner with reliable hands and the ability to create separation.
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Drafting Travis Hunter requires extreme caution. While his talent as a receiver warrants early first-round consideration based on this profile, the significant risk that his NFL team primarily views him as a cornerback makes him a potential fantasy bust.
+If his NFL team commits to him playing WR: His fantasy value skyrockets, likely into the top half of the first round of rookie drafts.
+If his primary role is CB (or unclear): His fantasy value plummets, making him undraftable in most standard leagues. The RSP evaluator explicitly advises waiting until the 4th round of early (pre-NFL Draft) rookie drafts if you want to take a speculative gamble, highlighting the immense risk involved before his NFL role is known. His landing spot and the team's stated intentions will be paramount.</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tim Brown – X/Jayden Reed - Lee Evans – Curtis Samuel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starter: Starting immediately with a large role and learning on the go. Golden is on the 
+cusp of the Franchise Tier: Challenging for the lead role and leadership anchor. </t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Matthew Golden (RSP WR3) is profiled as a dynamic, versatile wide receiver prospect poised for immediate impact, grading out on the cusp of the "Franchise" tier. Possessing elite timed speed (4.29 40-yard dash), Golden is far more than just a speedster, showcasing savvy route running that leverages his speed, reliable hands, and excellent ability after the catch. Drawing comparisons to versatile playmakers like Tim Brown and Jayden Reed, Golden can threaten defenses vertically, turn short passes into long gains, and operate effectively from multiple alignments (flanker, slot). While needing to improve consistency in contested catch situations and blocking, his overall skillset suggests high upside as potentially a primary or high-end secondary target in an NFL offense early in his career.
+Fantasy Strengths:
+Elite Speed &amp; Athleticism: Fastest timed WR in the class; possesses game-breaking speed for vertical routes and pulling away after the catch.
+Advanced Route Running: Intelligently uses his speed within routes, attacks stems effectively, shows sharp breaks with good deceleration, and understands how to set up defenders. Not just a vertical threat.
+Excellent YAC Ability: Displays quickness, vision, body control, and power after the catch to make multiple defenders miss, break tackles, and finish runs. Dangerous with the ball in his hands.
+Reliable Hands &amp; Tracking: Very dependable hands (100% catch rate on pinpoint/general targets in tracked games), tracks the ball well (including over-the-shoulder), extends effectively, and makes catches through contact.
+Versatility: Capable of playing multiple WR roles (flanker, slot) and winning in various ways (deep, intermediate, short, YAC). Viewed as a "match-up player."
+Good Ball Security: Takes care of the football with generally sound technique.
+Fantasy Weaknesses:
+Inconsistent Contested Catch Technique: While capable of making spectacular contested catches, struggles with timing, positioning, and attack technique consistently, especially when pinned near the boundary (67% tight coverage catch rate, drops vs. contact noted).
+Blocking Technique: Needs refinement; relies more on shielding/positioning ("hugger") than effective strikes, which could lead to holding penalties or ineffective blocks.
+Durability Concerns: Has a history of multiple nagging injuries (foot, groin, back) over the past couple of seasons, raising some concern about his ability to consistently stay available.
+Minor Catching Lapses: Occasional "clap-catches" on low targets need cleaning up.
+Player Comparisons:
+High end: Tim Brown (versatile HOF playmaker).
+Modern comps: Jayden Reed (versatile slot/outside threat), Lee Evans (deep threat ability), Curtis Samuel (speed/YAC/versatility). These comparisons point to a dynamic offensive weapon.
+Bottom Line for Rookie Drafts: Golden possesses an elite combination of speed, route-running savvy, reliable hands, and YAC ability, making him a high-upside fantasy prospect. He projects as an immediate contributor who can be deployed in multiple ways to exploit defenses. While he needs to improve his contested-catch consistency and blocking, his playmaking potential is significant. The RSP evaluator suggests he warrants late first-round consideration in rookie drafts (pre-NFL Draft), potentially slipping into the early second, representing strong value for a player with his dynamic profile.</t>
+  </si>
+  <si>
+    <t>Isaac Bruce – T.Y. Hilton/X – Marvin Mims</t>
+  </si>
+  <si>
+    <t>Starter: Starting immediately with a large role and learning on the go</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Isaiah Bond (RSP WR4) profiles as a high-level "Starter" tier prospect who, according to this evaluation, might be significantly undervalued relative to his teammate Matthew Golden. Bond is described as a polished route runner with legitimate deep speed, reliable hands, dangerous YAC ability, and a strong release package, drawing comparisons to T.Y. Hilton with potential to grow into an Isaac Bruce type. While needing refinement in specific catching techniques and significant development as a blocker, Bond possesses the tools to become a high-end WR2 with WR1 potential in an NFL offense, potentially exceeding public perception and offering strong value in rookie drafts.
+Fantasy Strengths:
+Advanced Route Running &amp; Separation: Polished route runner with a diverse release package, ability to stack defenders, precise breaks (with good weight drop), and understanding of leverage/setups. Wins consistently against man coverage at intermediate and deep levels.
+Deep Speed &amp; Vertical Threat: Possesses legitimate long speed to stretch the field and win vertically.
+Reliable Hands &amp; Catching: Generally dependable hands (100% pinpoint/general catch rate in tracked games), tracks the ball well, makes catches through contact, and shows ability to win contested balls, including acrobatic plays.
+Dangerous YAC Ability: Uses acceleration, vision, patience behind blocks, and curvilinear speed effectively after the catch. Decisive and athletic in space.
+Good Athleticism: Combines deep speed with effective acceleration and agility.
+Football IQ: Understands zone coverage, works scramble drills well, and demonstrates good awareness.
+Good Ball Security: Generally secure with the ball, using the proper arm and tightening carriage in traffic.
+Fantasy Weaknesses:
+Catching Technique Lapses: While mostly reliable, shows specific inconsistencies – potential "clap-attacks" with overhand position and occasional "high-low" trapping on targets at shoulder height away from his frame.
+Underdeveloped Blocking: Technique is poor; primarily shields rather than delivers effective strikes, lacks punch, and needs significant development to contribute in the run game.
+Size: Slightly undersized frame (5'11", 180 lbs) may present challenges against larger, physical corners, though he shows ability to win contested catches.
+Durability Note: Suffered a high ankle sprain late in the 2024 season, causing him to miss a playoff game.
+Player Comparisons:
+High end: Isaac Bruce (potential ceiling).
+Primary Style Comp: T.Y. Hilton (speed, deep threat, route running).
+Contextual Comp: Profiled as Marvin Mims without the route running deficiencies Mims had entering the NFL.
+Bottom Line for Rookie Drafts: Bond appears to be a potentially undervalued asset according to this profile. He possesses the route running skills, deep speed, and reliable hands to project as a highly productive NFL receiver, likely operating as a high-end WR2 with upside for more. While blocking is a weakness and minor catching technique issues need cleaning up, his overall profile is strong. The RSP evaluator suggests targeting him in the late-first or early-second round of rookie drafts (pre-NFL Draft), anticipating he might provide excellent value compared to public perception which may view him as secondary to his teammate Golden.</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>X/Nico Collins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starter: Starting immediately with a large role and learning on the go. </t>
+  </si>
+  <si>
+    <t>Tetairoa McMillan - Fantasy Football Summary
+Overall Fantasy Outlook: Tetairoa McMillan (RSP WR5) is the top prospect fitting the appealing big-bodied 'X' receiver archetype in this class, drawing a strong comparison to Nico Collins. His elite size (6'4", 219 lbs) and exceptional ability in contested catch situations ("excels at the jump up and through") provide a significant ceiling. However, the profile indicates he requires substantial technical refinement in several key areas – particularly his releases against press coverage, route running precision, and catching technique consistency – which might limit his immediate rookie production. While possessing the tools for future dominance, he's viewed as needing more development than the receivers ranked ahead of him.
+Fantasy Strengths:
+Elite Size &amp; Frame: Prototypical dimensions for an outside 'X' receiver, creating a large catch radius.
+Excellent Contested Catch Ability: Dominant in jump ball situations, using his size, body control, and positioning to win at the catch point, especially near boundaries and in the red zone.
+Good YAC Vision &amp; Creativity: Sees the field well after the catch, shows patience, creativity (including reversing field), and finds ways to work downhill.
+Physicality: Willing to use his size and strength after the catch and shows good contact balance to work through initial hits. Possesses a violent stiff arm.
+Durability: No significant reported injuries.
+Fantasy Weaknesses:
+Release vs. Press (Major Refinement Needed): Lacks craft, nuance, and consistent patience/suddenness in his releases. Struggles to beat press consistently and can get pinned to the boundary easily. Needs significant development here to thrive outside in the NFL.
+Route Running Polish: Doesn't always attack leverage optimally, lacks consistent explosion/snap out of breaks, and needs to be savvier navigating underneath zone coverage. Not maximizing separation potential currently.
+Catching Technique Lapses: Prone to "clap-catches" on various targets (hitches, wide extensions, sometimes high points), occasionally fails to look the ball in fully, and technique suffers when pinned to the boundary on contested catches. This inconsistency could lead to drops at the NFL level.
+Lacks Elite Suddenness (YAC): While creative, doesn't possess the high-end quickness to consistently exploit cutback lanes he sees, limiting massive YAC gains compared to more agile receivers. Can try to get "cute" instead of using his size.
+Blocking Technique: Needs refinement; prone to overextending and relies more on shielding/latching than effective strikes.
+Player Comparisons:
+Nico Collins: This comparison highlights his potential ceiling as a big-bodied 'X' receiver who can develop into a dominant player after refining his technique, similar to Collins' trajectory.
+Bottom Line for Rookie Drafts: McMillan offers the tantalizing upside associated with dominant big receivers, making him appealing for fantasy managers prioritizing that archetype. His size and contested-catch skills provide a path to red-zone relevance and big plays. However, the significant technical refinement needed, especially in releases and route running, suggests he may require patience and might not be an immediate high-volume target earner. He carries more developmental risk than the higher-ranked, more polished receivers in this RSP evaluation. The evaluator ranks him WR5 with a notable gap below the top tier, likely placing his pre-NFL Draft rookie value in the mid-to-late first round, acknowledging both the high ceiling and the required development curve.</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>X - Tee Higgins / Mike Williams</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Jayden Higgins (RSP WR6) profiles as a high-floor "Starter" tier prospect, fitting the mold of big-bodied perimeter receivers like his pro comparisons, Tee Higgins and Mike Williams. He excels at using his size (6'4", 214 lbs) to win contested catches and erase inaccuracies, making him a valuable asset near the boundaries and in the red zone. Combined with good route running and reliable hands overall, he projects as an immediate contributor with the potential to become a high-volume "possession-plus" target. His main limitations are below-average hand strength (making him vulnerable to drops when defenders contest at the catch point) and occasional lapses in zone coverage recognition.
+Fantasy Strengths:
+Excellent Size &amp; Contested Catch Ability: Uses his large frame effectively to box out defenders, high-point the football, and win in contested situations. Great body control near the boundary. Significant red zone potential.
+Good Route Running &amp; Releases: Possesses a solid release package, understands how to set up defenders, runs routes effectively, and creates separation through technique and size. Stacks defenders on vertical routes.
+Reliable Hands (Overall): Despite hand strength concerns, generally catches the ball well, makes difficult catches through contact, and adjusts to targets effectively. High catch rates in tracked games.
+Good YAC Vision &amp; Power: While not dynamically elusive, he sees the field well after the catch, uses his size and a functional stiff arm to break tackles (especially against DBs), keeps his feet moving, and finishes runs powerfully.
+Durability: No significant reported injuries.
+Fantasy Weaknesses:
+Below-Average Hand Strength: Vulnerable to having the ball dislodged by defenders swatting at his hands/the ball at the catch point. This is the primary limiter to him being an elite pass catcher.
+Zone Recognition Lapses: Occasionally misreads zone coverage triangles and fails to settle in the correct open space, potentially limiting effectiveness against complex NFL zone schemes initially.
+Limited YAC Elusiveness: More efficient and powerful than dynamic after the catch; not likely to make multiple defenders miss with pure agility.
+Route Break Explosiveness: Lacks elite snap/suddenness out of some breaks (hitches, short routes).
+Player Comparisons:
+Tee Higgins / Mike Williams: Excellent comparisons highlighting his potential role as a big-bodied perimeter receiver who wins downfield and in contested situations, offering significant touchdown upside.
+Bottom Line for Rookie Drafts: Higgins profiles as a relatively safe prospect with a clear path to an NFL role as a starting perimeter receiver. His size and contested-catch ability provide a valuable skillset for fantasy, especially in the red zone. While the hand strength issue caps his absolute ceiling slightly, he projects as a reliable target who should command volume. The RSP evaluator considers him a likely bet for early production and values him as a second-round rookie pick (potentially sliding to the early third) before the NFL Draft, making him a solid target for teams needing a dependable outside receiver.</t>
+  </si>
+  <si>
+    <t>TCU / LSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Wilson/X – Josh Palmer </t>
+  </si>
+  <si>
+    <t>Jack Bech - Fantasy Football Summary
+Overall Fantasy Outlook: Jack Bech (RSP WR7) profiles as a reliable, well-built possession receiver with a "Starter" grade, drawing comparisons to solid NFL contributors like Michael Wilson and Josh Palmer. His strengths lie in his reliable hands, ability to win through contact and in contested situations, good short-area quickness, and effective YAC ability driven by vision and power. While lacking elite long speed, his dependable nature and route-running prowess make him a high-floor prospect likely suited for a slot/flanker role. Refinement is needed in release pacing and positioning on certain types of throws, but he projects as a potential immediate contributor.
+Fantasy Strengths:
+Reliable Hands &amp; Contested Catching: Very dependable hands (100% pinpoint catch rate in tracked games), uses his body well, wins through contact, and makes catches in tight coverage. Secure target for quarterbacks.
+Good Short-Area Quickness &amp; Releases: Possesses good quickness and acceleration off the line, utilizing a variety of releases (feet-switch, stick, hesitations) to defeat press coverage potential.
+Solid Route Running: Runs sharp breaks (especially back to the QB), understands zone concepts, and uses effective setups.
+Effective YAC (Vision/Power): Shows patience, decisiveness, and good vision after the catch. Uses a functional stiff arm, keeps feet moving through contact, drags defenders, and finishes plays physically.
+Good Blocking Technique: Shows understanding and good technique as a stalk blocker (squat stance, closes gap, hand position, footwork) even if sustain needs work.
+Good Ball Security: Appears secure with the football, handling contact well.
+Fantasy Weaknesses:
+Lacks Elite Long Speed: More quick than fast; unlikely to consistently win as a vertical deep threat based purely on speed.
+Release Pacing/Refinement: While possessing various moves, needs to better incorporate pacing variations (patience/suddenness) into his releases to consistently beat NFL corners.
+Positioning on Specific Throws: Needs work adjusting and positioning his body effectively on back-shoulder throws and underthrown passes, sometimes tipping off his intention.
+Minor Catching Technique Lapses: Occasional "clap-attacks" due to wide hands, particularly on overhand catches away from his frame.
+Blocking Sustain: Needs to sustain blocks longer, especially away from the line of scrimmage.
+Durability History: Has missed time due to knee and shin injuries in the past couple of seasons, raising minor flags.
+Player Comparisons:
+Michael Wilson / Josh Palmer: These comparisons suggest a reliable WR2/WR3 type known for dependability, good hands, and effectiveness in the intermediate areas of the field.
+Bottom Line for Rookie Drafts: Bech offers a high floor as a dependable possession receiver likely to contribute early in a slot or flanker role. His strong hands, contested-catch ability, and functional YAC skills make him a safe prospect. While he lacks elite deep speed or dynamic YAC elusiveness, he profiles as a solid chain-mover and reliable target. The RSP evaluator suggests he's a good value as a third-round rookie pick before the NFL Draft, with potential to rise into the second round if he lands in a favorable situation with immediate starting potential.</t>
+  </si>
+  <si>
+    <t>Puka Nacua - X - Jermaine Kearse – Quincy Morgan</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Emeka Egbuka (RSP WR9) is evaluated as a "Starter" tier prospect with skills suited for a specific role, likely as a flanker or slot receiver operating primarily in space. His strengths lie in his ability after the catch, good deep speed, and effectiveness on linear routes across the field. However, significant concerns about inconsistent catching technique (using the wrong attack, letting the ball into his frame, drops vs. contact) and a lack of consistent sharpness in his route breaks limit his projected effectiveness against tight man coverage, on timing routes, and in contested situations. While compared situationally to Puka Nacua's role, he's explicitly noted as less skilled currently. He projects as an immediate contributor in a defined role, but may require refinement and an ideal scheme fit to reach consistent fantasy starter production.
+Fantasy Strengths:
+Strong YAC Ability: Dangerous runner after the catch, utilizing acceleration, vision, functional power (stiff arm, finishes plays), and good balance to create extra yards. Excels when catching the ball with space to operate.
+Good Speed &amp; Acceleration: Possesses the speed to win vertically, stack defenders, and pull away after the catch.
+Effective on Linear Routes/Zone: Runs routes across the field well, understands zone concepts, and has good release moves to get into his stem.
+Good Ball Security: Generally takes care of the football with sound technique.
+Willing Blocker: Shows good effort and intensity as a blocker, even if technique is inconsistent.
+Fantasy Weaknesses:
+Inconsistent Catching Technique: Significant issue. Frequently opts for the wrong hand position (e.g., underhand on chest-high targets), lets the ball into his frame unnecessarily, and seems unprepared for non-pinpoint throws, leading to drops and struggles in contested situations (low G vs. Contact % in tracked data).
+Route Break Sharpness: Often drifts or rounds off breaks, particularly on intermediate speed cuts, limiting separation against tight coverage. Needs more consistent precision and snap.
+Limited Role Projection: Seen primarily as a flanker/slot type best utilized on crossing routes or manufactured touches rather than a boundary 'X' consistently winning against press or on contested timing routes.
+Inconsistent Blocking Technique: While effortful, technique is flawed (locks arms, drops head), making him unreliable.
+Player Comparisons:
+Role/Usage Comp: Puka Nacua (but Egbuka lacks Nacua's current skill level).
+Spectrum Comps: Jermaine Kearse / Quincy Morgan (suggesting potential for productive seasons, often excelling vertically or after the catch, but perhaps lacking elite overall consistency or refinement).
+Bottom Line for Rookie Drafts: Egbuka offers appealing speed and YAC ability that could translate to fantasy points in the right system, particularly in PPR formats where volume on shorter routes can accrue value. However, the significant concerns about his catching technique and route break precision create substantial risk and may limit his ceiling, especially against better NFL defenders. He likely needs a specific scheme (like the Rams using Nacua) that maximizes his strengths in space and minimizes his weaknesses against tight coverage. The RSP evaluator suggests he's worth an early third-round rookie pick before the NFL Draft, with potential to rise slightly if he lands in an ideal offensive fit, but views him as less versatile and refined than other top WRs in the class.</t>
+  </si>
+  <si>
+    <t>Utah State</t>
+  </si>
+  <si>
+    <t>Chris Chambers - x – John Ross/Corey Coleman</t>
+  </si>
+  <si>
+    <t>Starter: Starting immediately with a large role and learning on the go. Royals is on the cusp 
+of the Rotational Starter tier: Executes at a starter level in a role playing to their strengths.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Jalen Royals (RSP WR10) is presented as a high-risk, high-reward prospect whose evaluation is based heavily on projected development rather than current polish. The evaluator explicitly expresses concern about scoring him this high and warns against drafting him commensurate with this rank. Royals is an explosive athlete with excellent YAC ability ("Mecole Hardman with Hands") and big-play speed. However, he is currently underdeveloped as a route runner, possesses poor release technique against press coverage, shows inconsistent zone awareness, and has lapses in catching technique. A recent foot injury adds another layer of risk. His comparisons range from productive playmaker Chris Chambers to notable busts John Ross/Corey Coleman, highlighting the significant variance in his potential outcomes.
+Fantasy Strengths:
+Excellent YAC Ability: Dynamic after the catch with elite stop-start skills, efficient cuts, good vision in traffic, and creativity to make multiple defenders miss.
+Good Speed &amp; Athleticism: Possesses game-breaking speed (ran 4.42 40 post-injury, potentially faster) and quickness. Shows good acceleration and agility.
+Good Hands (Overall): Generally reliable hands capable of making plays away from his frame, high-pointing, and digging out low throws despite technical lapses.
+Potential for Development: Evaluator notes the components for route running/releases are there, just need "stitching together," suggesting improvement is projectable (though not guaranteed). Shows flashes of good setups using pace changes during stems.
+Functional Power: Runs hard, uses stiff arm, and shows ability to run through wraps and finish plays.
+Fantasy Weaknesses:
+Raw Route Running &amp; Releases: Considered "not strong by conventional standards." Release technique lacks pacing, craft, and violence, making him vulnerable to press coverage. Route breaks often lack snap and acceleration. Significant development required.
+Inconsistent Zone Awareness: Shows eyes too early, misreads zone triangles, and doesn't always know when to settle vs. keep running, leading to potential miscommunications.
+Catching Technique Lapses: Prone to "clap-attacks" on various targets (overhand, underhand, away from frame), inconsistent positioning on contested/high-point plays. Leads to drops (PP drop vs contact noted).
+Durability/Injury: Suffered a season-ending foot injury in 2024. Recovery timeline and long-term impact are concerns, despite running at the Combine.
+Ball Security Technique: While the rate isn't terrible (1 per ~106 touches), his carrying technique (loose elbow, defaults to one side) needs improvement.
+Limited College Scheme: Heavily featured on manufactured touches (screens, RPOs, crossers); needs to prove effectiveness on a full route tree.
+Player Comparisons:
+Ceiling: Chris Chambers (big-play threat).
+Floor/Bust Risk: John Ross / Corey Coleman (athletic disappointments).
+Bottom Line for Rookie Drafts: Royals is a developmental prospect with intriguing athletic upside, particularly after the catch. However, his significant technical deficiencies as a receiver (routes, releases, hands technique, zone awareness) and recent foot injury make him a very risky fantasy investment. He likely needs a specific role featuring manufactured touches early on while he develops. The RSP evaluator explicitly advises against drafting him based on his WR10 ranking/Starter score, suggesting letting him fall 1-2 rounds lower as a speculative, high-risk/high-reward gamble, acknowledging the substantial bust potential if the necessary development doesn't occur. His NFL landing spot and coaching will be crucial.</t>
+  </si>
+  <si>
+    <t>Matthew Golden – X – John Metchie – Devin Duvernay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotational Starter: Executes at a starter level in a role playing to their strengths. Noel is 
+on the cusp of the Starter tier: Starting immediately with a large role and learning on the go. </t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Jaylin Noel (RSP WR12) is presented as an athletic receiver prospect with excellent quickness and acceleration, drawing comparisons to a "discount version of Matthew Golden," as well as John Metchie and Devin Duvernay. Graded as a Rotational Starter on the cusp of the Starter tier, Noel excels with the ball in his hands and shows promise as a route runner, leveraging his stop-start ability effectively. While his game needs refinement—particularly in adding nuance to his releases and improving consistency in his route breaks and catching—he possesses the tools to develop into an every-down player capable of working inside and outside. He projects as an immediate contributor, likely in a rotational role initially, with upside for more.
+Fantasy Strengths:
+Excellent Quickness &amp; Acceleration: Possesses dynamic stop-start ability and re-acceleration, which he uses effectively both as a route runner to create separation and as a ball carrier after the catch.
+Good YAC Ability: Manipulates defenders in open space, uses his blocks well, shows decisiveness, and has an effective stiff arm. Runs with adequate power through contact for his size (5'10", 194).
+Speed Potential: Evaluator notes potential for elite speed, suggesting college QB limitations may have masked his true deep threat ability. Can blow by defenders when given space.
+Route Running Potential: Shows a variety of setups, understands how to attack leverage, uses his quickness well in routes, and displays good zone awareness. Breaks are generally clean, though sometimes lack optimal snap/flatness.
+Versatility Potential: Has the tools to eventually play both inside (slot) and outside, offering scheme flexibility. Also has gadget potential (option pass noted).
+Durability: No significant reported injuries.
+Fantasy Weaknesses:
+Release Refinement Needed: While possessing various moves, lacks the consistent contrast of patience and suddenness needed to reliably beat NFL press coverage without further development.
+Inconsistent Route Breaks: Execution can be sloppy at times; breaks aren't always sharp/flat, potentially limiting separation against tight coverage.
+Catching Consistency: While generally reliable and capable of making tough catches, tracked data shows several pinpoint drops (3/21) and juggles, indicating concentration can lapse.
+Stacking Ability Unproven: Potential deep speed exists, but limited evidence on tape of consistently stacking defenders vertically.
+Player Comparisons:
+Primary Comp: "Discount Matthew Golden" (similar athletic profile, slightly less refined).
+Spectrum Comps: John Metchie (quick slot type with route savvy), Devin Duvernay (speed/quickness, gadget/returner ability).
+Bottom Line for Rookie Drafts: Noel is an athletic prospect with appealing quickness, speed potential, and YAC skills, fitting the profile of a versatile playmaker. He likely needs some development, particularly refining his releases and route consistency, before commanding a full-time starting role. However, his athletic traits give him immediate contributor potential in a rotational/slot role. The RSP evaluator suggests he's a viable second-round rookie pick, potentially falling to the third, representing solid value for a player with his athletic upside and potential to grow into a significant role.</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>Alshon Jeffery - X/Quentin Johnston – Byan Edwards</t>
+  </si>
+  <si>
+    <t>Rotational Starter: Executes at a starter level in a role playing to their strengths.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall Fantasy Outlook: Tre Harris (RSP WR14) is described as a physically gifted "draftnik favorite" known for exciting contested catches and good YAC ability, drawing a ceiling comparison to Alshon Jeffery. However, this profile expresses significant caution, highlighting that Harris is currently technically raw in crucial areas and needs substantial development, similar to Terrell Owens before he became a star. His releases, route running precision, catching technique (prone to clap-attacks/wrong hand usage), and zone awareness are all inconsistent works in progress. This lack of refinement leads to bust comparisons like Quentin Johnston and Bryan Edwards. While athletic and capable of highlight plays, Harris likely begins with situational usage and needs significant coaching to potentially reach his high ceiling.
+Fantasy Strengths:
+Contested Catch Potential: Makes exciting plays on the ball in the air, adjusts reasonably well, and shows ability to win through contact when his technique holds up. Possesses good size (6'2", 205) for this role.
+Good YAC Ability: Shines after the catch with good vision to find secondary lanes, patience, and the strength/power to run through wraps and work past multiple points of contact. Uses an effective stiff arm.
+Good Athleticism: Possesses adequate speed and acceleration to create separation on vertical routes occasionally and contribute after the catch. Agile enough to make defenders miss.
+Release Variety (Raw): Has a wide range of release moves in his arsenal, indicating potential if he can add craft and pacing. Shows ability to stack defenders when he gets separation.
+Durability: No significant reported injuries.
+Fantasy Weaknesses:
+Raw Route Running Technique: Lacks consistent precision, snap, and acceleration into/out of breaks. Setups aren't always convincing. Struggles to consistently separate against man coverage with pure technique.
+Inconsistent Release Technique: Releases often lack craft, pacing (patience/suddenness contrast), and consistent violence/effectiveness against press coverage. Can get pinned or jammed.
+Catching Technique Lapses: Prone to "clap-attacks" (especially on high points), uses suboptimal hand positions (e.g., underhand too often), and tries to transition before securing the ball, leading to drops (multiple drops vs contact/tight coverage noted in data).
+Inconsistent Zone Awareness: Doesn't always read zone triangles correctly or know when to settle vs. continue running, leading to potential miscommunications.
+Lacks Elite Speed: Not a true burner; speed is functional but unlikely to consistently erase angles against faster NFL DBs over long distances.
+Player Comparisons:
+Ceiling: Alshon Jeffery (big-bodied, contested-catch winner).
+Floor/Bust Risk: Quentin Johnston / Bryan Edwards (physically gifted but technically unrefined disappointments).
+Bottom Line for Rookie Drafts: Harris is a high-variance prospect with undeniable physical tools and highlight-reel potential, but significant technical flaws across his game make him a risky investment requiring considerable development. He fits the profile of a player who could boom if the technique clicks, but carries substantial bust potential if it doesn't. He likely needs manufactured touches or specific vertical opportunities early on. The RSP evaluator suggests that drafting him in the early third round of rookie drafts (pre-NFL Draft) might even be reaching, indicating significant concern about his immediate readiness and overall refinement compared to his perceived hype. His value is highly dependent on coaching and development at the next level.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parker Washington/X - James Proche – Amari Rodgers – Byron Marshall</t>
+  </si>
+  <si>
+    <t>Rotational Starter</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Xavier Restrepo (RSP WR19) fits the archetype of a "classic slot receiver" whose fantasy upside appears significantly limited by athletic constraints and technical flaws. While possessing strong hands at the catch point and good YAC ability fueled by shiftiness and surprising power for his size, he lacks the necessary speed, acceleration, and route-running precision to consistently separate against NFL defenders, especially outside the slot. His catching technique also breaks down on non-pinpoint throws. Comparisons to players like Parker Washington, James Proche, and Amari Rodgers suggest a likely career path as a reserve or low-volume contributor rather than a fantasy starter. The evaluator considers him a "low-ceiling, high-floor [reserve]" option and advises against drafting him before the NFL Draft clarifies his role and potential opportunity.
+Fantasy Strengths:
+Strong Hands (at Catch Point): Reliable hands when the ball is thrown accurately, shows toughness through contact, and positions himself well. Good contested catch results when positioned properly.
+Good YAC Ability: Shifty and patient runner after the catch with good vision. Uses his stocky build (5'9", 209 lbs) effectively to break tackles and gain extra yards. More powerful than typical small slots.
+Slot Savvy: Understands how to work from the slot, find space against zone coverage, and utilize releases effective in two-way go situations.
+Good Ball Security: Appears to take care of the football; no major concerns highlighted.
+Fantasy Weaknesses:
+Lack of Speed &amp; Acceleration: Does not possess the speed to threaten vertically or consistently separate from defenders based on athleticism alone. Capped athletic ceiling.
+Imprecise Route Running: Breaks lack snap, precision, and sharp deceleration, particularly on timing routes. Drifts out of breaks and struggles to create separation against man coverage.
+Inconsistent Catching Technique (Off-Target Throws): Technique falters on throws that aren't pinpoint (high/away, low/behind), resorting to "clap-attacks" that lead to drops.
+Poor Blocking: Technique is generally poor (doesn't close gap, poor strike method, gets beaten to punch), making him ineffective as a blocker.
+Limited Role Projection: Profiles almost exclusively as a slot receiver working underneath routes.
+Durability History: Missed significant time with a foot injury in 2022.
+Player Comparisons:
+Parker Washington / James Proche / Amari Rodgers / Byron Marshall: These comparisons point towards players who primarily operate from the slot, often relying on YAC or gadget roles, and have generally had limited and inconsistent fantasy production.
+Bottom Line for Rookie Drafts: Restrepo's fantasy appeal is largely confined to deeper PPR leagues where underneath targets and some YAC can provide a baseline floor. However, his lack of athletic upside, combined with technical flaws in route running and catching (on off-target throws), severely limits his ceiling. He doesn't project as a player likely to command a high target share or produce significant fantasy numbers consistently. The RSP evaluator strongly suggests waiting until after the NFL Draft to assess his situation and considers him a poor value compared to other prospects with more upside, likely making him a late-round rookie pick at best, even in deep formats.</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Tank Dell - X - Tutu Atwell</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Tez Johnson (RSP WR22) is a highly polarizing prospect due to his extreme outlier size (5'9", 154 lbs) juxtaposed with elite short-area quickness, acceleration, and polished route-running skills for a slot receiver. While his athletic traits and YAC ability draw comparisons to players like Tank Dell and Tutu Atwell, and the evaluator argues his size might not be prohibitive citing historical examples (Gerald McNeil), it undeniably creates massive uncertainty regarding his NFL draft capital, role, and long-term durability. Compounding the size issue are significant concerns about inconsistent hands/drops and very poor blocking. Johnson possesses the skills to be a dynamic playmaker from the slot if given the chance, but the risks are substantial.
+Fantasy Strengths:
+Elite Acceleration &amp; Short-Area Quickness: Possesses top-tier burst and change-of-direction ability, crucial for separating in the short-to-intermediate areas and creating yards after the catch. Tested exceptionally well in these areas.
+Polished Route Running (Slot): Described as "sudden and artful," using a variety of releases, setups (hip shifts, pace changes, sticks), and sharp breaks (when clean) to create space underneath. Excels on scramble drills.
+Strong YAC Ability: Leverages his quickness, vision, and decisiveness effectively after the catch. Patient setting up blocks and can make multiple defenders miss. Uses stiff arm well for his size.
+Toughness: Has taken hard hits over the middle despite his frame.
+Versatile Usage: Experience playing slot, backfield, and wing suggests potential for creative deployment.
+Fantasy Weaknesses:
+Extreme Size/Weight: Historically small (154 lbs), raising major questions about durability, ability to handle NFL physicality, potential role limitations, and how NFL teams will value him (draft capital risk). This is the overriding concern.
+Inconsistent Hands/Drops: "Biggest concern... is his hands." Prone to "clap-attacks" due to wide hand positioning, leading to drops and fighting the ball. Had a multi-drop game, raising concentration/confidence questions. Tracked data shows drops and low catch rate vs contact/tight coverage.
+Very Poor Blocking: Noted as a non-blocker ("Joker... without blocking element"). Technique is poor across the board (approach, strike, sustain). Major liability.
+Limited Catch Radius/Contested Ability: Size naturally limits his catch radius. Profile notes he's strictly an "open-space player," unlikely to win contested catches consistently.
+Ball Security Technique: Elbow is loose, making ball vulnerable to being knocked out (though no rate provided).
+Durability: Shoulder injury in 2024 adds to long-term concerns given extreme weight.
+Player Comparisons:
+Tank Dell / Tutu Atwell: Undersized slot receivers known for speed/quickness, used primarily in space/gadget roles, with varying degrees of NFL success/consistency.
+Historical Comp: Gerald McNeil (used to argue against size being prohibitive, highlighting McNeil's success as a tiny returner in a tougher era).
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Johnson is the ultimate boom-or-bust prospect based on whether an NFL team is willing to overlook his unprecedented size and inconsistent hands to utilize his elite quickness and route savvy from the slot. If he earns significant draft capital (inside Round 6 suggested as a benchmark by RSP) and lands with a creative play-caller, he offers intriguing upside, especially in PPR formats. However, the risks (size, drops, blocking inability) are immense. The RSP evaluator advises extreme caution, suggesting fantasy managers wait for the NFL Draft to gauge team interest before considering Johnson, likely only as a speculative pick in the second half of rookie drafts if the draft capital provides a "tacit stamp of approval."</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>Cordarrelle Patterson</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Savion Williams (RSP WR11) is a unique and intriguing prospect due to his potential positional ambiguity, drawing a direct comparison to Cordarrelle Patterson. Possessing an elite physical profile (6'4", 222 lbs) and exceptional ability with the ball in his hands, Williams grades out with elite power and contact balance by running back standards and has experience playing the position at TCU. While evaluated primarily as a WR here (Rotational Starter, cusp of Starter tier), his ceiling might be highest if an NFL team converts him to RB. As a receiver, he shows promising tools – good releases, attacking leverage, reliable hands – but needs refinement in pacing, route setups, and break consistency. His fantasy value is highly dependent on his declared NFL position.
+Fantasy Strengths:
+Elite Physical Tools &amp; Size: Outstanding size, power, agility, and contact balance profile.
+Exceptional Ball Carrier Ability (RB Potential): Described as one of the best YAC receivers, essentially grading as a running back with the ball. Runs through all levels of contact, shows patience/decisiveness between tackles, good footwork/hip mobility. Potential first-round rookie pick value if drafted as an RB.
+Good Release Package (Potential): Possesses a variety of moves (read step, double up, stick, counters) and attacks leverage; needs refinement in pacing/craft.
+Promising Route Running Elements: Attacks stems, shows ability to stack, executes certain breaks well (snaps turns), understands zone concepts. Good foundation but needs more polish/variety in setups.
+Reliable Hands &amp; Contested Catches: Generally dependable hands, makes difficult catches, uses size well, good focus through contact, and strong enough hands to resist defenders. Excellent tight coverage catch rate (100%).
+Physical Blocker: Willing and physical blocker who gets hands inside and keeps feet moving.
+Fantasy Weaknesses:
+Positional Uncertainty: Will he be a WR, RB, or hybrid weapon? This creates significant variance in his fantasy projection pre-NFL Draft.
+WR Technique Refinement Needed: Requires more craft/pacing on releases, needs to add route setups, inconsistent sharpness/technique on certain breaks.
+Minor Catching Lapses: Occasional focus drops, sometimes uses suboptimal hand position (underhand on number targets), rare clap-attacks over the shoulder. Drops noted in tracked data.
+Durability History: Missed significant time early in his college career due to unspecified injuries, raising minor flags despite recent health.
+Player Comparisons:
+Cordarrelle Patterson: Perfect comparison highlighting his potential as a big, athletic weapon who excels with the ball in his hands, usable as a WR, RB, or returner, but potentially needing schematic help or development to thrive purely as a traditional WR.
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Savion Williams is one of the most fascinating prospects due to his potential RB conversion upside.
+As a WR: He projects as a high-upside rotational player (WR11 rank) with good size and YAC ability, needing technical refinement but offering intriguing potential. The RSP evaluator suggests he's worth considering in the second round of rookie drafts in this role.
+As an RB: His physical tools grade out as potentially elite, offering a ceiling of 2,000 scrimmage yards and double-digit TDs according to the evaluator. If an NFL team drafts him with the intention of playing him at RB, his fantasy value would skyrocket, potentially into the first round of rookie drafts. Monitor his NFL Draft designation closely; it will dictate his fantasy value more than almost any other prospect. He's a high-upside gamble with multiple paths to fantasy relevance.</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adonai Mitchell – X – Marquez Callaway – Jaray Jenkins </t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Elic Ayomanor (RSP WR24) presents a frustratingly inconsistent profile. He possesses intriguing tools, including good size (6'2", 206 lbs) and a surprisingly refined and diverse release package that often creates initial separation. However, his evaluation is marred by significant flaws after the release, particularly egregious struggles at the catch point against tight coverage due to poor technique (clap-attacks, suboptimal attack choices, poor positioning) and an inability to consistently stack defenders. This leads to a boom-bust profile with comparisons ranging from the similarly frustrating Adonai Mitchell to disappointing journeymen like Marquez Callaway and Jaray Jenkins. The evaluator expresses significant concern, suggesting Ayomanor frequently undermines his own good work and advises extreme caution in rookie drafts.
+Fantasy Strengths:
+Good Release Package: Possesses a strong array of nuanced footwork and hand counters delivered with good patience/suddenness contrast, allowing him to win early against coverage at the line.
+Good Size &amp; Frame: Has the physical dimensions desired for an outside receiver role.
+Functional YAC Ability: Uses his size and strength effectively after the catch, runs through contact, employs a decent stiff arm, and shows awareness to split defenders when needed.
+Solid Blocker: Shows good technique and willingness as a blocker in the run game.
+Good Ball Security &amp; Durability (Recently): Takes care of the ball; played full seasons recently despite past knee issues (HS PCL, 2022 camp injury).
+Fantasy Weaknesses:
+Poor Catch Point Execution vs. Tight Coverage: Major weakness. Consistently fails to secure contested catches due to poor technique ("clap-attacks"), suboptimal attack angles, poor positioning, and not attacking the ball early enough. Gets the ball ripped away frequently. Low tight coverage catch rate (50%).
+Inability to Stack/Maintain Separation: Frequently allows defenders back into the play after initially winning off the line or on the stem. Doesn't capitalize on separation created.
+Lacks Elite Speed/Acceleration: Described as having build-up speed rather than sudden burst; gets chased down by safeties and doesn't consistently pull away.
+Inconsistent Catching Technique: Prone to clap-attacking even on some easier targets, suggesting fundamental flaws in hand technique beyond just contested situations.
+Player Comparisons:
+Ceiling/Style Comp: Adonai Mitchell (physically gifted, flashes separation, frustratingly inconsistent at catch point).
+Floor/Bust Risk: Marquez Callaway / Jaray Jenkins (big-bodied receivers who didn't stick due to lack of refinement/consistency).
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Ayomanor is a high-risk prospect whose promising releases are frequently negated by his failures at the catch point, especially against tight coverage. While the physical tools and initial separation ability offer a glimpse of upside, his inability to consistently finish plays makes him a significant gamble. He needs major improvement in his catching technique and consistency to become a reliable fantasy asset. The RSP evaluator expresses strong skepticism, advising fantasy managers to essentially avoid him in rookie drafts before the NFL draft unless he falls significantly (4th round or later) and higher-ranked options are gone. His landing spot and coaching environment will be critical, but the existing flaws present a major hurdle.</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chris Godwin - - Brenden Rice/X – Damon Hazelton </t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Pat Bryant (RSP WR25) profiles as a technically sound, reliable possession receiver with good size (6'4", 204 lbs) whose strengths lie in setting up and executing route breaks effectively. While lacking elite top-end speed, he possesses good acceleration and stop-start quickness, which he leverages well both in routes and after the catch. His hands are generally reliable, and he navigates traffic well as a runner. However, his release package needs significant refinement (lacking nuance/pacing), and minor technical inconsistencies persist (clap-attacks, break sharpness). He projects as a high-floor WR3/WR4 type, potentially filling a flanker/big slot role, similar to a Chris Godwin mold (though perhaps less dynamic), but the evaluator advises caution pre-draft due to the capped athletic ceiling.
+Fantasy Strengths:
+Good Route Running (Setups/Breaks): Excels at setting up defenders mid-route using various techniques (head fakes, peeks, insets, stair-steps) and executing breaks effectively, particularly working back to the QB. Understands zone concepts.
+Good Acceleration &amp; Quickness: Compensates for lack of top speed with good burst and stop-start ability, aiding separation and YAC.
+Effective YAC Ability: Navigates traffic well, makes defenders miss with agility (spins, cuts), shows good vision, uses a solid stiff arm, and runs with adequate power through contact.
+Reliable Hands (Generally): Wins against tight coverage, makes catches through contact, tracks well, and extends effectively. Generally dependable despite minor technical flaws.
+Good Size &amp; Blocking: Possesses good height and frame; shows good technique and willingness as a blocker.
+Durability: No significant reported injuries.
+Fantasy Weaknesses:
+Lack of Top-End Speed: Unlikely to consistently win vertically or generate huge plays based on speed alone. Likely confined to underneath/intermediate work primarily.
+Release Refinement Needed: Release package lacks nuance, pacing variation (patience/suddenness), and artistry needed to consistently defeat NFL press coverage at the line.
+Inconsistent Catching Technique: Prone to minor "clap-attacks," which could be problematic despite generally good hands.
+Route Break Consistency: While generally good, breaks sometimes lack optimal sharpness/snap, especially on timing routes.
+Player Comparisons:
+High end: Chris Godwin (versatile, reliable, tough possession receiver).
+Spectrum Comps: Brenden Rice / Damon Hazelton (representing a range from solid contributor to less impactful player).
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Bryant offers a safe floor as a technically sound receiver with good size and reliable hands, likely capable of carving out a role as a dependable possession target. His lack of elite speed caps his ceiling, but his quickness, YAC ability, and route savvy make him a solid prospect for a WR3/WR4 role in an NFL offense, potentially as a flanker or big slot. The RSP evaluator advises monitoring him from afar pre-draft, suggesting he's likely a late-round value pick (6th-8th round leagues) unless significant NFL draft capital indicates a clearer path to early opportunity.</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Jameson Williams – X – Quez Watkins</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Tai Felton (RSP WR26) is the definition of a boom-or-bust prospect, described as having a "high ceiling with a trap door leading to a deep drop." His allure comes from legitimate deep speed and creative, dynamic ability after the catch. However, his profile is marred by significant and critical flaws, most notably highly inconsistent hands and catching technique ("catch-point woes," frequent "clap-attacks," drops), along with raw, unrefined route running and release techniques. Comparisons to Jameson Williams and Quez Watkins aptly capture his profile: tantalizing speed offset by frustrating inconsistency. He requires significant development and carries substantial risk.
+Fantasy Strengths:
+Speed &amp; Big-Play Ability: Possesses legitimate deep speed to separate vertically and is dangerous after the catch, capable of turning short gains into long touchdowns.
+Creative YAC Ability: Agile and creative with the ball in his hands, uses stop-start quickness, spins, and vision to make defenders miss and create yardage independently.
+Route Running Potential: Shows flashes of good route running elements – sharp breaks (when clean), effective setups (using head fakes, stems), and a variety of release moves. Has the athletic tools to develop further.
+Return Specialist Potential: Implied by speed/athleticism and explicitly mentioned as a way he could earn early opportunities while developing as a receiver.
+Durability: No significant reported injuries.
+Fantasy Weaknesses:
+Catching Technique / Drops (Major Flaw): Hands are a significant liability. Prone to frequent "clap-attacks," uses suboptimal hand positions, lets the ball into his frame, and struggles with focus, leading to numerous drops across various target types (PP, G, vs Contact, Tight Coverage drops all noted in tracked data).
+Raw Route Running &amp; Release Technique: Lacks precision, consistency, and refinement. Releases need more pacing/craft, breaks can drift or lack optimal technique, and setups aren't always convincing. Needs significant technical development.
+Inconsistent Zone Awareness: Struggles with identifying zone triangles, knowing when to settle, and showing eyes to the QB at the right time.
+Poor Blocking: Technique needs "significant correction"; approach is flawed, prone to overextension.
+Ball Security Technique: Carries ball loose, elbow wide, prone to using wrong arm near boundary.
+Player Comparisons:
+Jameson Williams / Quez Watkins: Both comparisons highlight elite speed potential coupled with significant concerns about hands, route running consistency, and overall reliability, leading to boom/bust fantasy production.
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Felton is a high-risk developmental prospect purely for fantasy managers willing to gamble on elite speed potentially overcoming massive technical flaws. His inconsistent hands are a major red flag that could prevent him from ever earning consistent targets, regardless of his speed. He likely needs time to develop and may only contribute initially via special teams or gadget plays. The RSP evaluator strongly cautions against investing significant draft capital, suggesting he's a late-round flier only, and advises having "clear boundaries" on roster patience due to the potential for him to be a "practice hype" player who struggles in games. Wait for the NFL Draft results before considering him, and even then, temper expectations significantly.</t>
+  </si>
+  <si>
+    <t>San Jose State</t>
+  </si>
+  <si>
+    <t>Michael Wilson – X/Grant DuBose – Damon Hazelton</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Nick Nash (RSP WR28) is an intriguing developmental prospect, having converted from QB to WR full-time in 2022. He shows significant promise with nuanced release packages (effectively using patience/suddenness), good route understanding, strong hands, and excellent ability in contested catch situations due to savvy positioning. Graded as a Rotational Starter, he compares favorably to reliable possession types like Michael Wilson. However, his fantasy ceiling is likely capped by a lack of high-end long speed. He also needs refinement in consistently attacking the ball early and cleaning up minor catching technique flaws (clap-attacks). He projects as a potential WR2/3 for an NFL team down the line, offering WR2-WR4 fantasy value if he develops.
+Fantasy Strengths:
+Good Route Running &amp; Releases: Possesses a wide array of release moves and effectively uses patience/suddenness to beat coverage at the line. Understands setups, runs routes well (especially timing routes), and shows good zone awareness.
+Strong Hands &amp; Contested Catch Ability: Skilled at winning contested catches through excellent positioning ("jump up and through," pull-back). Reliable hands, extends well, catches away from frame, and shows good focus through contact. High catch rates vs contact/tight coverage.
+Good Short-Area Quickness: Displays effective acceleration and change-of-direction ability, aiding releases and separation on shorter routes.
+Effective YAC Ability: Uses vision, agility (spins, jump cuts), and functional power (stiff arm, runs through wraps) to create yards after the catch.
+Versatility &amp; Football IQ: QB background likely contributes to his understanding. Has experience playing inside (slot) and outside (X).
+Good Ball Security &amp; Durability: Takes care of the ball (technique improved after early 2024 fumble) and has no significant injury history as a WR.
+Fantasy Weaknesses:
+Lack of Long Speed: Described as having speed in the "bottom range of starter value." Unlikely to consistently win deep purely on speed or pull away for long touchdowns.
+Catching Technique Refinement: Needs to attack the ball earlier more consistently, especially on targets arriving at his numbers. Prone to occasional "clap-attacks," particularly on high points.
+Route Break Polish: Speed breaks on intermediate routes need sharper execution (drive/line steps).
+Inconsistent Blocking: Technique can be flawed (overextension, relies on shielding vs. striking consistently).
+Player Comparisons:
+High end: Michael Wilson (reliable possession receiver who earned role quickly).1   
+1.
+NFL Draft Profile: Michael Wilson, Wide Receiver, Stanford Cardinal - Sports Illustrated
+www.si.com
+Spectrum Comps: Grant DuBose / Damon Hazelton (representing lower-end outcomes for this physical archetype).
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Nash is a high-floor prospect due to his advanced releases, reliable hands, and contested-catch skills. His lack of top-end speed likely relegates him to a possession role working underneath and intermediate, but he has the tools to be effective there. He projects as a dependable supporting receiver (WR2/3 on his own team) who could offer steady WR3/4 fantasy value with upside for more if he continues to develop. The RSP evaluator suggests considering him as a late-round rookie pick or waiver wire addition pre-draft, viewing him as a solid developmental prospect with a good chance to carve out a meaningful role within a couple of years.</t>
+  </si>
+  <si>
+    <t>UNLV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torry Holt – Antonio Bryant - X – Ronnie Bell- Tre Turner </t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Ricky White III (RSP WR34) possesses a solid technical foundation as a route runner and generally reliable hands, but his fantasy upside appears significantly capped by a lack of NFL-caliber speed ("pedestrian") and crucial inconsistencies in his catching technique. While compared aspirationally to the technician Torry Holt, his more realistic comparisons (Ronnie Bell, Tre Turner) suggest a future as a dependable but low-ceiling contributor. His inability to consistently win with speed, combined with technique flaws leading to drops (especially "clap-attacks"), makes him a risky bet for significant fantasy production. The evaluator expresses skepticism about his upside beyond a reserve role unless significant, perhaps unlikely, improvement occurs.
+Fantasy Strengths:
+Good Route Running Fundamentals: Shows good understanding of stems, setups (using sticks, double-ups, peeks), breaks (3-step, speed breaks shallow), and working back to the ball. Strong technical foundation. Good zone awareness.
+Reliable Hands (Overall): Generally catches the ball well, tracks effectively, extends, and shows good focus through contact (100% PP Catch Rate overall, though one drop noted).
+Effective YAC Ability: Makes the first man miss with stop-start quickness and agility (stick, spin, jump cut), shows good vision, and uses functional power (stiff arm, runs through wraps) after the catch.
+Good Release Variety: Possesses a solid arsenal of release moves and counters.
+Solid Blocker: Shows good technique and effort as a blocker.
+Fantasy Weaknesses:
+Lack of Top-End Speed: Described as having speed that is "pedestrian by NFL standards," significantly limiting his ability to separate vertically or be a consistent deep threat.
+Catching Technique Flaws: "Most important thing... to address." Hands are often too wide, leading to frequent "clap-attacks" on various targets (high points, over shoulder, low/behind) and subsequent drops (drops noted in tracked data). Must be fixed to survive against NFL defenders, especially given lack of speed.
+Route Running/Release Refinement Needed: Needs better pacing and artistry in releases; breaks lack consistent snap and acceleration; needs sharper execution overall to compensate for average athleticism.
+Unnecessary Leaping: Leaves feet on catchable targets, limiting YAC.
+Ball Security Technique: Carries ball loose in open field, prone to using wrong arm.
+Player Comparisons:
+Aspirational Ceiling: Torry Holt (elite technician who overcame speed limitations - seen as unlikely for White).
+Realistic Comps: Ronnie Bell / Tre Turner (solid NFL contributors, likely WR3/4 types).
+Middle Ground/Warning: Antonio Bryant (talented but inconsistent/flawed).
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): White profiles as a technically sound receiver likely limited to a possession role due to athletic constraints. The major concern is whether his inconsistent catching technique can be fixed; if not, his lack of separating speed will make it very difficult to earn targets against NFL coverage. He projects as a potential depth receiver or practice squad player initially. The RSP evaluator advises extreme caution ("Monitor from afar"), suggesting fantasy managers only consider him late in very deep rookie drafts after the NFL Draft clarifies if a team invests any meaningful capital in him. He appears to have a low fantasy ceiling.</t>
+  </si>
+  <si>
+    <t>Colorado State</t>
+  </si>
+  <si>
+    <t>Van Jefferson</t>
+  </si>
+  <si>
+    <t>Reserve</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Tory Horton (RSP WR63) is evaluated as a "Reserve" tier prospect with significant flaws that likely outweigh his intriguing flashes, leading to a highly cautionary outlook. While possessing some YAC quickness and a variety of release moves, his game is plagued by sloppy route breaks, problematic catching technique (especially "clap-attacks"), and a lack of NFL-caliber speed or burst. A comparison to Van Jefferson suggests a limited ceiling as a depth receiver. Compounding these issues is a recent knee injury requiring surgery. The evaluator notes potential for improvement if major technical flaws are fixed, but expresses skepticism, advising fantasy managers to "monitor from afar" and consider him only as a deep dynasty stash contingent on glowing camp reports.
+Fantasy Strengths:
+YAC Quickness: Shows good quickness, jump cuts, and spins to make defenders miss after the catch in tight quarters. Good vision to find cutback lanes.
+Release Variety (Raw): Possesses a range of release maneuvers (stretch, two-quick, foot switch, double-up, stick, counters), suggesting a foundation for development if pacing and craft are added.
+Blocking Effort/Flashes: Shows willingness and some good technical elements (squaring up, aiming for chest, moving feet) when technique holds up.
+Fantasy Weaknesses:
+Problematic Catching Technique: Major issue. Prone to "clap-attacks" due to incorrect hand positioning (palms facing each other), allows ball into frame, struggles adjusting to non-pinpoint throws, leading to drops and unreliability. Catch rate data shows drops vs contact and tight coverage.
+Sloppy Route Running: Breaks lack consistent sharpness, snap, and proper footwork (drifting, poor line steps, balance issues). Needs significant refinement for NFL separation.
+Lack of NFL Speed/Burst: Does not possess starter-level speed or acceleration; struggles to separate vertically or pull away. Athleticism is a significant limiter.
+Raw Release Technique: Lacks consistent pacing, violence, and craft needed to make his variety of moves effective against NFL corners.
+Durability/Injury: Missed most of the 2024 season with a knee injury requiring surgery in October. Recovery and long-term impact are concerns.
+Inconsistent Blocking Execution: Prone to overextending, wide hands ("hugger"), lacks punch force.
+Player Comparisons:
+Van Jefferson: Compares to a depth receiver known more for occasional flashes than consistent production or standout traits.
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Horton is a long-shot developmental prospect with significant hurdles to overcome. His catching technique issues are particularly concerning and could prevent him from sticking in the league, regardless of other skills. Combined with athletic limitations and recovery from knee surgery, his fantasy outlook is bleak. The RSP evaluator strongly advises against using a rookie pick on him before the NFL Draft and suggests only considering him as a deep dynasty stash if unexpected positive reports about his route running and catching emerge during training camp. He carries very high bust potential.</t>
+  </si>
+  <si>
+    <t>Mike Gesicki – Ed Dickson – X - Micheal Egnew</t>
+  </si>
+  <si>
+    <t>Contributor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall Fantasy Outlook: Terrance Ferguson (RSP TE16) profiles as a highly limited, linear athlete whose intriguing size/speed/leap potential is severely undermined by significant technical flaws and a lack of functional football fluidity. Graded as a low-end "Contributor," his comparisons range from a less reliable Mike Gesicki to outright bust Micheal Egnew. While capable on straight-line routes (seams, screens) where he can build speed, he struggles immensely with skills requiring short-area quickness or bend – releases vs. tight coverage, sharp route breaks, YAC elusiveness, and blocking adjustments. Critically, his catching technique is poor ("clap-attacks," focus drops, wrong hand usage), leading to inconsistency, especially in contested situations. The evaluator is extremely low on his NFL projection and cannot recommend drafting him for fantasy purposes.
+Fantasy Strengths:
+Linear Speed/Vertical Ability: Possesses good straight-line speed once he gets a runway and vertical leaping ability. Can generate chunk plays on schemed targets (screens, seams).
+Good Tracking (Linear Routes): Tracks the ball well over his shoulder on vertical routes when he has time/space.
+YAC Power (Linear): Uses size (6'5", 247 lbs) and momentum effectively when running downhill; has a decent stiff arm and can pull through some tackles.
+Fantasy Weaknesses:
+Lack of Fluidity/Linear Athlete: "Stiff athlete" whose lack of short-area quickness and bend limits effectiveness in releases, route breaks (especially hard breaks), creating YAC through agility, and adjusting as a blocker.
+Poor Catching Technique/Drops: Major issue. Prone to frequent "clap-attacks," uses suboptimal hand positions, lacks focus, and drops contested targets far more often than he catches them. Technique breaks down on non-pinpoint throws. Low catch rates vs contact/tight coverage.
+Limited Route Running: Struggles significantly against man coverage due to inability to create separation via releases or sharp breaks. Effectiveness largely limited to zone coverage or schemed plays.
+Poor Blocking: Consistently overextends, lacks quickness to redirect, struggles with assignments requiring agility (lead blocking, stalk blocking reactions). Significant liability.
+Limited YAC Elusiveness: Not effective with stop-start movement; relies on linear power/speed rather than agility.
+Player Comparisons:
+High end (but flawed): Mike Gesicki (less reliable hands than Gesicki).
+Low end: Ed Dickson (journeyman).
+Bust warning: Micheal Egnew (similar linear athlete who failed).
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Ferguson appears to be a "highlight reel" prospect whose athletic testing might entice, but his on-field limitations, particularly his poor catching technique and lack of functional fluidity, make him a very poor bet for fantasy success. He projects as a highly specialized, likely inconsistent player at the NFL level, if he sticks at all. The RSP evaluator strongly advises against drafting him in any format, viewing him as a likely bust candidate whose linear traits won't translate effectively to the nuances of the TE position in the NFL. Avoid him in rookie drafts.
+</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George Kittle - T.J. Hockenson/Tyler Eifert/X </t>
+  </si>
+  <si>
+    <t>Starter</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Colston Loveland ranks as the RSP TE1 and possesses the all-around skillset to become a high-end NFL starter, fitting firmly into the T.J. Hockenson tier of tight ends – a versatile weapon capable of significant receiving production while being a capable blocker. While not possessing the "chimera" level blocking/receiving combination of a Gronkowski or perhaps Kittle, Loveland excels as a route runner at all levels, is dangerous after the catch, and shows promise as a blocker (though inconsistent). He projects as a potential top-three target in his future NFL offense, offering significant fantasy value, especially in TE premium formats. His recovery from major shoulder surgery (Oct '24, expected ready late July '25) is the primary immediate concern.
+Fantasy Strengths:
+Excellent Receiving Ability: Polished route runner who can stretch the field vertically (beats safeties up seam), win intermediate routes (digs), and operate underneath. Understands zone concepts, uses effective releases/setups, and shows good nuance.
+Strong YAC Ability: Physical runner after the catch who wins collisions, gets high knees through contact, drags defenders, uses an effective stiff arm, and shows good vision/patience.
+Good Athleticism &amp; Size: Ideal TE frame (6'5", 248 lbs) combined with good speed, acceleration, and agility to win as both a receiver and ball carrier.
+Versatility: Capable of lining up inline or detached and contributing significantly as both a receiver and a blocker (when technique holds). High football IQ.
+Reliable Hands: Generally dependable hands (100% PP catch rate), tracks the ball well, high-points effectively, and makes catches through contact.
+Fantasy Weaknesses:
+Inconsistent Blocking Technique: Prone to overextending inline, inconsistent aiming points on lead blocks. Needs more consistent execution despite showing capability.
+Route Break Refinement: Needs more consistent suddenness and deeper weight drop on some breaks (drop &amp; pop, whip) to maximize separation against NFL defenders.
+Minor Catching/Ball Security Lapses: Occasional clap-attacks (underhand at back hip); habit of not securing the ball immediately after catch (led to past fumble). Needs to improve boundary footwork consistency when high-pointing. Drops noted vs contact/tight coverage.
+Shoulder Injury Recovery: Underwent significant shoulder surgery (labrum/AC joint) in October 2024; expected return by late July 2025 needs monitoring for any rookie year impact or long-term concerns.
+Player Comparisons:
+Primary Comp Tier: T.J. Hockenson (high-end receiving TE, capable blocker, top-3 offensive option).
+Stylistic Comps: George Kittle / Tyler Eifert (athletic receiving TEs with blocking ability).
+Explicit Non-Comp: Brock Bowers (evaluator notes Bowers has superior athleticism).
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Loveland is a top-tier TE prospect with a well-rounded game poised for significant NFL production, likely mirroring T.J. Hockenson's fantasy impact. He offers both a high floor due to his receiving skills and blocking potential, and a considerable ceiling as a potential focal point of a passing attack. The shoulder injury recovery is the main variable for his rookie season. His fantasy draft value varies significantly by format:
+TE Premium (1.5 PPR+): Clear first-round rookie pick value.
+Standard PPR: Better value in the back half of the second round.
+Non-PPR: Value likely falls to the back half of the third round. He's a strong investment, particularly in formats that reward tight end production.</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>Mark Andrews / X</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Mason Taylor (RSP TE2) profiles as an elite tight end prospect with a high floor and considerable ceiling, drawing strong comparisons to Mark Andrews but possessing potentially a higher ceiling as a blocker. Evaluated as a "Starter" tier talent, Taylor is a smooth, versatile athlete who excels in all facets: refined route running, reliable hands, dynamic ability after the catch, and increasingly effective blocking. While minor technical flaws exist (ball security carriage, occasional clap-attacks), his overall skillset suggests he can be a cornerstone piece of an NFL offense, potentially outproducing more hyped TEs like Loveland depending on scheme fit and opportunity. He projects as a high-end fantasy TE1.
+Fantasy Strengths:
+Excellent Receiving Skills: Smooth route runner with a solid grasp of releases, setups, and breaks. Creates separation and makes catches at all levels. Reliable hands (92% PP catch rate), extends well, wins through contact, good focus.
+Dynamic YAC Ability: Possesses impressive curvilinear speed and vision to weave through traffic after the catch, often creating extra yards independently. Uses power and a stiff arm effectively.
+Strong Blocking Potential: Shows a high ceiling as a blocker with good technique (hand usage, counters, footwork), power (uppercut, generates force), and versatility (inline, lead, pass pro). Already effective and improving.
+Ideal Size &amp; Athleticism: Prototypical TE frame (6'5", 251 lbs) combined with smooth athleticism, good acceleration, and speed to challenge defenses vertically and after the catch.
+Scheme Versatility: Fits any offensive scheme due to his well-rounded skillset; can operate inline, detached in the slot, or even outside like Ertz/Kelce, exploiting mismatches.
+Durability: No significant reported injuries.
+Fantasy Weaknesses:
+Ball Security Technique: Prone to swinging the ball in the open field with a loose elbow; needs to consistently keep it tighter.
+Minor Catching Technique Lapses: Occasional "small clap-attacks" on targets high and away from his frame. Drops noted on G/G vs Contact/Tight Coverage.
+Release Pacing (Minor): Footwork on releases when detached could incorporate more patience/suddenness artistry.
+Player Comparisons:
+Primary Comp: Mark Andrews (high-end receiving TE; Taylor has better blocking potential).
+Remote Ceiling Comp: George Kittle (if speed/YAC fully translate).
+Functional Comps (Usage): Zach Ertz / Travis Kelce (ability to be used detached/exploit mismatches).
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Taylor looks like a high-end, immediate impact fantasy tight end. His combination of receiving prowess, dynamic YAC ability, and strong blocking potential gives him immense upside comparable to the elite TEs in the NFL. He might be undervalued in rookie drafts compared to Loveland (or Bowers if he were in this hypothetical class) but possesses arguably similar or even greater potential depending on landing spot. He warrants consideration late in the first round or early in the second round of standard rookie drafts and likely higher in TE premium formats. He has a strong chance to become a long-term fantasy TE1.</t>
+  </si>
+  <si>
+    <t>Bowling Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brock Bowers – Sam LaPorta – X/Delanie Walker – Garrett Graham  </t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Harold Fannin Jr. (RSP TE3) presents a compelling profile strongly reminiscent of Sam LaPorta, possessing elite short-area quickness and change-of-direction ability that fuel polished route running and exceptional YAC elusiveness. Graded as a "Rotational Starter," his lack of elite long speed (4.71 40-yard dash) is considered less critical given his likely role and demonstrable on-field speed that meets NFL starter standards. While blocking needs development, Fannin excels as a receiver with reliable hands and savvy movement skills. His primary risk lies in landing with a team that doesn't utilize his 'move' TE skillset optimally. If deployed correctly, he has the potential for a LaPorta-like impact as a high-volume target.
+Fantasy Strengths:
+Elite Quickness &amp; Change of Direction: Possesses top-tier agility (Shuttle/3-Cone comparable to LaPorta), enabling sharp route breaks and elite elusiveness after the catch.
+Excellent YAC Ability: Arguably the best YAC TE in the class due to creativity, patience setting up defenders, excellent footwork, and eliminating pursuit angles. Makes defenders miss frequently.
+Polished Route Running: Understands how to manipulate coverage, uses patient/sudden releases, effective setups, precise breaks (when clean), and good zone awareness. Gets open consistently underneath and intermediate.
+Reliable Hands: Generally dependable catcher (100% PP Catch Rate), adjusts well to targets, shows good focus through contact, and attacks the ball effectively.
+Versatility: Former WR/S with experience detached; fits schemes using 'move' TEs, offering mismatch potential.
+Durability: No significant reported injuries.
+Fantasy Weaknesses:
+Lack of Elite Long Speed: 4.71 40-time and ~20 MPH max speed confirm he's not a true field-stretching burner, limiting deep threat ceiling compared to the most explosive TEs.
+Blocking (Needs Development): Not his calling card; needs refinement and likely added strength to be more than a situational/backside blocker. Risk of being misused if coaches prioritize this.
+Scheme Fit Risk: Potential downside if drafted by a team that doesn't utilize a 'move' TE effectively or tries to make him a primary inline blocker.
+Minor Catching Lapses: Occasional clap-attacks away from frame; tracked data shows drops versus contact and tight coverage (0% catch rate in small sample).
+Player Comparisons:
+Strong Comp/Realistic Aspiration: Sam LaPorta (skillset, athletic profile sans 40, potential usage/production).
+Spectrum Comps: Brock Bowers (aspirational top end, Fannin less explosive), Delanie Walker (productive move TE), Garrett Graham (lower-end floor).
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Fannin possesses the athletic traits (quickness/agility &gt; speed) and receiving skills to potentially replicate Sam LaPorta's rookie success if—and it's a significant if—he lands in the right offensive scheme that plays to his strengths. His YAC ability and route running give him significant fantasy upside, particularly in PPR formats. While the evaluator ranks him TE3, the advice is to wait until after the NFL Draft to target him, ensuring the landing spot is conducive to his success. If the fit looks good, he could be a high-value pick likely available later than Loveland/Taylor, offering similar or potentially greater fantasy production potential. He's a prime post-draft target depending on situation.</t>
+  </si>
+  <si>
+    <t>Travis Kelce – Jared Cook – Todd Heap/X – Luke Willson – Coby Fleener</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Elijah Arroyo (RSP TE4) is described as the "eye candy" of the tight end class, possessing elite speed and athleticism for his size (6'5", 250 lbs), drawing comparisons to athletic TEs like Jared Cook or Todd Heap (with Travis Kelce being a highly aspirational, likely unreachable ceiling). However, this "Rotational Starter" graded prospect comes with significant risk due to a major injury history (ACL costing most of 2022-23, recent Senior Bowl knee injury) and considerable technical rawness. His route running lacks precision, pacing, and consistent sharpness, and his catching technique breaks down on awkward targets. While his athletic gifts offer massive upside if developed, he requires significant refinement and carries substantial bust potential.
+Fantasy Strengths:
+Elite Speed &amp; Athleticism: Considered the fastest TE in the class with speed to challenge safeties vertically and pull away in the open field. Possesses good agility and overall athleticism.
+Strong YAC Potential: Uses his speed, size, and agility effectively after the catch to run through/bounce off contact, make defenders miss, and generate chunk plays.
+Good Hands/Catching (Flashes): Shows ability to make difficult athletic catches, extend for the ball, track over the shoulder, and win through contact when technique holds up. Possesses a good catch radius.
+Blocking Potential: Shows quick hands, combativeness, understands aiming points, and flashes ability to execute specific blocks well (especially backside DEs). Potential to develop into a competent blocker.
+Ideal Size: Excellent frame for a versatile TE role.
+Fantasy Weaknesses:
+Significant Injury History: Torn ACL wiped out most of his 2022 and 2023 seasons. Suffered another knee injury at the 2024 Senior Bowl. Durability is a major concern.
+Raw Route Running: Lacks refinement. Runs routes at one speed, breaks lack consistent sharpness/precision/deceleration, setups need work. Relies on athleticism over craft currently.
+Inconsistent Catching Technique: Lacks ingrained reactions/uniform hand position on awkward targets, leading to potential drops or inefficient catches. Allows ball into frame sometimes.
+Inconsistent Blocking: Prone to overextending, misses assignments due to inefficient lateral movement, needs to improve punch/sustain ability despite flashes of good technique.
+Limited Initial Role: Likely needs specific schemed looks early on leveraging his speed; blocking role best suited for backside/stalk duties initially.
+Player Comparisons:
+Ceiling Comp: Healthier Todd Heap (Realistic). Travis Kelce (Aspirational/Unlikely).
+Stylistic/Volatility Comp: Jared Cook / Luke Willson / Coby Fleener (Athletic TEs with inconsistent production often tied to refinement/hands).
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Arroyo is a high-risk, high-reward developmental tight end. His elite athleticism offers a tantalizing ceiling, but his significant injury history and considerable technical rawness (routes, hands, blocking) make him a volatile prospect. He needs time, health, and excellent coaching to reach his potential. Fantasy managers drafting him are betting purely on athletic upside overcoming major hurdles. The RSP evaluator suggests caution, viewing him as a mid-round rookie pick after Round 2 (unless in TE premium formats where the upside is more valuable earlier) and potentially a better buy-low candidate in a year or two if development stalls initially. Given the injury history and needed refinement, drafting him early is a significant gamble.</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>Dallas Clark – X/Tucker Kraft</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Tyler Warren (RSP TE5) is a physically impressive prospect whose highlight reel, featuring contested catches and powerful running (including from the backfield), has generated significant buzz. However, this profile expresses caution, ranking him below the elite tiers and highlighting substantial technical deficiencies in both blocking and route running that need significant refinement for NFL success. While possessing a potential ceiling similar to Dallas Clark if development occurs, his current game is closer to Tucker Kraft, relying more on size and aggression than nuanced technique. He projects as a rotational starter initially, likely needing time and coaching to potentially reach his ceiling as a productive fantasy TE.
+Fantasy Strengths:
+Excellent Contested Catch Ability: Wins 50/50 balls effectively using his size (6'5", 256 lbs), physicality, and good positioning/body control. A potential red zone weapon.
+Strong YAC Ability: Powerful runner after the catch ("looks like tank"), patient setting up blocks, savvy footwork, breaks tackles through strength, and finishes runs with low pad level. Effective when used on designed runs.
+Versatility (Usage): Utilized inline, detached, and uniquely in the backfield (even as a QB in short yardage) at Penn State, offering schematic flexibility.
+Adequate Athleticism: Possesses viable short-area quickness and smooth acceleration for his size, though lacks elite top-end speed.
+Durability: No significant reported injuries.
+Fantasy Weaknesses:
+Poor Blocking Technique: A major area of concern. Frequently overextends, telegraphs intentions, doesn't use hands effectively (needs to learn punch), and relies on size/aggression over technique, which is less likely to work consistently in the NFL.
+Raw Route Running: Lacks artistry and refinement. Releases lack pacing variation, setups are underdeveloped, and breaks often lack necessary sharpness, snap, or weight drop, limiting separation potential against NFL defenders.
+Catching Technique Lapses (Minor): Occasional "clap-attacks," particularly on high points or when using underhand position where overhand might be better. Needs to attack the ball earlier consistently.
+Lacks Elite Speed/Dynamism: Athleticism is good, not great ("not an elite mover"). Unlikely to generate consistent breakaway plays purely with speed.
+Player Comparisons:
+Ceiling: Dallas Clark (modern version - versatile, high-volume receiver).
+Realistic Comp/Floor: Tucker Kraft (solid contributor needing refinement).
+Production Tier: Comparable potential to David Njoku / Jonnu Smith (capable of 700-900 yards, 6-8 TDs in zone-heavy/YAC roles).
+Explicit Non-Comps: Not Kittle/Gronk or Hockenson tier.
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Warren offers an intriguing package of size, contested-catch ability, and YAC power, making him a high-ceiling prospect if he undergoes significant technical development. However, his current rawness in route running and blocking makes him a project. He likely needs a specific role early on (red zone specialist, H-back, schemed YAC touches) while he refines his game. The RSP evaluator warns against buying into potential pre-draft hype ("overrated in early fantasy drafts") and suggests he's a safer investment after the NFL Draft reveals his landing spot and potential role. Pre-draft, he likely falls into the mid-to-late second or early third round of rookie drafts, representing a developmental gamble on his physical tools overcoming technical deficiencies.</t>
   </si>
 </sst>
 </file>
@@ -1155,18 +1831,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BB6BA8-4F4C-43D2-B7ED-38D13DC00C71}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G36:G38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.08984375" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" customWidth="1"/>
     <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
@@ -1252,20 +1927,56 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4">
+        <v>86.4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1294,12 +2005,30 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7">
+        <v>85.6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1354,44 +2083,134 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10">
+        <v>89.9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11">
+        <v>82.7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12">
+        <v>91.3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14">
+        <v>88.8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1420,28 +2239,82 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16">
+        <v>82.9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17">
+        <v>87.7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18">
+        <v>86.2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1470,7 +2343,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1478,12 +2351,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>44</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21">
+        <v>84.8</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1512,7 +2403,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1520,20 +2411,56 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>50</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24">
+        <v>85</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>52</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" t="s">
+        <v>209</v>
+      </c>
+      <c r="F25">
+        <v>83.3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1562,12 +2489,30 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27">
+        <v>86.1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1596,20 +2541,56 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>11</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29">
+        <v>71.2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>196</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>13</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
+      </c>
+      <c r="C30">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30">
+        <v>83</v>
+      </c>
+      <c r="G30" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1638,7 +2619,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1646,12 +2627,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>20</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" t="s">
+        <v>211</v>
+      </c>
+      <c r="F33">
+        <v>83.2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>171</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1732,12 +2731,30 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>29</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
+      </c>
+      <c r="C37">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" t="s">
+        <v>198</v>
+      </c>
+      <c r="F37">
+        <v>76.2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>199</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1766,20 +2783,56 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>33</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39">
+        <v>81.2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>171</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40">
+        <v>84.9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>171</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1808,12 +2861,30 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>39</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
+      </c>
+      <c r="C42">
+        <v>22</v>
+      </c>
+      <c r="D42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" t="s">
+        <v>174</v>
+      </c>
+      <c r="F42">
+        <v>83.1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>171</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1868,20 +2939,56 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C45">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45">
+        <v>82.7</v>
+      </c>
+      <c r="G45" t="s">
+        <v>171</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>205</v>
+      </c>
+      <c r="E46" t="s">
+        <v>206</v>
+      </c>
+      <c r="F46">
+        <v>86.3</v>
+      </c>
+      <c r="G46" t="s">
+        <v>203</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1910,20 +3017,56 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C48">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>182</v>
+      </c>
+      <c r="E48" t="s">
+        <v>183</v>
+      </c>
+      <c r="F48">
+        <v>82.8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>171</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>53</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
+      </c>
+      <c r="C49">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>188</v>
+      </c>
+      <c r="E49" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49">
+        <v>82.2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>171</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1953,13 +3096,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H49" xr:uid="{57BB6BA8-4F4C-43D2-B7ED-38D13DC00C71}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="RB"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H50" xr:uid="{57BB6BA8-4F4C-43D2-B7ED-38D13DC00C71}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/RSP_Rookies.xlsx
+++ b/data/RSP_Rookies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28a1ee50a88aa706/python_work/Dynasty_tools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="8_{0EB90C79-FC22-4A12-A94D-9985B2A593C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06E58B38-EF1A-45B1-B827-5316FD62CDB8}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="8_{0EB90C79-FC22-4A12-A94D-9985B2A593C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE8E6E6F-5A8D-4BA1-B34D-BA8E833F6849}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="38020" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
+    <workbookView xWindow="0" yWindow="2350" windowWidth="21600" windowHeight="15910" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,18 +204,6 @@
   </si>
   <si>
     <t>School</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comparison Spectrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Depth of Talent Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Depth of Talent Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Notes</t>
   </si>
   <si>
     <t>Boise State</t>
@@ -366,9 +354,6 @@
     <t>Jonathan Taylor - X/Chris Carson/Isaiah Crowell</t>
   </si>
   <si>
-    <t>Pos. Ranking</t>
-  </si>
-  <si>
     <t>Arizona State</t>
   </si>
   <si>
@@ -1453,6 +1438,21 @@
 Production Tier: Comparable potential to David Njoku / Jonnu Smith (capable of 700-900 yards, 6-8 TDs in zone-heavy/YAC roles).
 Explicit Non-Comps: Not Kittle/Gronk or Hockenson tier.
 Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Warren offers an intriguing package of size, contested-catch ability, and YAC power, making him a high-ceiling prospect if he undergoes significant technical development. However, his current rawness in route running and blocking makes him a project. He likely needs a specific role early on (red zone specialist, H-back, schemed YAC touches) while he refines his game. The RSP evaluator warns against buying into potential pre-draft hype ("overrated in early fantasy drafts") and suggests he's a safer investment after the NFL Draft reveals his landing spot and potential role. Pre-draft, he likely falls into the mid-to-late second or early third round of rookie drafts, representing a developmental gamble on his physical tools overcoming technical deficiencies.</t>
+  </si>
+  <si>
+    <t>RSP Pos. Ranking</t>
+  </si>
+  <si>
+    <t>RSP Notes</t>
+  </si>
+  <si>
+    <t>Comparison Spectrum</t>
+  </si>
+  <si>
+    <t>Depth of Talent Score</t>
+  </si>
+  <si>
+    <t>Depth of Talent Description</t>
   </si>
 </sst>
 </file>
@@ -1833,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BB6BA8-4F4C-43D2-B7ED-38D13DC00C71}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1857,22 +1857,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="D1" t="s">
         <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>214</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1886,19 +1886,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>92.9</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1912,19 +1912,19 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>83.7</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1938,19 +1938,19 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F4">
         <v>86.4</v>
       </c>
       <c r="G4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1964,19 +1964,19 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F5">
         <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1990,19 +1990,19 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6">
         <v>84.6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2016,19 +2016,19 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F7">
         <v>85.6</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2042,19 +2042,19 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>83.8</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2068,19 +2068,19 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F9">
         <v>89</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2094,19 +2094,19 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F10">
         <v>89.9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2120,19 +2120,19 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F11">
         <v>82.7</v>
       </c>
       <c r="G11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2146,19 +2146,19 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F12">
         <v>91.3</v>
       </c>
       <c r="G12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2172,19 +2172,19 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F13">
         <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2198,19 +2198,19 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E14" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F14">
         <v>88.8</v>
       </c>
       <c r="G14" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2224,19 +2224,19 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F15">
         <v>84.3</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2250,19 +2250,19 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E16" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F16">
         <v>82.9</v>
       </c>
       <c r="G16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2276,19 +2276,19 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F17">
         <v>87.7</v>
       </c>
       <c r="G17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2302,19 +2302,19 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F18">
         <v>86.2</v>
       </c>
       <c r="G18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2328,19 +2328,19 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F19">
         <v>82.1</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -2362,19 +2362,19 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F21">
         <v>84.8</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2388,19 +2388,19 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F22">
         <v>78</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -2422,19 +2422,19 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F24">
         <v>85</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2448,19 +2448,19 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E25" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F25">
         <v>83.3</v>
       </c>
       <c r="G25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2474,19 +2474,19 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F26">
         <v>84.5</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2500,19 +2500,19 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E27" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F27">
         <v>86.1</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2526,19 +2526,19 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F28">
         <v>82.9</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2552,19 +2552,19 @@
         <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E29" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F29">
         <v>71.2</v>
       </c>
       <c r="G29" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2578,19 +2578,19 @@
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F30">
         <v>83</v>
       </c>
       <c r="G30" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2604,19 +2604,19 @@
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F31">
         <v>78.5</v>
       </c>
       <c r="G31" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -2638,19 +2638,19 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F33">
         <v>83.2</v>
       </c>
       <c r="G33" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2664,19 +2664,19 @@
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F34">
         <v>75.3</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2690,19 +2690,19 @@
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F35">
         <v>75.400000000000006</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2716,19 +2716,19 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F36">
         <v>81</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2742,19 +2742,19 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F37">
         <v>76.2</v>
       </c>
       <c r="G37" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2768,19 +2768,19 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F38">
         <v>83.4</v>
       </c>
       <c r="G38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2794,19 +2794,19 @@
         <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F39">
         <v>81.2</v>
       </c>
       <c r="G39" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2820,19 +2820,19 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E40" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F40">
         <v>84.9</v>
       </c>
       <c r="G40" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2846,19 +2846,19 @@
         <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F41">
         <v>80.2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2872,19 +2872,19 @@
         <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E42" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F42">
         <v>83.1</v>
       </c>
       <c r="G42" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2898,19 +2898,19 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F43">
         <v>83.6</v>
       </c>
       <c r="G43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2924,19 +2924,19 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F44">
         <v>86.4</v>
       </c>
       <c r="G44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2950,19 +2950,19 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E45" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F45">
         <v>82.7</v>
       </c>
       <c r="G45" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2976,19 +2976,19 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E46" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F46">
         <v>86.3</v>
       </c>
       <c r="G46" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -3002,19 +3002,19 @@
         <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E47" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F47">
         <v>80.099999999999994</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -3028,19 +3028,19 @@
         <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E48" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F48">
         <v>82.8</v>
       </c>
       <c r="G48" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -3054,24 +3054,24 @@
         <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E49" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F49">
         <v>82.2</v>
       </c>
       <c r="G49" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -3080,19 +3080,19 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E50" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F50">
         <v>89</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/data/RSP_Rookies.xlsx
+++ b/data/RSP_Rookies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28a1ee50a88aa706/python_work/Dynasty_tools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="8_{0EB90C79-FC22-4A12-A94D-9985B2A593C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE8E6E6F-5A8D-4BA1-B34D-BA8E833F6849}"/>
+  <xr:revisionPtr revIDLastSave="333" documentId="8_{0EB90C79-FC22-4A12-A94D-9985B2A593C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2874B542-5983-48EF-95C4-A7889D38744D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2350" windowWidth="21600" windowHeight="15910" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15460" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -215,12 +215,437 @@
     <t>Franchise - Immediate production and leadership anchor</t>
   </si>
   <si>
-    <t>Fantasy Potential: This profile paints Jeanty as a potential elite fantasy running back, with the evaluator explicitly recommending him as the 1.01 rookie pick in any format. His designation as the "best runner/receiver in this class" points to significant potential in both standard and especially PPR leagues. His skillset suggests a three-down workhorse ceiling.
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>Tyler Allgeier, Jonathan Williams</t>
+  </si>
+  <si>
+    <t>Rotational Starter - Executes at a starter level in a role playing to their strengths</t>
+  </si>
+  <si>
+    <t>D'Andre Swift / Jerick McKinnon</t>
+  </si>
+  <si>
+    <t>OSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotational Starter: Executes at a starter level in a role playing to their strengths. 
+Henderson is on the cusp of Starter: Starting immediately with large role and learning on the go. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Todd Gurley - Joe Mixon - X - Latavius Murray</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starter: Starting immediately with large role and learning on the go. Judkins is on the cusp 
+of Franchise: Immediate production and leadership anchor. </t>
+  </si>
+  <si>
+    <t>Jonathan Taylor - X/Chris Carson/Isaiah Crowell</t>
+  </si>
+  <si>
+    <t>Arizona State</t>
+  </si>
+  <si>
+    <t>David Montgomery</t>
+  </si>
+  <si>
+    <t>Rotational Starter: Executes at a starter level in a role playing to their strengths. Skattebo is on the cusp of Starter: Starting immediately with large role and learning on the go.</t>
+  </si>
+  <si>
+    <t>VaTech</t>
+  </si>
+  <si>
+    <t>Marshall Faulk - Charlie Garner / Jahmyr Gibbs</t>
+  </si>
+  <si>
+    <t>Kansas State</t>
+  </si>
+  <si>
+    <t>Melvin Gordon</t>
+  </si>
+  <si>
+    <t>Contributor: Starter execution in a limited role; diminishing returns beyond that scope.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Cook - X - Justin Jackson </t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotational Starter: Executes at a starter level in a role playing to their strengths. 
+Sampson is on the cusp of Starter: Starting immediately with large role and learning on the go. </t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Bilal Powell - X - Ke'Shawn Vaughn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotational Starter: Executes at a starter level in a role playing to their strengths. </t>
+  </si>
+  <si>
+    <t>Oklahoma State</t>
+  </si>
+  <si>
+    <t>Deuce McAllister - David Johnson – William Green - X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contributor: Starter execution in a limited role; diminishing returns beyond that scope.  </t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeMarco Murray - James Starks-Roschon Johnson/X - Patrick Taylor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contributor: Starter execution in a limited role; diminishing returns beyond that scope. 
+Sanders is on the cusp of Reserve: Contributor with limitations in scope and execution.  </t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>Tarik Cohen - X – Ito Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contributor: Starter execution in a limited role; diminishing returns beyond that scope. 
+Sanders is on the cusp of Reserve: Contributor with limitations in scope and execution. </t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Rotational Starter: Rotational Starter Tier: Executes at a starter level in a role playing 
+to their strengths. Johnson is on the cusp of Reserve: Contributor with limitations in scope and execution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrell Davis-Johnathan Franklin-X/Joshua Kelley </t>
+  </si>
+  <si>
+    <t>Tahj Brooks</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Frank Gore/LeVeon Bell/X - - CJ Anderson </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Starter: Starting immediately with large role and learning on the go. Brooks is on the cusp 
+of Franchise: Immediate production and leadership anchor. </t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Adrian Peterson - Ryan Mathews - X - Ryan Grant</t>
+  </si>
+  <si>
+    <t>Starter: Starting immediately with large role and learning on the go.</t>
+  </si>
+  <si>
+    <t>Aaron Jones - X</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilal Powell - Kenneth Gainwell/X - - Jordan Mims </t>
+  </si>
+  <si>
+    <t>Rotational Starter: Executes at a starter level in a role playing to their strengths. Allen is 
+on the cusp of Reserve: Contributor with limitations in scope and execution.</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.K. Dobbins - Khalil Herbert/X </t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>X/Brandon Aiyuk – Rashee Rice - Dontayvion Wicks/Quintez Cephus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franchise: Challenging for the lead role and leadership anchor. </t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>X – Chris Olave/Ricky Pearsall</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tim Brown – X/Jayden Reed - Lee Evans – Curtis Samuel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starter: Starting immediately with a large role and learning on the go. Golden is on the 
+cusp of the Franchise Tier: Challenging for the lead role and leadership anchor. </t>
+  </si>
+  <si>
+    <t>Isaac Bruce – T.Y. Hilton/X – Marvin Mims</t>
+  </si>
+  <si>
+    <t>Starter: Starting immediately with a large role and learning on the go</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>X/Nico Collins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starter: Starting immediately with a large role and learning on the go. </t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>X - Tee Higgins / Mike Williams</t>
+  </si>
+  <si>
+    <t>TCU / LSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Wilson/X – Josh Palmer </t>
+  </si>
+  <si>
+    <t>Puka Nacua - X - Jermaine Kearse – Quincy Morgan</t>
+  </si>
+  <si>
+    <t>Utah State</t>
+  </si>
+  <si>
+    <t>Chris Chambers - x – John Ross/Corey Coleman</t>
+  </si>
+  <si>
+    <t>Starter: Starting immediately with a large role and learning on the go. Royals is on the cusp 
+of the Rotational Starter tier: Executes at a starter level in a role playing to their strengths.</t>
+  </si>
+  <si>
+    <t>Matthew Golden – X – John Metchie – Devin Duvernay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotational Starter: Executes at a starter level in a role playing to their strengths. Noel is 
+on the cusp of the Starter tier: Starting immediately with a large role and learning on the go. </t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>Alshon Jeffery - X/Quentin Johnston – Byan Edwards</t>
+  </si>
+  <si>
+    <t>Rotational Starter: Executes at a starter level in a role playing to their strengths.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parker Washington/X - James Proche – Amari Rodgers – Byron Marshall</t>
+  </si>
+  <si>
+    <t>Rotational Starter</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Tank Dell - X - Tutu Atwell</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>Cordarrelle Patterson</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adonai Mitchell – X – Marquez Callaway – Jaray Jenkins </t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chris Godwin - - Brenden Rice/X – Damon Hazelton </t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Jameson Williams – X – Quez Watkins</t>
+  </si>
+  <si>
+    <t>San Jose State</t>
+  </si>
+  <si>
+    <t>Michael Wilson – X/Grant DuBose – Damon Hazelton</t>
+  </si>
+  <si>
+    <t>UNLV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torry Holt – Antonio Bryant - X – Ronnie Bell- Tre Turner </t>
+  </si>
+  <si>
+    <t>Colorado State</t>
+  </si>
+  <si>
+    <t>Van Jefferson</t>
+  </si>
+  <si>
+    <t>Reserve</t>
+  </si>
+  <si>
+    <t>Mike Gesicki – Ed Dickson – X - Micheal Egnew</t>
+  </si>
+  <si>
+    <t>Contributor</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George Kittle - T.J. Hockenson/Tyler Eifert/X </t>
+  </si>
+  <si>
+    <t>Starter</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>Mark Andrews / X</t>
+  </si>
+  <si>
+    <t>Bowling Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brock Bowers – Sam LaPorta – X/Delanie Walker – Garrett Graham  </t>
+  </si>
+  <si>
+    <t>Travis Kelce – Jared Cook – Todd Heap/X – Luke Willson – Coby Fleener</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>Dallas Clark – X/Tucker Kraft</t>
+  </si>
+  <si>
+    <t>RSP Pos. Ranking</t>
+  </si>
+  <si>
+    <t>RSP Notes</t>
+  </si>
+  <si>
+    <t>Comparison Spectrum</t>
+  </si>
+  <si>
+    <t>Depth of Talent Score</t>
+  </si>
+  <si>
+    <t>Depth of Talent Description</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Matthew Golden (RSP WR3) is profiled as a dynamic, versatile wide receiver prospect poised for immediate impact, grading out on the cusp of the Franchise tier. Possessing elite timed speed (4.29 40-yard dash), Golden is far more than just a speedster, showcasing savvy route running that leverages his speed, reliable hands, and excellent ability after the catch. Drawing comparisons to versatile playmakers like Tim Brown and Jayden Reed, Golden can threaten defenses vertically, turn short passes into long gains, and operate effectively from multiple alignments (flanker, slot). While needing to improve consistency in contested catch situations and blocking, his overall skillset suggests high upside as potentially a primary or high-end secondary target in an NFL offense early in his career.
+Fantasy Strengths:
+Elite Speed &amp; Athleticism: Fastest timed WR in the class; possesses game-breaking speed for vertical routes and pulling away after the catch.
+Advanced Route Running: Intelligently uses his speed within routes, attacks stems effectively, shows sharp breaks with good deceleration, and understands how to set up defenders. Not just a vertical threat.
+Excellent YAC Ability: Displays quickness, vision, body control, and power after the catch to make multiple defenders miss, break tackles, and finish runs. Dangerous with the ball in his hands.
+Reliable Hands &amp; Tracking: Very dependable hands (100% catch rate on pinpoint/general targets in tracked games), tracks the ball well (including over-the-shoulder), extends effectively, and makes catches through contact.
+Versatility: Capable of playing multiple WR roles (flanker, slot) and winning in various ways (deep, intermediate, short, YAC). Viewed as a match-up player.
+Good Ball Security: Takes care of the football with generally sound technique.
+Fantasy Weaknesses:
+Inconsistent Contested Catch Technique: While capable of making spectacular contested catches, struggles with timing, positioning, and attack technique consistently, especially when pinned near the boundary (67% tight coverage catch rate, drops vs. contact noted).
+Blocking Technique: Needs refinement; relies more on shielding/positioning (hugger) than effective strikes, which could lead to holding penalties or ineffective blocks.
+Durability Concerns: Has a history of multiple nagging injuries (foot, groin, back) over the past couple of seasons, raising some concern about his ability to consistently stay available.
+Minor Catching Lapses: Occasional clap-catches on low targets need cleaning up.
+Player Comparisons:
+High end: Tim Brown (versatile HOF playmaker).
+Modern comps: Jayden Reed (versatile slot/outside threat), Lee Evans (deep threat ability), Curtis Samuel (speed/YAC/versatility). These comparisons point to a dynamic offensive weapon.
+Bottom Line for Rookie Drafts: Golden possesses an elite combination of speed, route-running savvy, reliable hands, and YAC ability, making him a high-upside fantasy prospect. He projects as an immediate contributor who can be deployed in multiple ways to exploit defenses. While he needs to improve his contested-catch consistency and blocking, his playmaking potential is significant. The RSP evaluator suggests he warrants late first-round consideration in rookie drafts (pre-NFL Draft), potentially slipping into the early second, representing strong value for a player with his dynamic profile.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Tory Horton (RSP WR63) is evaluated as a Reserve tier prospect with significant flaws that likely outweigh his intriguing flashes, leading to a highly cautionary outlook. While possessing some YAC quickness and a variety of release moves, his game is plagued by sloppy route breaks, problematic catching technique (especially clap-attacks), and a lack of NFL-caliber speed or burst. A comparison to Van Jefferson suggests a limited ceiling as a depth receiver. Compounding these issues is a recent knee injury requiring surgery. The evaluator notes potential for improvement if major technical flaws are fixed, but expresses skepticism, advising fantasy managers to monitor from afar and consider him only as a deep dynasty stash contingent on glowing camp reports.
+Fantasy Strengths:
+YAC Quickness: Shows good quickness, jump cuts, and spins to make defenders miss after the catch in tight quarters. Good vision to find cutback lanes.
+Release Variety (Raw): Possesses a range of release maneuvers (stretch, two-quick, foot switch, double-up, stick, counters), suggesting a foundation for development if pacing and craft are added.
+Blocking Effort/Flashes: Shows willingness and some good technical elements (squaring up, aiming for chest, moving feet) when technique holds up.
+Fantasy Weaknesses:
+Problematic Catching Technique: Major issue. Prone to clap-attacks due to incorrect hand positioning (palms facing each other), allows ball into frame, struggles adjusting to non-pinpoint throws, leading to drops and unreliability. Catch rate data shows drops vs contact and tight coverage.
+Sloppy Route Running: Breaks lack consistent sharpness, snap, and proper footwork (drifting, poor line steps, balance issues). Needs significant refinement for NFL separation.
+Lack of NFL Speed/Burst: Does not possess starter-level speed or acceleration; struggles to separate vertically or pull away. Athleticism is a significant limiter.
+Raw Release Technique: Lacks consistent pacing, violence, and craft needed to make his variety of moves effective against NFL corners.
+Durability/Injury: Missed most of the 2024 season with a knee injury requiring surgery in October. Recovery and long-term impact are concerns.
+Inconsistent Blocking Execution: Prone to overextending, wide hands (hugger), lacks punch force.
+Player Comparisons:
+Van Jefferson: Compares to a depth receiver known more for occasional flashes than consistent production or standout traits.
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Horton is a long-shot developmental prospect with significant hurdles to overcome. His catching technique issues are particularly concerning and could prevent him from sticking in the league, regardless of other skills. Combined with athletic limitations and recovery from knee surgery, his fantasy outlook is bleak. The RSP evaluator strongly advises against using a rookie pick on him before the NFL Draft and suggests only considering him as a deep dynasty stash if unexpected positive reports about his route running and catching emerge during training camp. He carries very high bust potential.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Ricky White III (RSP WR34) possesses a solid technical foundation as a route runner and generally reliable hands, but his fantasy upside appears significantly capped by a lack of NFL-caliber speed (pedestrian) and crucial inconsistencies in his catching technique. While compared aspirationally to the technician Torry Holt, his more realistic comparisons (Ronnie Bell, Tre Turner) suggest a future as a dependable but low-ceiling contributor. His inability to consistently win with speed, combined with technique flaws leading to drops (especially clap-attacks), makes him a risky bet for significant fantasy production. The evaluator expresses skepticism about his upside beyond a reserve role unless significant, perhaps unlikely, improvement occurs.
+Fantasy Strengths:
+Good Route Running Fundamentals: Shows good understanding of stems, setups (using sticks, double-ups, peeks), breaks (3-step, speed breaks shallow), and working back to the ball. Strong technical foundation. Good zone awareness.
+Reliable Hands (Overall): Generally catches the ball well, tracks effectively, extends, and shows good focus through contact (100% PP Catch Rate overall, though one drop noted).
+Effective YAC Ability: Makes the first man miss with stop-start quickness and agility (stick, spin, jump cut), shows good vision, and uses functional power (stiff arm, runs through wraps) after the catch.
+Good Release Variety: Possesses a solid arsenal of release moves and counters.
+Solid Blocker: Shows good technique and effort as a blocker.
+Fantasy Weaknesses:
+Lack of Top-End Speed: Described as having speed that is pedestrian by NFL standards, significantly limiting his ability to separate vertically or be a consistent deep threat.
+Catching Technique Flaws: Most important thing... to address. Hands are often too wide, leading to frequent clap-attacks on various targets (high points, over shoulder, low/behind) and subsequent drops (drops noted in tracked data). Must be fixed to survive against NFL defenders, especially given lack of speed.
+Route Running/Release Refinement Needed: Needs better pacing and artistry in releases; breaks lack consistent snap and acceleration; needs sharper execution overall to compensate for average athleticism.
+Unnecessary Leaping: Leaves feet on catchable targets, limiting YAC.
+Ball Security Technique: Carries ball loose in open field, prone to using wrong arm.
+Player Comparisons:
+Aspirational Ceiling: Torry Holt (elite technician who overcame speed limitations - seen as unlikely for White).
+Realistic Comps: Ronnie Bell / Tre Turner (solid NFL contributors, likely WR3/4 types).
+Middle Ground/Warning: Antonio Bryant (talented but inconsistent/flawed).
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): White profiles as a technically sound receiver likely limited to a possession role due to athletic constraints. The major concern is whether his inconsistent catching technique can be fixed; if not, his lack of separating speed will make it very difficult to earn targets against NFL coverage. He projects as a potential depth receiver or practice squad player initially. The RSP evaluator advises extreme caution (Monitor from afar), suggesting fantasy managers only consider him late in very deep rookie drafts after the NFL Draft clarifies if a team invests any meaningful capital in him. He appears to have a low fantasy ceiling.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Nick Nash (RSP WR28) is an intriguing developmental prospect, having converted from QB to WR full-time in 2022. He shows significant promise with nuanced release packages (effectively using patience/suddenness), good route understanding, strong hands, and excellent ability in contested catch situations due to savvy positioning. Graded as a Rotational Starter, he compares favorably to reliable possession types like Michael Wilson. However, his fantasy ceiling is likely capped by a lack of high-end long speed. He also needs refinement in consistently attacking the ball early and cleaning up minor catching technique flaws (clap-attacks). He projects as a potential WR2/3 for an NFL team down the line, offering WR2-WR4 fantasy value if he develops.
+Fantasy Strengths:
+Good Route Running &amp; Releases: Possesses a wide array of release moves and effectively uses patience/suddenness to beat coverage at the line. Understands setups, runs routes well (especially timing routes), and shows good zone awareness.
+Strong Hands &amp; Contested Catch Ability: Skilled at winning contested catches through excellent positioning (jump up and through, pull-back). Reliable hands, extends well, catches away from frame, and shows good focus through contact. High catch rates vs contact/tight coverage.
+Good Short-Area Quickness: Displays effective acceleration and change-of-direction ability, aiding releases and separation on shorter routes.
+Effective YAC Ability: Uses vision, agility (spins, jump cuts), and functional power (stiff arm, runs through wraps) to create yards after the catch.
+Versatility &amp; Football IQ: QB background likely contributes to his understanding. Has experience playing inside (slot) and outside (X).
+Good Ball Security &amp; Durability: Takes care of the ball (technique improved after early 2024 fumble) and has no significant injury history as a WR.
+Fantasy Weaknesses:
+Lack of Long Speed: Described as having speed in the bottom range of starter value. Unlikely to consistently win deep purely on speed or pull away for long touchdowns.
+Catching Technique Refinement: Needs to attack the ball earlier more consistently, especially on targets arriving at his numbers. Prone to occasional clap-attacks, particularly on high points.
+Route Break Polish: Speed breaks on intermediate routes need sharper execution (drive/line steps).
+Inconsistent Blocking: Technique can be flawed (overextension, relies on shielding vs. striking consistently).
+Player Comparisons:
+High end: Michael Wilson (reliable possession receiver who earned role quickly).1   
+1.
+NFL Draft Profile: Michael Wilson, Wide Receiver, Stanford Cardinal - Sports Illustrated
+www.si.com
+Spectrum Comps: Grant DuBose / Damon Hazelton (representing lower-end outcomes for this physical archetype).
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Nash is a high-floor prospect due to his advanced releases, reliable hands, and contested-catch skills. His lack of top-end speed likely relegates him to a possession role working underneath and intermediate, but he has the tools to be effective there. He projects as a dependable supporting receiver (WR2/3 on his own team) who could offer steady WR3/4 fantasy value with upside for more if he continues to develop. The RSP evaluator suggests considering him as a late-round rookie pick or waiver wire addition pre-draft, viewing him as a solid developmental prospect with a good chance to carve out a meaningful role within a couple of years.</t>
+  </si>
+  <si>
+    <t>Fantasy Potential: This profile paints Jeanty as a potential elite fantasy running back, with the evaluator explicitly recommending him as the 1.01 rookie pick in any format. His designation as the best runner/receiver in this class points to significant potential in both standard and especially PPR leagues. His skillset suggests a three-down workhorse ceiling.
 Strengths:
-Play Stamina (Elite Trait): Compared to legends (Payton, Sanders, AP, Lynch) for his ability to maintain intensity and effectiveness deep into runs and games. This is a massive plus for fantasy, suggesting he can handle a large volume and won't easily wear down.   
+Play Stamina (Elite Trait): Compared to legends (Payton, Sanders, AP, Lynch) for his ability to maintain intensity and effectiveness deep into runs and games. This is a massive plus for fantasy, suggesting he can handle a large volume and wont easily wear down.   
 Dual-Threat Ability: Strong receiver with good route running from various alignments and generally reliable hands. This boosts his PPR floor and ceiling significantly.
 Vision &amp; Elusiveness: Excellent vision to find lanes, patient yet decisive, and high-level elusiveness (footwork, jukes, spins) to make defenders miss in tight spaces and create extra yardage.   
-Power &amp; Contact Balance: Despite a potential size note ("scatback-sized"), he displays impressive power, breaks tackles, drives through contact, and maintains balance through both direct and indirect hits. This should translate to yards after contact and goal-line potential.   
+Power &amp; Contact Balance: Despite a potential size note (scatback-sized), he displays impressive power, breaks tackles, drives through contact, and maintains balance through both direct and indirect hits. This should translate to yards after contact and goal-line potential.   
 Big Play Ability: Possesses the acceleration and long speed to break off long runs.   
 Weaknesses:
 Ball Security: This is the most significant flag. While improving, his career fumble rate (1 per 83 touches) includes a concerning spike in 2023 (1 per 52 touches). Fumbles can lose fantasy points and playing time. His technique can leave the ball vulnerable when making dynamic moves.
@@ -228,38 +653,66 @@
 Pass Protection: While showing willingness and improvement, inconsistencies (overextending, being late, missing certain blitzes) could limit his snaps on passing downs early in his career until refined.
 Durability Note: Missed two games in 2023 with a knee injury (minor flag).
 Fantasy-Relevant Comparisons: The comparisons focus on his rare play stamina (Peterson, Lynch, etc.), suggesting a potential workhorse profile capable of handling huge volume. Being mentioned alongside pre-injury J.K. Dobbins hints at explosiveness. His profile screams potential three-down back with significant receiving upside, reminiscent of modern high-volume, dual-threat fantasy stars.
-Bottom Line for Fantasy: Jeanty appears to be a high-ceiling prospect with the tools to be an immediate fantasy star, particularly in PPR. His stamina, vision, contact balance, and receiving skills form a potent combination. The primary risk revolves around ball security and potentially earning coaches' trust in pass protection early on. Landing spot and draft capital will be important, but based purely on this evaluation, he warrants top consideration in rookie drafts.</t>
+Bottom Line for Fantasy: Jeanty appears to be a high-ceiling prospect with the tools to be an immediate fantasy star, particularly in PPR. His stamina, vision, contact balance, and receiving skills form a potent combination. The primary risk revolves around ball security and potentially earning coaches trust in pass protection early on. Landing spot and draft capital will be important, but based purely on this evaluation, he warrants top consideration in rookie drafts.</t>
   </si>
   <si>
     <t>Omarion Hampton - RB Profile Summary for Fantasy Football
-Fantasy Potential: Hampton possesses the size (5'11", 221 lbs) and power profile to be a productive fantasy asset, particularly in standard leagues or through touchdown scoring. This evaluator sees him as a "Rotational Starter" capable of "substantial weekly production" if he minimizes errors. However, his overall ceiling is viewed as potentially lower than the hype suggests, profiling more as a strong committee back ("B-Back") rather than a true lead or star back. Opportunity driven by likely decent draft capital could yield fantasy relevance.
+Fantasy Potential: Hampton possesses the size (511, 221 lbs) and power profile to be a productive fantasy asset, particularly in standard leagues or through touchdown scoring. This evaluator sees him as a Rotational Starter capable of substantial weekly production if he minimizes errors. However, his overall ceiling is viewed as potentially lower than the hype suggests, profiling more as a strong committee back (B-Back) rather than a true lead or star back. Opportunity driven by likely decent draft capital could yield fantasy relevance.
 Strengths:
-Power &amp; Contact Balance: His defining traits. He's built to break tackles, push piles, and gain yards after contact using good size, leg drive, and an effective stiff arm. This makes him a prime candidate for goal-line work and grinding out tough yardage.
-Vision: Runs with good patience and decisiveness, reads blocks well, and navigates tight creases effectively, maximizing what's available.
+Power &amp; Contact Balance: His defining traits. Hes built to break tackles, push piles, and gain yards after contact using good size, leg drive, and an effective stiff arm. This makes him a prime candidate for goal-line work and grinding out tough yardage.
+Vision: Runs with good patience and decisiveness, reads blocks well, and navigates tight creases effectively, maximizing whats available.
 Receiving Ability: Considered a good route runner for an RB in shallow areas and generally reliable hands, offering potential PPR value, particularly on checkdowns and simpler routes.
 Durability: No significant injury history reported, suggesting good availability.
 Weaknesses:
-Ball Security: This is a major red flag. His fumble rate (1 per 74.6 touches) is concerningly high ("low-end of baseline acceptable") and could severely limit his playing time and fantasy ceiling if not corrected at the NFL level.
-Acceleration vs. Speed: While he has good long speed (4.48 40-time), his initial acceleration is only average ("Committee Tier"). This means he struggles to consistently reach top speed or create explosive plays without a clear runway, making him more of a grinder than a home-run hitter.
+Ball Security: This is a major red flag. His fumble rate (1 per 74.6 touches) is concerningly high (low-end of baseline acceptable) and could severely limit his playing time and fantasy ceiling if not corrected at the NFL level.
+Acceleration vs. Speed: While he has good long speed (4.48 40-time), his initial acceleration is only average (Committee Tier). This means he struggles to consistently reach top speed or create explosive plays without a clear runway, making him more of a grinder than a home-run hitter.
 Pass Protection: Inconsistent. Shows potential but has issues with missed assignments, overextending, and technique lapses that could keep him off the field on crucial passing downs early in his career.
 Limited Elusiveness: Relies heavily on power and balance; not a shifty runner who creates yards through agility or quick cuts in the open field.
-Fantasy-Relevant Comparisons: The Tyler Allgeier comparison is key. It suggests a powerful, capable runner who can handle volume between the tackles and flash long speed occasionally but isn't overly explosive or a dynamic receiver. This archetype typically fits best as a strong committee member or a volume-dependent fantasy starter, often reliant on touchdowns for high-end production.
-Bottom Line for Fantasy: Hampton projects as a solid, powerful early-down back with goal-line upside and baseline receiving ability. However, his fantasy value is significantly capped by major ball security concerns and average acceleration that limits big plays. He's likely to be drafted higher in rookie drafts (due to size/speed metrics) than this evaluation suggests is warranted. He's a risky investment in the early rounds, potentially best viewed as a high-floor, moderate-ceiling RB2/Flex type in standard leagues, but the fumbles could derail his value entirely. Consider him a potential value if he slips in drafts, but be wary of the bust potential associated with his profile weaknesses.</t>
-  </si>
-  <si>
-    <t>UNC</t>
-  </si>
-  <si>
-    <t>Tyler Allgeier, Jonathan Williams</t>
-  </si>
-  <si>
-    <t>Rotational Starter - Executes at a starter level in a role playing to their strengths</t>
+Fantasy-Relevant Comparisons: The Tyler Allgeier comparison is key. It suggests a powerful, capable runner who can handle volume between the tackles and flash long speed occasionally but isnt overly explosive or a dynamic receiver. This archetype typically fits best as a strong committee member or a volume-dependent fantasy starter, often reliant on touchdowns for high-end production.
+Bottom Line for Fantasy: Hampton projects as a solid, powerful early-down back with goal-line upside and baseline receiving ability. However, his fantasy value is significantly capped by major ball security concerns and average acceleration that limits big plays. Hes likely to be drafted higher in rookie drafts (due to size/speed metrics) than this evaluation suggests is warranted. Hes a risky investment in the early rounds, potentially best viewed as a high-floor, moderate-ceiling RB2/Flex type in standard leagues, but the fumbles could derail his value entirely. Consider him a potential value if he slips in drafts, but be wary of the bust potential associated with his profile weaknesses.</t>
+  </si>
+  <si>
+    <t>Tetairoa McMillan - Fantasy Football Summary
+Overall Fantasy Outlook: Tetairoa McMillan (RSP WR5) is the top prospect fitting the appealing big-bodied X receiver archetype in this class, drawing a strong comparison to Nico Collins. His elite size (64, 219 lbs) and exceptional ability in contested catch situations (excels at the jump up and through) provide a significant ceiling. However, the profile indicates he requires substantial technical refinement in several key areas – particularly his releases against press coverage, route running precision, and catching technique consistency – which might limit his immediate rookie production. While possessing the tools for future dominance, hes viewed as needing more development than the receivers ranked ahead of him.
+Fantasy Strengths:
+Elite Size &amp; Frame: Prototypical dimensions for an outside X receiver, creating a large catch radius.
+Excellent Contested Catch Ability: Dominant in jump ball situations, using his size, body control, and positioning to win at the catch point, especially near boundaries and in the red zone.
+Good YAC Vision &amp; Creativity: Sees the field well after the catch, shows patience, creativity (including reversing field), and finds ways to work downhill.
+Physicality: Willing to use his size and strength after the catch and shows good contact balance to work through initial hits. Possesses a violent stiff arm.
+Durability: No significant reported injuries.
+Fantasy Weaknesses:
+Release vs. Press (Major Refinement Needed): Lacks craft, nuance, and consistent patience/suddenness in his releases. Struggles to beat press consistently and can get pinned to the boundary easily. Needs significant development here to thrive outside in the NFL.
+Route Running Polish: Doesnt always attack leverage optimally, lacks consistent explosion/snap out of breaks, and needs to be savvier navigating underneath zone coverage. Not maximizing separation potential currently.
+Catching Technique Lapses: Prone to clap-catches on various targets (hitches, wide extensions, sometimes high points), occasionally fails to look the ball in fully, and technique suffers when pinned to the boundary on contested catches. This inconsistency could lead to drops at the NFL level.
+Lacks Elite Suddenness (YAC): While creative, doesnt possess the high-end quickness to consistently exploit cutback lanes he sees, limiting massive YAC gains compared to more agile receivers. Can try to get cute instead of using his size.
+Blocking Technique: Needs refinement; prone to overextending and relies more on shielding/latching than effective strikes.
+Player Comparisons:
+Nico Collins: This comparison highlights his potential ceiling as a big-bodied X receiver who can develop into a dominant player after refining his technique, similar to Collins trajectory.
+Bottom Line for Rookie Drafts: McMillan offers the tantalizing upside associated with dominant big receivers, making him appealing for fantasy managers prioritizing that archetype. His size and contested-catch skills provide a path to red-zone relevance and big plays. However, the significant technical refinement needed, especially in releases and route running, suggests he may require patience and might not be an immediate high-volume target earner. He carries more developmental risk than the higher-ranked, more polished receivers in this RSP evaluation. The evaluator ranks him WR5 with a notable gap below the top tier, likely placing his pre-NFL Draft rookie value in the mid-to-late first round, acknowledging both the high ceiling and the required development curve.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Luther Burden III grades out as the RSP WR1 and a Franchise level talent, projected for immediate high-level production in the NFL. The evaluator holds him in exceptionally high regard, suggesting he would have ranked Burden ahead of Marvin Harrison Jr. pre-draft last year. Burden is lauded as a highly versatile, athletic receiver whose superpower is his elite ability after the catch (one of the two best runners... in this receiver class). While needing refinement in his releases against press coverage and as a blocker, his combination of speed, elite short-area quickness, reliable hands, route savvy, and football IQ points towards a potential alpha receiver profile. Hes strongly recommended as a top-3 rookie pick, regardless of landing spot.
+Fantasy Strengths:
+Elite After-the-Catch Ability: Exceptional vision, patience, elite short-area quickness, power, balance, and a diverse repertoire of moves make him incredibly dangerous with the ball in his hands. Creates yards and touchdowns independently.
+Versatility: Can effectively play all three wide receiver positions (slot, flanker, potentially X with development) and contribute on various routes (vertical, crossers, screens) and manufactured touches (sweeps).
+Athleticism: Possesses difference-making speed to win deep or pull away after the catch, combined with elite quickness and deceleration for separation and YAC.
+Reliable Hands &amp; Catching: Excellent catch reliability (100% pinpoint catch rate in tracked games), tracks the ball well (over-shoulder, adjusting to placement), extends effectively, uses his body well, and makes contested/difficult catches (including one-handed grabs).
+Route Running &amp; Football IQ: Understands how to attack zone coverage, tempos routes effectively, works the scramble drill intelligently, and shows nuance in stems and breaks (though limited exposure to hard comeback routes). High football IQ evident in his play.
+Good Ball Security &amp; Durability: Generally takes care of the football and has no significant injury history reported.
+Fantasy Weaknesses:
+Release vs. Press Coverage: Needs to refine the pacing and artistry of his release packages to consistently defeat top-tier press corners at the line of scrimmage. This is the primary area holding him back from being a dominant X receiver immediately.
+Blocking Technique: Requires significant improvement in technique (closing distance, punch timing/force, avoiding overextension) to become a reliable blocker.
+Catching Technique (Minor): Hands could be slightly tighter on occasion when attacking the ball to prevent potential issues against NFL velocity (though drops werent observed).
+Player Comparisons:
+Spectrum includes Brandon Aiyuk, Rashee Rice, Dontayvion Wicks, Quintez Cephus.
+The Brandon Aiyuk comparison aligns well with Burdens profile as a versatile, explosive receiver who excels after the catch and can win at multiple levels. Rashee Rice highlights the YAC prowess and potential slot/intermediate effectiveness.
+Bottom Line for Rookie Drafts: Burden profiles as an elite fantasy asset with immediate WR1/WR2 potential. His game-breaking YAC ability, versatility, and overall polish make him a high-floor, high-ceiling prospect. The RSP evaluator considers him a cornerstone talent likely being undervalued by the consensus (potentially enabling a trade-down scenario while still acquiring him). He should be considered a lock for a top-3 pick in rookie drafts, with a strong argument for being the 1.01 depending on format and team needs.</t>
   </si>
   <si>
     <t>TreVeyon Henderson - RB Profile Summary for Fantasy Football
-Fantasy Potential: Henderson projects as a highly explosive receiving and change-of-pace back whose fantasy value will be heavily tied to PPR scoring and big plays. He's seen as a "Rotational Starter" just shy of an immediate large role, likely settling into a high-end complementary role. While a peak season with significant receiving numbers (60-80 catches) is mentioned as possible, a more realistic expectation is around 1,000-1,200 scrimmage yards and 50-70 catches, likely conceding significant red-zone work. His ceiling is likely a high-end RB2, heavily buoyed by receptions.
+Fantasy Potential: Henderson projects as a highly explosive receiving and change-of-pace back whose fantasy value will be heavily tied to PPR scoring and big plays. Hes seen as a Rotational Starter just shy of an immediate large role, likely settling into a high-end complementary role. While a peak season with significant receiving numbers (60-80 catches) is mentioned as possible, a more realistic expectation is around 1,000-1,200 scrimmage yards and 50-70 catches, likely conceding significant red-zone work. His ceiling is likely a high-end RB2, heavily buoyed by receptions.
 Strengths:
-Explosiveness &amp; Speed: Elite acceleration and long speed make him an "electric" home-run threat whenever he finds space. He can erase angles and generate chunk plays.
+Explosiveness &amp; Speed: Elite acceleration and long speed make him an electric home-run threat whenever he finds space. He can erase angles and generate chunk plays.
 Receiving Ability: A proven and reliable pass-catcher out of the backfield, crucial for his PPR value. Expected to command a solid target share.
 Ball Security: Outstanding. Virtually eliminates fumble concerns with only 2 career fumbles on 676 touches (1 per 338) and none in the last two seasons.
 Open-Field Elusiveness: Dynamic mover in space with quick cuts, stop-start ability, and agility to make defenders miss one-on-one.
@@ -270,534 +723,106 @@
 Scheme Dependency: Less effective in zone schemes that require improvisation behind the line; much better when blocking sets up clean paths (gap runs).
 Movement Efficiency: Can be overly reliant on flashy moves and sometimes lacks balance or efficiency, especially between the tackles.
 Durability History: Suffered a significant foot injury (broken bone needing surgery) in 2022, a concern for a player reliant on explosiveness.
-Fantasy-Relevant Comparisons: The D'Andre Swift / Jerick McKinnon range is very telling. It points towards a player whose fantasy value comes from explosive plays and receiving volume, operating best as part of a committee rather than a solo lead back. He's unlikely to reach the heights of multi-purpose backs like Kamara or McCaffrey. He's the lightning to potentially another back's thunder.
-Bottom Line for Fantasy: Henderson is a classic high-upside PPR asset. His receiving floor and big-play ability give him weekly RB2 potential, especially in formats rewarding receptions. However, temper expectations for a workhorse role. His lack of power, inconsistent inside running, and poor pass-blocking technique will likely necessitate a committee approach and limit his touchdown upside. His value is highest in PPR leagues. Be mindful of the foot injury history and the potential for his NFL team to pair him with a more physical back for short-yardage situations. He's a valuable fantasy piece, but not likely a foundational bell-cow back.</t>
-  </si>
-  <si>
-    <t>D'Andre Swift / Jerick McKinnon</t>
-  </si>
-  <si>
-    <t>OSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotational Starter: Executes at a starter level in a role playing to their strengths. 
-Henderson is on the cusp of Starter: Starting immediately with large role and learning on the go. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Todd Gurley - Joe Mixon - X - Latavius Murray</t>
-  </si>
-  <si>
-    <t>Iowa</t>
+Fantasy-Relevant Comparisons: The DAndre Swift / Jerick McKinnon range is very telling. It points towards a player whose fantasy value comes from explosive plays and receiving volume, operating best as part of a committee rather than a solo lead back. Hes unlikely to reach the heights of multi-purpose backs like Kamara or McCaffrey. Hes the lightning to potentially another backs thunder.
+Bottom Line for Fantasy: Henderson is a classic high-upside PPR asset. His receiving floor and big-play ability give him weekly RB2 potential, especially in formats rewarding receptions. However, temper expectations for a workhorse role. His lack of power, inconsistent inside running, and poor pass-blocking technique will likely necessitate a committee approach and limit his touchdown upside. His value is highest in PPR leagues. Be mindful of the foot injury history and the potential for his NFL team to pair him with a more physical back for short-yardage situations. Hes a valuable fantasy piece, but not likely a foundational bell-cow back.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Emeka Egbuka (RSP WR9) is evaluated as a Starter tier prospect with skills suited for a specific role, likely as a flanker or slot receiver operating primarily in space. His strengths lie in his ability after the catch, good deep speed, and effectiveness on linear routes across the field. However, significant concerns about inconsistent catching technique (using the wrong attack, letting the ball into his frame, drops vs. contact) and a lack of consistent sharpness in his route breaks limit his projected effectiveness against tight man coverage, on timing routes, and in contested situations. While compared situationally to Puka Nacuas role, hes explicitly noted as less skilled currently. He projects as an immediate contributor in a defined role, but may require refinement and an ideal scheme fit to reach consistent fantasy starter production.
+Fantasy Strengths:
+Strong YAC Ability: Dangerous runner after the catch, utilizing acceleration, vision, functional power (stiff arm, finishes plays), and good balance to create extra yards. Excels when catching the ball with space to operate.
+Good Speed &amp; Acceleration: Possesses the speed to win vertically, stack defenders, and pull away after the catch.
+Effective on Linear Routes/Zone: Runs routes across the field well, understands zone concepts, and has good release moves to get into his stem.
+Good Ball Security: Generally takes care of the football with sound technique.
+Willing Blocker: Shows good effort and intensity as a blocker, even if technique is inconsistent.
+Fantasy Weaknesses:
+Inconsistent Catching Technique: Significant issue. Frequently opts for the wrong hand position (e.g., underhand on chest-high targets), lets the ball into his frame unnecessarily, and seems unprepared for non-pinpoint throws, leading to drops and struggles in contested situations (low G vs. Contact % in tracked data).
+Route Break Sharpness: Often drifts or rounds off breaks, particularly on intermediate speed cuts, limiting separation against tight coverage. Needs more consistent precision and snap.
+Limited Role Projection: Seen primarily as a flanker/slot type best utilized on crossing routes or manufactured touches rather than a boundary X consistently winning against press or on contested timing routes.
+Inconsistent Blocking Technique: While effortful, technique is flawed (locks arms, drops head), making him unreliable.
+Player Comparisons:
+Role/Usage Comp: Puka Nacua (but Egbuka lacks Nacuas current skill level).
+Spectrum Comps: Jermaine Kearse / Quincy Morgan (suggesting potential for productive seasons, often excelling vertically or after the catch, but perhaps lacking elite overall consistency or refinement).
+Bottom Line for Rookie Drafts: Egbuka offers appealing speed and YAC ability that could translate to fantasy points in the right system, particularly in PPR formats where volume on shorter routes can accrue value. However, the significant concerns about his catching technique and route break precision create substantial risk and may limit his ceiling, especially against better NFL defenders. He likely needs a specific scheme (like the Rams using Nacua) that maximizes his strengths in space and minimizes his weaknesses against tight coverage. The RSP evaluator suggests hes worth an early third-round rookie pick before the NFL Draft, with potential to rise slightly if he lands in an ideal offensive fit, but views him as less versatile and refined than other top WRs in the class.</t>
   </si>
   <si>
     <t>1. Identify the Player: Kaleb Johnson, RB, Iowa.
 2. Fantasy Football Potential:
-* Profiled as an immediate "plug-and-play" starter in a wide zone scheme.
+* Profiled as an immediate plug-and-play starter in a wide zone scheme.
 * Considered one of the strongest fits for that specific scheme in the draft.
 * Capable of starter production right away in the right system.
 * Projects as a potential lead back on rushing downs.
 * Receiving upside seems limited; likely needs a passing-down specialist paired with him. Projected max of ~30-45 catches, potentially less.
 * Pass protection weakness is a major hurdle for a three-down role.
 * Fantasy floor seems solid (RB2-RB3 value) due to likely rushing volume in the correct scheme.
-* Fantasy ceiling might be capped as a two-down grinder if pass pro/receiving don't improve significantly. Best case scenario involves strong rushing yards/TDs in a run-heavy offense.
+* Fantasy ceiling might be capped as a two-down grinder if pass pro/receiving dont improve significantly. Best case scenario involves strong rushing yards/TDs in a run-heavy offense.
 * Expected draft capital: Late Day 2 / Day 3.
 * Advised as a safe pick in the top 5-10 of rookie drafts, betting on RB2-RB3 value within 1-3 years.
 3. Strengths (Fantasy Relevant):
 * Scheme Fit (Wide Zone): Excels in wide zone. Reads blocks, sets up defenders, and hits lanes decisively. Understands how to press, bounce, and cut back effectively in this scheme. This is his biggest selling point for immediate production if he lands in the right offense.
 * Vision: Strong vision, particularly in zone schemes. Sees the second level, sets up blocks and cutbacks well, generally makes good decisions based on game situation (red zone/black zone management). Can also handle gap schemes effectively.
-* Size/Power: Good size (6'1", 224 lbs). Runs with forward lean, falls forward, pulls through reaches, can carry defenders. Uses stiff arm and forearm shiver effectively. Breaks tackles through power and balance.
+* Size/Power: Good size (61, 224 lbs). Runs with forward lean, falls forward, pulls through reaches, can carry defenders. Uses stiff arm and forearm shiver effectively. Breaks tackles through power and balance.
 * Acceleration/Speed: Explosive enough for starter-caliber work once he clears the initial level. Good acceleration to get past LBs/safeties into the secondary, and good long speed (55-70 yards) to finish runs. Creates big plays.
 * Ball Security: Excellent. Only 3 fumbles in 552 career touches (1 per 184), none in the last 262 touches. Very reliable.
 * Contact Balance: Good balance through direct and indirect contact. Bounces off glancing shots, wins collisions against LBs/DBs, can stalemate DEs. Stays upright through gang tackles.
 * Durability: No significant injuries reported.
 4. Weaknesses (Fantasy Relevant):
-* Pass Protection: Significant weakness. Struggles diagnosing blitzes from outside the box (DBs/disguised safeties), drops head into contact, poor technique (overextends, wide hands, doesn't punch). Major obstacle to becoming a three-down back and limits fantasy ceiling.
-* Receiving: Hands are only "good enough." Prone to clap-catching, especially on low/wide targets or when extending fully. Likely limits his ceiling as a receiver to primarily outlet/checkdown work (projected &lt;30-45 catches).
+* Pass Protection: Significant weakness. Struggles diagnosing blitzes from outside the box (DBs/disguised safeties), drops head into contact, poor technique (overextends, wide hands, doesnt punch). Major obstacle to becoming a three-down back and limits fantasy ceiling.
+* Receiving: Hands are only good enough. Prone to clap-catching, especially on low/wide targets or when extending fully. Likely limits his ceiling as a receiver to primarily outlet/checkdown work (projected &lt;30-45 catches).
 * Limited Route Tree/Usage? While routes mentioned are basic RB routes (settling in zones), the overall receiving profile seems limited compared to true receiving threats.
 * Elusiveness: More of a one-cut downhill runner suited for zone lanes. Not described as having elite stop-start or multi-cut ability in tight spaces. Relies on vision/speed/power more than pure elusiveness.
 * Vision Lapses: Occasional tendency to bounce runs outside too early when sticking to the design might be better.
 5. Player Comparisons (Fantasy Context):
 * Comparison Spectrum: Todd Gurley - Joe Mixon - X - Latavius Murray.
 * Latavius Murray (Floor): Suggests a big, capable zone runner who can handle volume and provide solid, if unspectacular, fantasy production, often touchdown-dependent, and likely part of a committee later in his career. Good size/speed combo but maybe not elite traits across the board.
-* Joe Mixon (Mid/Ceiling): Points to a potential three-down capable back (though Johnson's receiving/pass pro are weaker than Mixon's profile coming out). Mixon is known for smooth running, good vision, and handling volume. Johnson shares the size and some running traits but needs development in passing situations to reach this level.
-* Todd Gurley (Peak Ceiling): A very high-end outcome. Gurley (pre-arthritis) was an elite talent with power, speed, vision, and receiving ability, especially lethal in zone schemes. Johnson has the size/vision/zone feel, but lacks Gurley's elite receiving chops and pass pro skills currently. This seems like a lofty best-case scenario based purely on running style in a zone scheme.
+* Joe Mixon (Mid/Ceiling): Points to a potential three-down capable back (though Johnsons receiving/pass pro are weaker than Mixons profile coming out). Mixon is known for smooth running, good vision, and handling volume. Johnson shares the size and some running traits but needs development in passing situations to reach this level.
+* Todd Gurley (Peak Ceiling): A very high-end outcome. Gurley (pre-arthritis) was an elite talent with power, speed, vision, and receiving ability, especially lethal in zone schemes. Johnson has the size/vision/zone feel, but lacks Gurleys elite receiving chops and pass pro skills currently. This seems like a lofty best-case scenario based purely on running style in a zone scheme.
 6. Synthesize into Fantasy Summary:
 Overall: Kaleb Johnson is a big, powerful, and decisive runner tailor-made for a wide zone rushing attack, offering immediate potential as an early-down contributor or lead back in the right system.
 Strengths for Fantasy: His excellent vision, size, power, contact balance, and good speed/acceleration profile him as a classic zone scheme runner capable of breaking tackles and generating chunk plays. Outstanding ball security is a major plus. Projects for significant rushing volume if he lands in a zone-heavy offense.
 Weaknesses for Fantasy: Pass protection is a major liability, likely relegating him to early downs initially and potentially capping his long-term upside as a true three-down back. His receiving skills are functional at best, limiting his PPR value (likely under 30-40 catches per season).
-Fantasy-Relevant Comparisons: The spectrum from Latavius Murray (solid, volume-based zone runner) to Joe Mixon (smoother, more versatile lead back) provides a good range. He has the build and zone-running traits reminiscent of these players but needs significant improvement in the passing game (receiving consistency, pass pro) to approach the Mixon level. The Todd Gurley comp highlights the potential impact in a zone scheme but feels optimistic given Johnson's current passing-down limitations.
-Draft Strategy: Johnson profiles as a potentially high-floor fantasy asset in standard/half-PPR leagues due to his rushing potential in a likely favorable scheme fit. He's considered a safe pick in the mid-to-late first round of rookie drafts (top 5-10 according to the profile) with expected RB2-RB3 production early on. His ceiling depends entirely on developing his passing-down skills; otherwise, he risks being a two-down grinder reliant on rushing volume and touchdowns. He's a safer pick than some backs but might lack the league-winning ceiling of elite dual-threat options.</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Judkins profiles as a potential immediate fantasy contributor with a coveted three-down skillset. The RSP evaluator holds him in very high regard (RB2, bordering on "Franchise" talent score), suggesting he should be a top rookie pick (potentially top 3) regardless of landing spot concerns, as his talent is expected to earn him a significant role quickly. He possesses the tools to be a reliable RB2 with RB1 upside in fantasy leagues early in his career.
+Fantasy-Relevant Comparisons: The spectrum from Latavius Murray (solid, volume-based zone runner) to Joe Mixon (smoother, more versatile lead back) provides a good range. He has the build and zone-running traits reminiscent of these players but needs significant improvement in the passing game (receiving consistency, pass pro) to approach the Mixon level. The Todd Gurley comp highlights the potential impact in a zone scheme but feels optimistic given Johnsons current passing-down limitations.
+Draft Strategy: Johnson profiles as a potentially high-floor fantasy asset in standard/half-PPR leagues due to his rushing potential in a likely favorable scheme fit. Hes considered a safe pick in the mid-to-late first round of rookie drafts (top 5-10 according to the profile) with expected RB2-RB3 production early on. His ceiling depends entirely on developing his passing-down skills; otherwise, he risks being a two-down grinder reliant on rushing volume and touchdowns. Hes a safer pick than some backs but might lack the league-winning ceiling of elite dual-threat options.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Judkins profiles as a potential immediate fantasy contributor with a coveted three-down skillset. The RSP evaluator holds him in very high regard (RB2, bordering on Franchise talent score), suggesting he should be a top rookie pick (potentially top 3) regardless of landing spot concerns, as his talent is expected to earn him a significant role quickly. He possesses the tools to be a reliable RB2 with RB1 upside in fantasy leagues early in his career.
 Fantasy Strengths:
 Three-Down Potential: Judkins demonstrates capability as a runner, receiver, and pass protector, which is crucial for maximizing snaps and fantasy opportunities. His pass protection is noted as good and improving, which coaches love.
 Vision &amp; Decision Making: He generally shows patience, decisiveness, and creativity, especially in tight spaces, allowing him to maximize yardage and turn potential losses into gains. He reads blocks and defenders well.
 Balanced Skillset: He offers a good blend of power (runs through contact, good balance, effective stiff-arm) and elusiveness (sudden cuts, accelerates well out of breaks, good footwork).
-Sufficient Big-Play Ability: While maybe not an elite burner like his former teammate Henderson, he has enough acceleration and long speed ("can maintain separation," "can flip the field") to break off significant gains and potentially house calls.
+Sufficient Big-Play Ability: While maybe not an elite burner like his former teammate Henderson, he has enough acceleration and long speed (can maintain separation, can flip the field) to break off significant gains and potentially house calls.
 Receiving Reliability: Considered a reliable pass-catcher against zone with soft hands, suggesting potential for PPR value. Route running shows promise.
-Ball Security: Excellent track record (1 fumble per 194 touches) means he's unlikely to lose playing time due to putting the ball on the ground.
+Ball Security: Excellent track record (1 fumble per 194 touches) means hes unlikely to lose playing time due to putting the ball on the ground.
 Durability: No significant injuries reported, adding to his reliability profile.
 Fantasy Weaknesses:
-Occasional Lapses: The profile notes occasional "lapses" where he deviates from the scheme, particularly in scoring zones or short-yardage, which could leave fantasy points on the field if not coached out.
-Receiving Polish: While reliable, catching might need refinement (occasional "clapping" sound, potential drops on contact during transition). Route running shows promise but might need development against man coverage.
+Occasional Lapses: The profile notes occasional lapses where he deviates from the scheme, particularly in scoring zones or short-yardage, which could leave fantasy points on the field if not coached out.
+Receiving Polish: While reliable, catching might need refinement (occasional clapping sound, potential drops on contact during transition). Route running shows promise but might need development against man coverage.
 Pass Pro Consistency: While generally good, he can occasionally be beaten, particularly by A-gap blitzers if they get the jump on him.
 Player Comparisons:
 The profile explicitly compares him to a mix of Jonathan Taylor and Chris Carson. This suggests a powerful, rugged runner with good vision, sufficient speed for big plays, and the ability to handle a heavy workload – a highly desirable archetype for fantasy football. The lower end comparison listed is Isaiah Crowell.
 Bottom Line for Rookie Drafts: Based on this profile, Judkins is a high-floor, high-upside prospect. His combination of size, skill, three-down potential, and good college production makes him a strong candidate for early first-round rookie picks, potentially locking down a starting fantasy role sooner rather than later.</t>
   </si>
   <si>
-    <t xml:space="preserve">Starter: Starting immediately with large role and learning on the go. Judkins is on the cusp 
-of Franchise: Immediate production and leadership anchor. </t>
-  </si>
-  <si>
-    <t>Jonathan Taylor - X/Chris Carson/Isaiah Crowell</t>
-  </si>
-  <si>
-    <t>Arizona State</t>
-  </si>
-  <si>
-    <t>David Montgomery</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Skattebo presents a high-risk, potential-reward profile for fantasy managers. On the field, his running style draws comparisons to David Montgomery, suggesting potential for RB2 production with peak RB1 seasons if everything clicks. However, the profile raises significant red flags regarding potential off-field maturity issues (explicitly labeled a "gamble" and potentially leading to an "implosion") and glaring technical flaws in pass protection. He's likely a Day 3 NFL pick whose fantasy value is highly volatile and depends heavily on landing spot, coaching, and whether the off-field concerns materialize.
-Fantasy Strengths:
-Powerful &amp; Elusive Runner: Skattebo excels between the tackles with good vision, power, and excellent contact balance (direct and indirect). He runs hard, breaks tackles (notably with a strong forearm shiver), and possesses agility (spins, jump cuts) to make defenders miss in tight quarters.
-Workhorse Potential Traits: His running style, power, and balance suggest he could handle a significant workload if given the chance, similar to his primary comp, David Montgomery.
-Capable Receiver: Shows good hands, ball tracking, and route awareness against zone coverage. He can make plays in the receiving game, adding PPR upside if he can stay on the field.
-Decent Short-Yardage Instincts: Generally makes wise decisions to attack creases rather than attempting risky bounces in short-yardage situations.
-Fantasy Weaknesses:
-Major Off-Field/Maturity Concerns: The profile heavily emphasizes rumors and commentary regarding potential immaturity ("Bizarro Montgomery," "Johnny Manziel...Archetype," comparisons to Onterrio Smith's downfall). This poses a significant risk to his draft capital, team investment, and long-term viability, making him a potential "implosion" candidate. This is the biggest risk factor for fantasy.
-Poor Pass Protection Technique: Described as a potential "liability" who leads with his head, overextends, and misses assignments. This is a critical flaw that could severely limit his playing time, especially on lucrative passing downs, hindering his path to a three-down role despite receiving skills.
-Questionable On-Field Decision Making: Profile notes he sometimes "doesn't know his athletic limitations" and tries to do too much, leading to negative plays or drive failures.
-Ball Security: His career fumble rate (roughly 1 per 94-113 touches depending on the timeframe) is adequate at best and notably worse than other top prospects. Loose carrying style noted. This could limit trust and touches.
-Limited Top-End Speed: While acceleration is good, elite long speed might be lacking compared to true home-run threats.
-Player Comparisons:
-The primary comparison is David Montgomery, highlighting his power, balance, and potential workhorse style.
-The inclusion of Onterrio Smith serves as a cautionary tale, representing talent derailed by off-field issues. The "Bizarro Montgomery" label encapsulates this duality.
-Bottom Line for Rookie Drafts: Skattebo is the definition of a gamble. The Montgomery-esque rushing talent offers fantasy appeal, but the combination of significant off-field risk and poor pass protection makes him a volatile asset. The evaluator suggests drafting him only if you have existing RB depth and can afford the risk, while risk-averse managers should likely avoid him. His fantasy ceiling is intriguing, but his floor is potentially zero. His NFL draft capital and landing spot will be crucial indicators.</t>
-  </si>
-  <si>
-    <t>Rotational Starter: Executes at a starter level in a role playing to their strengths. Skattebo is on the cusp of Starter: Starting immediately with large role and learning on the go.</t>
-  </si>
-  <si>
-    <t>VaTech</t>
-  </si>
-  <si>
-    <t>Marshall Faulk - Charlie Garner / Jahmyr Gibbs</t>
-  </si>
-  <si>
-    <t>Bhayshul Tuten - Fantasy Football Summary
-Overall Fantasy Outlook: Tuten is a classic "high-risk, high-reward" fantasy prospect. His profile highlights explosive athleticism, receiving prowess, and surprising power, drawing lofty comparisons to dual-threat backs like Charlie Garner and Jahmyr Gibbs. However, a critical flaw – significant ball security issues – casts a major shadow over his potential. His success may also be scheme-dependent. The RSP evaluator views him as having early-round talent but advises caution, suggesting he's a risky pick before the 4th round due to the fumble concerns potentially derailing his career.
-Fantasy Strengths:
-Explosiveness &amp; Speed: Tuten possesses game-breaking speed ("can pull away from safeties") and good acceleration, giving him big-play potential on any touch.
-Receiving Upside: Profiles as a capable receiver with reliable hands, good tracking ability, and effectiveness after the catch ("catch-and-pierce"). Shows potential in route running and is used in various passing situations, suggesting PPR value.
-Power &amp; Contact Balance: Despite his size (5'9", 200 lbs), he plays physically, runs with good pad level, breaks tackles, pushes piles, and shows good balance through contact.
-Pass Protection Technique: When he identifies his assignment, Tuten displays good technique, using his hands well, shuffling effectively, and anchoring against blitzers. This is a plus for staying on the field on passing downs if recognition improves.
-Gap Scheme Fit: Noted as being a confident, decisive runner on Duo plays and potentially capable of starter production in a gap-heavy scheme where reads are clearer.
-Fantasy Weaknesses:
-Critical Ball Security Issues: This is the biggest red flag. His fumble rate (1 per 67 touches, with 9 in the last two years) is flagged as historically problematic for NFL success. He has a tendency for the ball to swing loose. This single issue could severely limit his playing time or even end his career prospects, torpedoing fantasy value.
-Zone Scheme Vision/Decision-Making: Struggles significantly with inside zone reads, often ignoring blocking leverage, running to space instead of following design, or making risky cutbacks. Prone to bouncing outside too early on outside zone. This limits his scheme versatility and makes him potentially boom/bust as a runner depending on the offensive system.
-Pass Protection Recognition: While his technique is good, he can be late identifying blitzers (especially B/C gap), leading to missed assignments.
-Durability Note: Observed wearing a knee brace in 2024 (context suggests this was during the 2023 college season tracked in early '24), which warrants monitoring.
-Player Comparisons:
-High-end comparisons include Marshall Faulk, Charlie Garner, and Jahmyr Gibbs. These comps highlight his potential ceiling as an explosive, versatile weapon capable of contributing significantly in both the running and passing games – a highly valuable fantasy archetype if he overcomes his flaws.
-Bottom Line for Rookie Drafts: Tuten is an enticing athlete whose speed and receiving ability fit the modern NFL, offering significant fantasy upside (especially PPR). However, the severe fumbling issue makes him incredibly risky. He's best suited for a gap/power running scheme. Fantasy managers should treat him as a volatile asset. Drafting him requires tolerance for risk, ideally at a discount to his perceived talent level due to the fumble concerns. His landing spot and ability to protect the football in the NFL will determine if he booms or busts.</t>
-  </si>
-  <si>
-    <t>Kansas State</t>
-  </si>
-  <si>
-    <t>Melvin Gordon</t>
-  </si>
-  <si>
-    <t>Contributor: Starter execution in a limited role; diminishing returns beyond that scope.</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Giddens presents a frustrating profile for fantasy evaluation. He possesses intriguing physical tools, good receiving skills, excellent ball security, and flashes moments ("when the light switch is on") reminiscent of a more explosive Melvin Gordon. However, his fantasy potential is significantly capped by pervasive inconsistency in effort and intensity ("light switch" player). This inconsistency negatively impacts his vision, decision-making, acceleration, and pass blocking, making him unreliable. The RSP evaluator ranks him low (RB30, "Contributor" role) and expresses skepticism about his ability to maintain NFL-level intensity, advising drafting him only at a significant value.
-Fantasy Strengths:
-Flashes of High-Level Play: When motivated/engaged, Giddens shows good vision to press creases, decisive cuts, starter-caliber burst, and a diverse set of elusive moves (sticks, jump cuts, sharp pressure cuts).
-Receiving Potential: Generally a reliable pass-catcher with good technique (tracking, high-pointing, catch-and-pierce), suggesting potential PPR value if effort and blocking allow him onto the field.
-Excellent Ball Security: His fumble rate (1 per 191.67 touches) is very good and a significant positive, meaning he's unlikely to be benched for fumbles.
-Pass Protection Recognition: Shows good mental processing in recognizing blitzes (interior, safety, linebacker) and setting up correctly in pass protection initially.
-Good Athletic Tools: Possesses the size (6'0", 212 lbs) and athletic traits (burst, agility) to potentially succeed.
-Fantasy Weaknesses:
-Inconsistent Effort/Intensity (MAJOR RED FLAG): This is the core issue. Described as a "light switch" player who lacks consistent intensity in his attack, pacing, and finish. This leads to tentative running, poor decision-making, and failure to maximize his physical gifts. Coaches often have little patience for inconsistent effort.
-Inconsistent Vision/Decision-Making: Due to lack of intensity, often fails to press creases properly, cuts back or bounces too early, and looks hesitant instead of attacking downhill.
-Unreliable Pass Protection: Despite good recognition, his execution is poor ("speedbump"). He overextends, fails to deliver effective strikes, loses leverage, and shows effort lapses, making him a liability. This will limit passing down snaps.
-Doesn't Play to Timed Speed: While possessing good burst, his top-end speed appears functional but not elite; acceleration doesn't always translate to maximizing his speed on the field.
-Minor Receiving Technique Lapses: Occasional "clap-catching" on underhand targets or letting the ball into his frame.
-Player Comparisons:
-The primary comparison is Melvin Gordon, but heavily qualified. Giddens can look like a more explosive version when playing with intensity, but often appears disengaged ("daydreaming"). This highlights potential skillset (burst, receiving ability) but emphasizes the massive consistency issue.
-Bottom Line for Rookie Drafts: Giddens is a talented but deeply flawed prospect from a fantasy perspective due to the questions surrounding his effort and consistency. While the Melvin Gordon flashes and strong ball security are appealing, the risk that he doesn't develop the necessary NFL mindset is significant. His unreliable pass protection further limits his upside. He's likely a late-round rookie pick who needs to land in a situation where coaches can motivate him or find a niche role. He's a player to monitor, but drafting him early requires a leap of faith that he can flip the switch permanently to "on."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James Cook - X - Justin Jackson </t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotational Starter: Executes at a starter level in a role playing to their strengths. 
-Sampson is on the cusp of Starter: Starting immediately with large role and learning on the go. </t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Sampson profiles as a dynamic and versatile running back with significant fantasy upside, ranked RB7 by RSP and on the cusp of an immediate starting role. Despite a smaller build (5'8", 200 lbs), he displays surprising ruggedness, good vision (especially in gap schemes), receiving ability, and promising, improving pass protection. The evaluator sees potential for him to be an every-down back with Top 12 fantasy upside if he refines his game and fixes a key flaw: ball security. His floor looks like a valuable committee/receiving back similar to James Cook.
-Fantasy Strengths:
-Dynamic Skillset: Blends speed, acceleration, and agility ("slippery") with surprising power and determination ("rugged"). He can create yards at all three levels of the defense.
-Vision &amp; Intelligence: Shows good patience, decisiveness, and creativity as a runner, particularly excelling in gap schemes. Reads leverage well and manages game situations wisely.
-Three-Down Potential: Possesses receiving skills and, crucially, shows significant improvement and promise in pass protection (better technique, recognition), which boosts his chances of earning snaps on all downs.
-Plays Bigger Than Size: Runs with low pad level, breaks tackles, runs through contact, and shows good balance, mitigating some concerns about his smaller frame.
-Big Play Ability: Has the acceleration and speed to break long runs and pull away from defenders ("can split safeties and corners").
-Fantasy Weaknesses:
-Ball Security Concerns: This is the most significant red flag. While his overall career rate is passable, his fumble rate increased significantly in 2024 (1 per ~70 touches) with his largest workload, putting him near a historically problematic threshold for NFL success. This needs immediate improvement.
-Zone Scheme Development: Needs to learn to press blocks deeper and be more consistent in zone schemes compared to his effectiveness in gap runs.
-Receiving Technique: While effective as a receiver, his catching technique (prone to "clap-catching") is noted as flawed and needs tightening to prevent drops against NFL defenders.
-Durability Note: Suffered/aggravated a hamstring injury late in the 2024 season, which warrants monitoring.
-Player Comparisons:
-The primary comparison listed is James Cook, highlighting his potential role as an efficient space player with receiving value.
-The profile suggests Sampson has the potential to be more of an every-down option than Cook if he develops fully, particularly if he improves ball security. Justin Jackson is listed as a lower-end comparison.
-Bottom Line for Rookie Drafts: Sampson is an exciting prospect with a well-rounded game and significant upside, especially in PPR leagues. His improving pass protection is a major plus. However, the concerning 2024 fumble rate makes him a riskier investment than his talent might suggest. If he can secure the football, he has the potential to outperform his draft slot significantly and grow into a fantasy RB1/RB2. The evaluator considers him a potential bargain after the mid-second round of rookie drafts, assuming the fumble issues don't tank his NFL draft capital.</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Bilal Powell - X - Ke'Shawn Vaughn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotational Starter: Executes at a starter level in a role playing to their strengths. </t>
-  </si>
-  <si>
-    <t>Okay, here's a fantasy football-focused summary of the Devin Neal RSP profile:
-Devin Neal - Fantasy Football Summary
-Overall Fantasy Outlook: Devin Neal projects as a high-floor, likely lower-ceiling running back prospect best suited for a committee role at the NFL level. His standout trait is elite ball security, which the RSP evaluator notes significantly boosts his ranking and should earn him coaches' trust. He complements this with good vision, patience, and receiving ability. However, limitations in power and high-end athletic explosion likely cap his upside, preventing him from being a true lead back or consistent high-volume touchdown scorer. The Bilal Powell comparison seems apt for his potential NFL role and fantasy impact – a reliable contributor rather than a star.
-Fantasy Strengths:
-Elite Ball Security: This is his defining characteristic. His extremely low fumble rate (1 per 168 career, 1 per 237 over the last two seasons) is a massive plus and should ensure he sees the field.
-Vision &amp; Patience: Displays good patience setting up blocks, reads keys effectively pre- and post-snap, and generally makes sound decisions, managing game situations well.
-Receiving Ability: Tracks the ball well, shows toughness making catches through contact, utilizes late hands, and adjusts well to targets. Profiles as a capable contributor in the passing game, boosting PPR value.
-Elusiveness (Micro-Movements): Excels at subtle adjustments ("micro-mover") to avoid contact in tight spaces. Possesses efficient footwork, good stop-start ability, and various jukes.
-Pass Protection Recognition: Diagnoses blitzes well (crosses, corners) and generally understands assignments.
-Durability: No significant injury history reported.
-Fantasy Weaknesses:
-Limited Power &amp; Explosion: Described as having functional power but not being a strong tackle-breaker or pile-pusher. Unlikely to improve significantly in this area, limiting yards-after-contact and goal-line potential.
-Capped Athletic Upside: Long speed is considered "good, not great," and acceleration requires build-up time. Doesn't possess elite dynamic traits.
-Pass Protection Execution: While recognition is good, he can struggle when isolated, overextends at times, and lacks violence in his punch. Needs refinement to be consistently reliable against NFL defenders.
-Scheme Fit Questions: Primarily operated in a perimeter-heavy scheme at Kansas; how well he adapts to potentially more inside-focused NFL systems remains somewhat uncertain despite showing competence on Duo plays.
-Inconsistent Elusive Moves: Sometimes relies too heavily on less efficient "long-step pressure cuts," though improvement was noted in 2024.
-Player Comparisons:
-The primary comparison is Bilal Powell, fitting the profile of a reliable, smart, pass-catching committee back with excellent ball security but limited dynamism.
-Ke'Shawn Vaughn is listed as a potential bust comparison if Neal fails to secure a consistent role.
-Bottom Line for Rookie Drafts: Neal shapes up as a safe, dependable fantasy asset likely destined for committee work. His elite ball security gives him a high floor for earning touches. He's a solid prospect for PPR leagues due to his receiving skills. Don't expect league-winning upside, but he could provide steady, reliable RB3/Flex production for fantasy teams. The RSP evaluator views him as a decent value in the third round of rookie drafts, reflecting his likely role as a solid contributor.</t>
-  </si>
-  <si>
-    <t>Oklahoma State</t>
-  </si>
-  <si>
-    <t>Deuce McAllister - David Johnson – William Green - X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contributor: Starter execution in a limited role; diminishing returns beyond that scope.  </t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Ollie Gordon presents a high-variance, scheme-dependent profile for fantasy managers. He possesses an enticing combination of NFL size (6'1", 226 lbs), good receiving skills, solid ball security, and better-than-Combine speed/acceleration demonstrated on tape. However, his value is heavily tied to landing in a gap-heavy or simple outside zone running scheme, as he struggles significantly with vision and decision-making in complex zone concepts or tight traffic. Additionally, inconsistent application of his power and significant flaws in pass protection limit his current three-down potential. An off-field DUI arrest adds another layer of risk. His wide range of outcomes is reflected in comparisons spanning from Deuce McAllister/David Johnson to William Green.
-Fantasy Strengths:
-Ideal Size &amp; Frame: Possesses the prototypical build for a potential workhorse running back.
-Good Receiving Skills: Soft hands, good technique extending for the ball, effective as an outlet receiver – valuable for PPR formats.
-Effective in Space: Utilizes his size, strength, and movement well once he gets into the second level or open field.
-Solid On-Field Speed/Acceleration: Despite poor Combine testing, his game tape shows sufficient speed and acceleration to create big plays ("can flip the field").
-Gap Scheme Proficiency: Shows good vision, processing, and execution specifically within gap running schemes (like Duo), reading leverage and setting up blocks effectively in those concepts.
-Solid Ball Security: His fumble rate (1 per ~103 touches) is respectable and shouldn't be a major deterrent for coaches.
-Fantasy Weaknesses:
-Highly Scheme Dependent: Explicitly noted as needing a gap-heavy or simple zone scheme to thrive. Struggles significantly with vision, trust, and decision-making in other schemes, potentially rendering him ineffective. Landing spot is critical.
-Poor Vision/Decisiveness in Tight Traffic: Prone to "overacting," bouncing runs unnecessarily, and running into defenders when plays get congested near the line of scrimmage.
-Doesn't Consistently Play to Size/Power: Fails to consistently accelerate into contact or leverage his size to break tackles or dictate collisions, leaving yards on the field. Evaluator doubts this will improve.
-Flawed Pass Protection: Significant technical issues, including overextending, dropping his head, telegraphing intent, lacking punch, and inconsistency with cut blocks depending on direction. Limits his reliability on passing downs.
-Off-Field DUI: Arrested in July 2024 (context implies summer before his final college season), raising potential character/maturity flags.
-Inconsistent Production/Perception: Followed a huge 2023 with a less impressive 2024 season and poor Combine, creating doubts about his true talent level and trajectory.
-Player Comparisons:
-High end: Deuce McAllister / David Johnson (prime) - Big, productive backs with receiving ability.
-Low end: William Green - Talented college back who busted in the NFL. This wide range highlights the risk/reward nature.
-Bottom Line for Rookie Drafts: Gordon is a gamble heavily dependent on his NFL landing spot and scheme fit. If drafted by a team employing a power/gap running scheme, his size, receiving ability, and flashes of on-field dynamism offer considerable upside, potentially as a rotational starter or better if he refines his game. If he lands in a zone-heavy scheme, his value plummets, and he could struggle to earn meaningful touches. The pass protection issues and DUI add further risk. He's likely a mid-to-late round rookie pick whose value could shift significantly after the NFL Draft reveals his destination. Conservative drafters might wait for confirmation of a good scheme fit.</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeMarco Murray - James Starks-Roschon Johnson/X - Patrick Taylor </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Contributor: Starter execution in a limited role; diminishing returns beyond that scope. 
-Sanders is on the cusp of Reserve: Contributor with limitations in scope and execution.  </t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: This profile paints Sanders as a physically well-built back with good build-up speed and reliable hands, but significant flaws cap his fantasy ceiling and create considerable risk. His lack of short-area explosion limits his ability to create outside of what's blocked, making him reliant on clear runways. More critically, his ball security rate is borderline unacceptable for the NFL, and he has notable durability concerns (shoulder surgery, ankle injury). The evaluator suggests a ceiling similar to Roschon Johnson or Gus Edwards (a situational/committee role) if he fixes the fumbling, but strongly advises caution, recommending fantasy managers "monitor from afar" unless in very deep leagues.
-Fantasy Strengths:
-Size and Build: Possesses a good frame ("well-built") for an NFL running back.
-Good Top-End Speed (Build-Up): He's a "downfield bully" with strong straight-line speed once he gets a runway, allowing for big plays if he reaches open space.
-Reliable Receiver: Described as having "good hands," reliable, and capable of making plays on schemed targets (screens) and extending for the ball. Offers PPR potential.
-Scheme Fits (Gap/Inside Zone): Shows competence and good decision-making within gap schemes (Counter) and inside zone, anticipating blocks and pressing lanes effectively in those concepts.
-Power with Momentum: Utilizes his size and a strong stiff-arm effectively when running downhill with momentum, allowing him to break through initial contact.
-Fantasy Weaknesses:
-Lack of Short-Area Explosion/Suddenness: This is a major limitation. He lacks the "juice" or quickness for effective stop-start movement, making him struggle in heavy traffic and limiting his ability to create yards independently.
-Problematic Ball Security: His career fumble rate (1 per ~73 touches) is flagged as "on the cusp of being unacceptable." This is a critical flaw that could severely limit playing time or even roster viability.
-Durability Concerns: Significant injury history, including a torn labrum requiring surgery (missed end of 2023/Spring 2024) and an ankle injury limiting him in 2024. Raises major red flags about his availability.
-Processing/Execution Speed: Can be a "beat late" processing or reacting to penetration, potentially due to slower recognition or inefficient movement.
-Footwork Issues Near LOS: Prone to tripping over blockers and struggles to get his feet over low tackle attempts near the line of scrimmage.
-Flawed Blocking Technique: Particularly poor as a cut blocker (drops head, slow, lacks force, tips off intent).
-Player Comparisons:
-Gus Edwards: Suggests a potential role as a downhill, runway-dependent runner.
-Roschon Johnson: Implies a ceiling as a solid committee back or valuable role player if he overcomes his flaws (especially fumbles).
-Bottom Line for Rookie Drafts: Sanders carries significant risk for fantasy purposes. While his size, build-up speed, and receiving ability offer some intrigue, the combination of poor ball security, significant durability concerns, and a lack of dynamic short-area quickness makes him a highly questionable investment. His reliance on specific schemes and clean blocking further limits his upside. Based on this profile and the evaluator's strong cautionary advice, he should likely be avoided in standard rookie drafts and only considered as a late-round flier in very deep dynasty leagues where taxi squad spots are plentiful.</t>
-  </si>
-  <si>
-    <t>UCF</t>
-  </si>
-  <si>
-    <t>Tarik Cohen - X – Ito Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contributor: Starter execution in a limited role; diminishing returns beyond that scope. 
-Sanders is on the cusp of Reserve: Contributor with limitations in scope and execution. </t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: RJ Harvey is profiled as a dynamic, quick-twitch athlete with exciting movement skills and receiving potential, drawing comparisons to Tarik Cohen. However, he possesses critical flaws – namely abysmal pass protection and a highly problematic fumble rate – that severely threaten his NFL viability and fantasy upside. While his agility, speed, surprising contact balance, and vision in zone schemes are appealing, these major weaknesses make him a significant project. The RSP evaluator suggests he's currently a late-round stash candidate at best, needing significant improvement in key areas to become even a viable fantasy flex play.
-Fantasy Strengths:
-Dynamic Movement &amp; Elusiveness: Elite short-area quickness, hip mobility, and body control make him slippery and dangerous in space. Can make defenders miss and navigate traffic effectively.
-Receiving Ability: Skilled pass-catcher who adjusts well to the ball and shows promise as a route runner, particularly against linebackers. Offers significant PPR upside if he can overcome other flaws.
-Zone Scheme Vision: Excels in Zone, Draw, and Duo concepts, showing patience, pressing lanes effectively, and finding cutbacks.
-Surprising Contact Balance: Despite his smaller size (5'8", 205 lbs), he has a low center of gravity and good lower-body strength, allowing him to bounce off hits and gain yards after contact.
-Speed &amp; Acceleration: Good initial burst and excellent ("elite") second gear once in the open field, making him a home-run threat.
-Fantasy Weaknesses:
-Very Poor Pass Protection: Described as a "one-and-done blocker" who lacks proper technique, sustain ability, and punch. A significant liability that will severely limit his playing time on passing downs.
-Problematic Ball Security: His fumble rate (1 per ~72 touches) is near an "unacceptable" level for the NFL. Coupled with poor carrying technique (elbow wide, swinging ball), this is a critical flaw that could make him unplayable.
-Poor Decision-Making (Gap Schemes): Tends to excessively hunt for cutbacks in gap schemes, ignoring the designed play and running into worse situations. Limits his scheme versatility.
-Focus Drops: Prone to dropping passes due to looking upfield before securing the catch, undermining his receiving potential.
-Durability Concern (Past Injury): Suffered an ACL tear in 2021, which is relevant medical history.
-Player Comparisons:
-Tarik Cohen: Highlights his potential ceiling as a dynamic, shifty receiving weapon used in specific roles.
-Ito Smith: Represents the downside risk of a smaller, satellite-type back who doesn't carve out a lasting role.
-Bottom Line for Rookie Drafts: Harvey is an exciting athlete to watch but carries immense risk for fantasy football. The combination of terrible pass protection and a very high fumble rate creates massive hurdles to earning significant playing time, regardless of his dynamic running and receiving skills. He needs to land in a zone-heavy scheme that minimizes his gap-scheme decision flaws and ideally doesn't ask him to pass protect often. He requires significant development and must fix his ball security immediately. Treat him as a late-round developmental stash in deep dynasty leagues, with a low probability of contributing meaningfully early in his career.</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Rotational Starter: Rotational Starter Tier: Executes at a starter level in a role playing 
-to their strengths. Johnson is on the cusp of Reserve: Contributor with limitations in scope and execution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terrell Davis-Johnathan Franklin-X/Joshua Kelley </t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Montrell Johnson Jr. profiles as a high-floor, fundamentally sound running back whose fantasy ceiling hinges significantly on whether his athletic testing translates more consistently to the field. He's a reliable, well-balanced runner capable in both gap and zone schemes, boasting excellent tackle-breaking ability, elite ball security, and solid pass protection skills. However, his on-field acceleration and speed haven't always matched his potentially impressive workout numbers. If he unlocks that athleticism, his ceiling is considerable (evidenced by lofty comparisons); if not, he projects as a dependable committee back. A recent knee injury also adds a slight risk factor.
-Fantasy Strengths:
-Excellent Ball Security: Elite level (1 fumble per ~211 touches), providing a strong foundation of trust for coaches.
-Tackle-Breaking &amp; Contact Balance: Very difficult to bring down, effectively gets his feet/knees high through contact, pulls through wraps, uses a strong stiff arm, and shows good balance through both direct and indirect hits.
-Well-Rounded Skillset: A sound technician who can effectively run in both gap and zone schemes, reads leverage well, and makes generally good decisions between the tackles.
-Solid Pass Protection: Shows good technique and recognition, squares defenders, uses his hands well, and identifies pressures. Reliable in this phase.
-Good Elusiveness: Utilizes effective footwork (jump cuts, stops, hip openers, sharp lateral cuts) and stride variation to make defenders miss and avoid low shots.
-Fantasy Weaknesses:
-On-Field Athleticism Disconnect: The biggest question mark. His tested acceleration and speed appear better than what he consistently displays on film. Until he "unlocks" this consistently, his big-play upside remains theoretical.
-Second/Third Level Vision Lapses: Occasionally misses opportunities to maximize runs by bouncing towards defenders instead of hitting developing lanes deeper downfield.
-Durability Concern: Missed most of the 2024 season with a knee injury (no surgery required), which adds an element of risk.
-Player Comparisons:
-High end: Terrell Davis (if athletic potential is fully realized in the right scheme), Johnathan Franklin (talented all-around back).
-Low end: Joshua Kelley (reliable but replaceable committee back). This spectrum highlights the uncertainty tied to his athleticism translating.
-Bottom Line for Rookie Drafts: Johnson offers a safe floor due to his reliability, excellent ball security, toughness, and competence in all phases. He's likely to carve out at least a committee role. The key variable for fantasy is his ceiling – can he consistently play to the athletic potential his testing suggests? If yes, he could be a significant value. If not, he's a dependable, but likely unexciting, fantasy asset (RB3/Flex type). The RSP evaluator views him as a "high-floor prospect" and a "decent late-round bet" (5th-7th round+) in rookie drafts, worth adding based on his reliability even with the athletic questions.</t>
-  </si>
-  <si>
-    <t>Tahj Brooks</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Frank Gore/LeVeon Bell/X - - CJ Anderson </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Starter: Starting immediately with large role and learning on the go. Brooks is on the cusp 
-of Franchise: Immediate production and leadership anchor. </t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Tahj Brooks profiles as an elite running back prospect according to this RSP evaluation (RB3, tied for RB2; cusp of "Franchise" talent score), despite likely being overlooked due to playing at Texas Tech and potentially falling to Day 3 of the NFL Draft. The evaluator is extremely high on him, comparing his playing style (patience, decisiveness, quickness, maneuverability) favorably to Frank Gore and Le'Veon Bell. Brooks is presented as a complete, scheme-versatile back capable of handling a three-down workload immediately, excelling at creating yards after contact, securing the football, and contributing in the passing game. He's considered one of the best values in the class, likely available much later in rookie drafts than his talent suggests.
-Fantasy Strengths:
-Elite Vision, Patience &amp; Decision-Making: Described as one of the best at pressing the line to set up blocks, patiently waiting for creases, and intelligently maximizing runs ("turns lemons into lemonade"). Creative and efficient between the tackles.
-Excellent Tackle-Breaking &amp; Contact Balance: Possesses elite short-area quickness, power, and balance to defeat multiple points of contact consistently. Forces gang tackles and generates significant yards after contact.
-Elite Ball Security: Outstanding record with only 5 fumbles in nearly 1,000 career touches (1 per ~197 touches). Highly trustworthy with the football.
-Three-Down Versatility: Shows capability as a runner, a reliable receiver with good hands who can win downfield, and a promising pass protector with the tools to acclimate quickly. Handled a massive workload in college.
-Scheme Versatile: While perhaps best in gap schemes where his vision shines, he shows the skills (pressing line, quickness, power) to succeed in various systems. Evaluator dismisses concerns about Texas Tech's offense limiting translation.
-Good Athleticism: Possesses elite short-area quickness and acceleration. Combine 40-time (4.52) was adequate-to-good ("pleasant surprise") and confirmed his functional speed, even if he lacks elite breakaway gear.
-Durability: Handled a heavy workload and has no significant reported injuries.
-Fantasy Weaknesses:
-Lack of Elite Long Speed: While fast enough and capable of breaking chunk plays (30-40 yard range cited as upper limit), he may not possess true game-breaking, home-run speed to consistently erase angles against the fastest NFL defenders.
-Pass Protection Refinement Needed: While willing and promising with good diagnostic skills, his technique (overextending, hand placement/timing, occasional missed assignments on late shifts) needs coaching and refinement to become a true asset.
-Potential Perception/Draft Capital Issue: Evaluator anticipates he might be undervalued by NFL teams/other analysts due to "logo scouting" or scheme questions (which the evaluator refutes), potentially leading to lower-than-deserved draft capital.
-Player Comparisons:
-Stylistic comparisons to Frank Gore and Le'Veon Bell (patience, vision, quickness, processing).
-Notes Brooks sees himself like Josh Jacobs (whom the evaluator links to Gore).
-Floor comparison listed is CJ Anderson (solid, productive NFL starter).
-Bottom Line for Rookie Drafts: According to this evaluation, Brooks is a potential steal. He possesses the traits of a high-volume, three-down fantasy producer available at a likely Day 3 rookie draft price (RSP suggests potentially 5th-6th round rookie pick value). His combination of vision, tackle-breaking, elite ball security, and receiving chops gives him a high floor and significant ceiling. He appears NFL-ready and could quickly outperform his draft slot. He's presented as a prime target for value-seeking fantasy managers.</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Adrian Peterson - Ryan Mathews - X - Ryan Grant</t>
-  </si>
-  <si>
-    <t>Starter: Starting immediately with large role and learning on the go.</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Damien Martinez is presented as a high-floor, high-upside running back prospect, ranked RB4 by RSP and considered one of the safest backs in the class. He's described as a "dynamic runner in the disguise of a lunchpail volume runner," blending power, excellent contact balance, savvy vision across multiple schemes, and deceptive speed. While reliable receiving skills add to his profile, his pass protection technique needs significant refinement. Despite likely being a Day 3 NFL draft pick, the evaluator considers him a first-round talent in rookie drafts, suggesting significant value potential.
-Fantasy Strengths:
-Excellent Power &amp; Contact Balance: A defining trait. Runs through hits at all levels, breaks multiple tackles consistently, possesses a strong stiff arm, and maintains balance through contact.
-Vision &amp; Scheme Versatility: Smart and reliable decision-maker who effectively runs various concepts (Zone, Duo, Counter, Power, Windback). Confident in tight creases and efficient on cutbacks.
-Reliability &amp; High Floor: Considered very safe due to his intelligence, game management, scheme versatility, and overall soundness.
-Good Athleticism: Possesses effective acceleration to beat defenders to the second level and deceptive gliding speed in the open field ("a little faster than he appears"). Good footwork and agility complement his power.
-Reliable Receiver: A good outlet option with sound technique, reliable hands, good tracking, and awareness. Solid contributor in the passing game.
-Improving Ball Security: Decent career rate (1 per ~137 touches), but showed marked improvement with zero fumbles on 176 touches in 2024.
+    <t>Overall Fantasy Outlook: Tyler Warren (RSP TE5) is a physically impressive prospect whose highlight reel, featuring contested catches and powerful running (including from the backfield), has generated significant buzz. However, this profile expresses caution, ranking him below the elite tiers and highlighting substantial technical deficiencies in both blocking and route running that need significant refinement for NFL success. While possessing a potential ceiling similar to Dallas Clark if development occurs, his current game is closer to Tucker Kraft, relying more on size and aggression than nuanced technique. He projects as a rotational starter initially, likely needing time and coaching to potentially reach his ceiling as a productive fantasy TE.
+Fantasy Strengths:
+Excellent Contested Catch Ability: Wins 50/50 balls effectively using his size (65, 256 lbs), physicality, and good positioning/body control. A potential red zone weapon.
+Strong YAC Ability: Powerful runner after the catch (looks like tank), patient setting up blocks, savvy footwork, breaks tackles through strength, and finishes runs with low pad level. Effective when used on designed runs.
+Versatility (Usage): Utilized inline, detached, and uniquely in the backfield (even as a QB in short yardage) at Penn State, offering schematic flexibility.
+Adequate Athleticism: Possesses viable short-area quickness and smooth acceleration for his size, though lacks elite top-end speed.
 Durability: No significant reported injuries.
 Fantasy Weaknesses:
-Pass Protection Technique: While he diagnoses pressures well and shows willingness, his execution is flawed. He tends to overextend, leading to poor positioning and allowing defenders to counter easily. This needs significant coaching to avoid being a liability and limiting passing-down snaps early on.
-Runs Slightly Upright: His running style is somewhat upright, which can slightly limit leverage and power between the tackles, though he compensates well with balance and strength.
-Lacks Elite Suddenness: More of a powerful, one-cut runner than an incredibly shifty back who relies on stop-start quickness in tight spaces.
-Player Comparisons:
-High end: Adrian Peterson (power/vision/deceptive speed ceiling), Ryan Mathews (talented power back).
-Floor/Solid Starter: Ryan Grant. These comparisons point towards a powerful runner with clear NFL starter potential.
-Bottom Line for Rookie Drafts: Martinez profiles as a potentially immediate contributor with a desirable blend of power, vision, balance, and reliability. His ability to handle volume, contribute adequately as a receiver, and stay healthy boosts his fantasy floor. The main hurdle to a true three-down role is refining his pass protection technique. The RSP evaluator is very high on his talent (ranking him RB4, viewing him as 1st round rookie value) relative to his likely Day 3 NFL draft capital, making Martinez a potentially excellent value pick in rookie drafts who could significantly outperform draft expectations.</t>
-  </si>
-  <si>
-    <t>Aaron Jones - X</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Brashard Smith is an intriguing prospect (RSP RB11) with significant fantasy upside, largely due to his elite speed, acceleration, and receiving prowess stemming from his background as a WR. Having recently converted to RB at SMU, he showed rapid growth and flashes dynamic playmaking ability, drawing a favorable comparison to Aaron Jones. While his vision excels in zone schemes and he displays surprising toughness, his game requires refinement in gap concepts, pre-snap recognition, pass protection, and ball security consistency due to his inexperience at the position. The evaluator is optimistic that his flaws are fixable, potentially leading to an every-down role, making him a compelling target with high potential, especially in PPR formats.
-Fantasy Strengths:
-Elite Speed &amp; Acceleration: Possesses true home-run ability ("blow past linebackers... split safeties, and hold off cornerbacks for 75-80 yards"). Game-breaking potential on any touch.
-Excellent Receiving &amp; Route Running (WR Background): Natural hands catcher with highlight-reel ability, advanced route nuances for an RB, and experience split wide. Huge PPR upside. Former All-ACC return specialist adds versatility.
-Dynamic Elusiveness: Quick feet, good jump cuts, efficient change of direction, and effective spin move (when used properly) allow him to make defenders miss.
-Zone Scheme Vision: Has quickly developed a good feel for zone blocking, showing patience, ability to press lanes, and adjust stride/pace.
-Rapid Development: Showed significant improvement in RB skills (stiff arm, cut blocking) in a short time after converting from WR, suggesting high coachability and upside.
-Improving Power/Contact Balance: Runs tough for his size (5'10", 196), keeps feet moving, developed a stiff arm, and shows ability to win collisions and push piles with help.
-Fantasy Weaknesses:
-RB Inexperience: Leads to specific areas needing development:
-Gap Scheme Vision/Decisions: Less comfortable than in zone, can bounce runs too early or rely on spins inappropriately.
-Pre-Snap Reads: Still learning to diagnose defenses pre-snap to identify optimal lanes/cutbacks.
-Pass Protection (Work in Progress): Primarily effective via cut blocks; stand-up blocking relies on shielding rather than effective strikes. Needs significant development to be trusted consistently.
-Ball Security: Rate improved in 2024 (1 per ~96 touches) but is still only average. Technique (loose carriage, slow switching) needs cleaning up to be reliable.
-Over-Reliance on Spin Move: Uses the spin too often and telegraphs it in suboptimal situations, hindering effectiveness.
-Player Comparisons:
-Aaron Jones: This comparison highlights his potential as an explosive, versatile backfield weapon with significant receiving value, capable of high efficiency even without massive size.
-Bottom Line for Rookie Drafts: Smith is a high-upside fantasy prospect whose value is tied to his dynamic athleticism and receiving ability. He fits the mold of a modern satellite/committee back immediately, with the potential to grow into much more if his development as a pure runner and blocker continues its rapid trajectory. The Aaron Jones comparison paints a picture of a potential fantasy RB1/RB2, especially in PPR leagues. While his rawness presents risk, his explosive traits make him an exciting player worth investing in, likely as a mid-round rookie pick, banking on his continued growth and playmaking ability. The evaluator believes his flaws are fixable and he could become an every-down player.</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bilal Powell - Kenneth Gainwell/X - - Jordan Mims </t>
-  </si>
-  <si>
-    <t>Rotational Starter: Executes at a starter level in a role playing to their strengths. Allen is 
-on the cusp of Reserve: Contributor with limitations in scope and execution.</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: LeQuint Allen profiles primarily as a receiving specialist whose fantasy value is heavily tied to his potential role in the passing game. His strengths lie in his excellent hands, route-running ability (advanced for an RB), and good footwork/elusiveness in space. However, significant limitations cap his overall upside. He lacks top-end speed and acceleration, limiting his potential as a runner, and possesses major technical flaws in pass protection that could prevent him from securing a consistent third-down role despite his receiving talent. The evaluator compares him to Kenneth Gainwell, suggesting a potentially frustrating fantasy asset ("limited fantasy tease") who may flash but likely lacks consistent volume or starter upside.
-Fantasy Strengths:
-Excellent Receiving Skills: Considered his best trait. Natural hands catcher who wins targets all around his frame, makes difficult adjustments (one-handed, back-shoulder, boundary work), tracks well, and transitions quickly after the catch. High PPR potential.
-Good Route Running: Runs routes well for a back, showing nuance (releases, setting up defenders, working zones) and potential to be a mismatch against linebackers/safeties.
-Good Feet &amp; Elusiveness: Agile with good footwork to make defenders miss in space, gets over low tackle attempts, and can transition downhill quickly.
-Solid Vision: Reads leverage effectively in zone and gap schemes, presses blocks well, and shows some pre-snap awareness.
-Improved Ball Security: Showed significant improvement in 2024 (1 fumble in 292 touches) after an acceptable but higher career rate (1 per ~129 touches).
-Fantasy Weaknesses:
-Lack of Top-End Speed/Acceleration: Doesn't possess the speed or burst to consistently pull away from defenders or create big plays as a runner. Athleticism is functional but not special.
-Major Pass Protection Flaws: Technique is fundamentally flawed ("rarely integrates his upper and lower halves"). He struggles to coordinate his hands and feet, often overextending or being off-balance, making him a liability despite decent recognition. (Cut blocking shows some promise but isn't reliable yet). This significantly hinders his path to consistent passing-down snaps.
-Limited Rushing Upside: Lack of dynamic athletic traits likely caps him as a complementary runner rather than a volume carrier.
-Minor Receiving Lapses: Occasional "clap-catches" on high-point attempts or unnecessary leaps for targets.
-Player Comparisons:
-Kenneth Gainwell: This comparison suggests a player who primarily contributes through the air but may struggle for consistent touches or a large role due to limitations elsewhere in his game.
-Bottom Line for Rookie Drafts: Allen's fantasy value hinges almost entirely on his receiving ability translating into a consistent third-down or satellite role. While his hands and route-running are appealing for PPR leagues, his severe limitations in pass protection and lack of dynamic rushing ability make him a risky bet. He needs significant technical refinement in blocking to earn steady snaps. The RSP evaluator strongly advises against reaching for him ("likely be over-drafted as a sleeper") and recommends considering him only as a late-round speculative pick in very deep PPR formats.</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Trevor Etienne (RSP RB13) projects as a dynamic, versatile running back capable of making an immediate impact, particularly as a change-of-pace runner and receiver. The evaluator holds him in high regard, suggesting he possesses more nuance and craft as a runner (especially in gap schemes) than his productive brother, Travis. With exciting speed, acceleration, elusiveness, and receiving chops, Trevor fits the mold of valuable modern committee backs like Jahmyr Gibbs or Charlie Garner, potentially offering more rushing upside than D'Andre Swift. His primary hurdle to a true three-down role is significantly refining his pass protection technique.
-Fantasy Strengths:
-Dynamic Athleticism: Possesses high-level acceleration, long speed (can pull away once open), sudden change-of-direction ability, and elusiveness to make multiple defenders miss. Legitimate big-play threat.
-Excellent Gap Scheme Runner: Reads leverage well, sets up blocks effectively, shows patience, and runs decisively in gap schemes (his strength). More adept in Duo/Zone than his brother was at the same stage.
-Receiving Upside: Good hands, runs routes well for a back, adjusts to the ball, and can be a mismatch weapon. Offers significant PPR value.
-Momentum-Based Power &amp; Balance: Despite his size (5'8", 198 lbs), he runs with determination, accelerates into contact well, displays good contact balance, breaks tackles (especially in the secondary), and can drag defenders.
-Versatility: Offers potential as both a runner and receiver, fitting well into a committee role with the upside for significant touches.
-Durability: No significant reported injury history.
-Fantasy Weaknesses:
-Pass Protection Technique: This is his biggest weakness. While he recognizes assignments reasonably well, his technique (overextending, dropping head, poor hand usage/punch) makes him a liability currently and needs major improvement.
-Vision/Timing in Zone: While capable, he doesn't press blocks as deeply or consistently in zone schemes compared to gap, and can be a step late reacting to penetration on Duo plays. Needs refinement for optimal consistency in all schemes.
-Receiving Technique Polish: While a good receiver overall, has occasional lapses in attack technique (clap-catches) that need cleaning up.
-Stiff Arm Usage: Could be more effective breaking tackles if he utilized his stiff arm more consistently and effectively.
-Player Comparisons:
-High end (Spectrum): Marshall Faulk, Charlie Garner, Jahmyr Gibbs (dynamic receiving/running threats).
-Floor (Spectrum): Kevin Faulk (productive long-term committee/receiving back).
-Narrative: Compared favorably to Travis Etienne (as a prospect); potential to offer more rushing value than D'Andre Swift.
-Bottom Line for Rookie Drafts: Etienne is an exciting talent with the speed, receiving ability, and running skill (especially in gap schemes) to be an immediate fantasy contributor in a committee role, particularly in PPR leagues. His upside is significant if he can refine his pass protection. He offers a strong receiving floor with explosive play potential. His rookie draft value is somewhat uncertain (RSP suggests anywhere from late 2nd to early 5th round), but his talent suggests he could be a valuable pick, potentially developing into a high-end committee back with weekly starter value for fantasy teams.</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J.K. Dobbins - Khalil Herbert/X </t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Jarquez Hunter (RSP RB20) is an intriguing running back prospect who possesses a strong combination of athletic traits – quickness, acceleration, top-end speed, and agility – along with determined, powerful running between the tackles. Drawing comparisons to efficient, explosive backs like J.K. Dobbins and Khalil Herbert, Hunter shows promise, particularly as a zone runner. However, his game requires significant refinement in key areas, including decision-making in tight gap-scheme creases, reacting consistently to interior penetration, receiving technique on non-routine targets, and especially pass protection consistency. If he can clean up these issues, he has the potential to become a productive committee back with big-play ability.
-Fantasy Strengths:
-Good Athleticism &amp; Speed: Possesses notable quickness, acceleration, and top-end speed, allowing him to beat defenders to the edge and create chunk plays. Excellent hip flexibility enhances his elusiveness.
-Power &amp; Determination: Runs hard, possesses a powerful stiff arm, breaks tackles through functional strength and determination, and finishes runs effectively. Forces gang tackles.
-Elusiveness: Utilizes good footwork, jukes, hurdles, and stride variations to make defenders miss. Weaves through traffic well when he sees the lane.
-Zone Scheme Vision: Generally sees the field well, reads leverage effectively on zone plays, and attacks creases decisively within that scheme. Manages game situations well.
-Durability &amp; Adequate Ball Security: No significant injury history reported. Ball security (1 fumble per ~127 touches) is acceptable, though not elite.
-Fantasy Weaknesses:
-Gap Scheme Decision-Making: While capable in zone, his decisiveness wanes in tight gap-scheme creases, leading to ill-advised bounces or cutbacks.
-Reacting to Interior Penetration: Can be slow to identify and react to defenders penetrating quickly up the middle.
-Inconsistent Receiving Technique: Adequate overall, but prone to "clap-attacks" and drops on targets away from his frame (especially high or low). Needs more consistency securing the ball. Hesitates occasionally after the catch.
-Inconsistent Pass Protection: Shows flashes of good technique but is often rendered a "temporary obstacle" due to lapses in details like overextending, leading with the helmet, poor depth, or tipping off blocks. Needs significant refinement to be reliable.
-Player Comparisons:
-J.K. Dobbins / Khalil Herbert: These comparisons suggest potential as an efficient, explosive runner often effective in zone schemes, likely fitting best within a committee approach.
-Bottom Line for Rookie Drafts: Hunter is a physically gifted back with the raw tools to succeed, particularly fitting a zone-running scheme. His blend of speed and power offers upside. However, the need for significant technical refinement in receiving, pass protection, and decision-making in certain run concepts makes him more of a developmental prospect than a finished product. He projects as a committee back who could offer splash weeks if he earns a role. The RSP evaluator suggests he's worth stashing (Rounds 3-4+ value in rookie drafts), betting on his athletic ability and potential for rapid development with NFL coaching.</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>X/Brandon Aiyuk – Rashee Rice - Dontayvion Wicks/Quintez Cephus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Franchise: Challenging for the lead role and leadership anchor. </t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Luther Burden III grades out as the RSP WR1 and a "Franchise" level talent, projected for immediate high-level production in the NFL. The evaluator holds him in exceptionally high regard, suggesting he would have ranked Burden ahead of Marvin Harrison Jr. pre-draft last year. Burden is lauded as a highly versatile, athletic receiver whose superpower is his elite ability after the catch ("one of the two best runners... in this receiver class"). While needing refinement in his releases against press coverage and as a blocker, his combination of speed, elite short-area quickness, reliable hands, route savvy, and football IQ points towards a potential alpha receiver profile. He's strongly recommended as a top-3 rookie pick, regardless of landing spot.
-Fantasy Strengths:
-Elite After-the-Catch Ability: Exceptional vision, patience, elite short-area quickness, power, balance, and a diverse repertoire of moves make him incredibly dangerous with the ball in his hands. Creates yards and touchdowns independently.
-Versatility: Can effectively play all three wide receiver positions (slot, flanker, potentially X with development) and contribute on various routes (vertical, crossers, screens) and manufactured touches (sweeps).
-Athleticism: Possesses difference-making speed to win deep or pull away after the catch, combined with elite quickness and deceleration for separation and YAC.
-Reliable Hands &amp; Catching: Excellent catch reliability (100% pinpoint catch rate in tracked games), tracks the ball well (over-shoulder, adjusting to placement), extends effectively, uses his body well, and makes contested/difficult catches (including one-handed grabs).
-Route Running &amp; Football IQ: Understands how to attack zone coverage, tempos routes effectively, works the scramble drill intelligently, and shows nuance in stems and breaks (though limited exposure to hard comeback routes). High football IQ evident in his play.
-Good Ball Security &amp; Durability: Generally takes care of the football and has no significant injury history reported.
-Fantasy Weaknesses:
-Release vs. Press Coverage: Needs to refine the pacing and artistry of his release packages to consistently defeat top-tier press corners at the line of scrimmage. This is the primary area holding him back from being a dominant 'X' receiver immediately.
-Blocking Technique: Requires significant improvement in technique (closing distance, punch timing/force, avoiding overextension) to become a reliable blocker.
-Catching Technique (Minor): Hands could be slightly tighter on occasion when attacking the ball to prevent potential issues against NFL velocity (though drops weren't observed).
-Player Comparisons:
-Spectrum includes Brandon Aiyuk, Rashee Rice, Dontayvion Wicks, Quintez Cephus.
-The Brandon Aiyuk comparison aligns well with Burden's profile as a versatile, explosive receiver who excels after the catch and can win at multiple levels. Rashee Rice highlights the YAC prowess and potential slot/intermediate effectiveness.
-Bottom Line for Rookie Drafts: Burden profiles as an elite fantasy asset with immediate WR1/WR2 potential. His game-breaking YAC ability, versatility, and overall polish make him a high-floor, high-ceiling prospect. The RSP evaluator considers him a cornerstone talent likely being undervalued by the consensus (potentially enabling a trade-down scenario while still acquiring him). He should be considered a lock for a top-3 pick in rookie drafts, with a strong argument for being the 1.01 depending on format and team needs.</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>X – Chris Olave/Ricky Pearsall</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Travis Hunter presents perhaps the biggest risk/reward conundrum in this draft class for fantasy football managers. Evaluated here as the RSP WR2 with "Franchise" level talent, he possesses Pro-Bowl potential as a wide receiver due to his skilled route running, vertical ability, reliable hands, and good YAC skills, drawing comparisons to Chris Olave and Ricky Pearsall. HOWEVER, the massive uncertainty about his NFL position overshadows everything. The evaluator expresses skepticism about him playing both ways significantly and leans towards Hunter primarily playing Cornerback in the NFL, despite acknowledging his offensive gifts. This positional ambiguity makes drafting him for fantasy purposes before the NFL Draft clarifies his role extremely risky.
+Poor Blocking Technique: A major area of concern. Frequently overextends, telegraphs intentions, doesnt use hands effectively (needs to learn punch), and relies on size/aggression over technique, which is less likely to work consistently in the NFL.
+Raw Route Running: Lacks artistry and refinement. Releases lack pacing variation, setups are underdeveloped, and breaks often lack necessary sharpness, snap, or weight drop, limiting separation potential against NFL defenders.
+Catching Technique Lapses (Minor): Occasional clap-attacks, particularly on high points or when using underhand position where overhand might be better. Needs to attack the ball earlier consistently.
+Lacks Elite Speed/Dynamism: Athleticism is good, not great (not an elite mover). Unlikely to generate consistent breakaway plays purely with speed.
+Player Comparisons:
+Ceiling: Dallas Clark (modern version - versatile, high-volume receiver).
+Realistic Comp/Floor: Tucker Kraft (solid contributor needing refinement).
+Production Tier: Comparable potential to David Njoku / Jonnu Smith (capable of 700-900 yards, 6-8 TDs in zone-heavy/YAC roles).
+Explicit Non-Comps: Not Kittle/Gronk or Hockenson tier.
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Warren offers an intriguing package of size, contested-catch ability, and YAC power, making him a high-ceiling prospect if he undergoes significant technical development. However, his current rawness in route running and blocking makes him a project. He likely needs a specific role early on (red zone specialist, H-back, schemed YAC touches) while he refines his game. The RSP evaluator warns against buying into potential pre-draft hype (overrated in early fantasy drafts) and suggests hes a safer investment after the NFL Draft reveals his landing spot and potential role. Pre-draft, he likely falls into the mid-to-late second or early third round of rookie drafts, representing a developmental gamble on his physical tools overcoming technical deficiencies.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Travis Hunter presents perhaps the biggest risk/reward conundrum in this draft class for fantasy football managers. Evaluated here as the RSP WR2 with Franchise level talent, he possesses Pro-Bowl potential as a wide receiver due to his skilled route running, vertical ability, reliable hands, and good YAC skills, drawing comparisons to Chris Olave and Ricky Pearsall. HOWEVER, the massive uncertainty about his NFL position overshadows everything. The evaluator expresses skepticism about him playing both ways significantly and leans towards Hunter primarily playing Cornerback in the NFL, despite acknowledging his offensive gifts. This positional ambiguity makes drafting him for fantasy purposes before the NFL Draft clarifies his role extremely risky.
 Fantasy Strengths (as a potential WR):
 Skilled Route Running: Polished and nuanced route runner with a variety of releases (though needing more consistent pacing/artfulness vs. press), effective setups, and precise breaks. Wins vs. man coverage.
 Vertical Threat: Possesses big-play ability downfield, capable of stacking defenders and winning on intermediate-to-deep routes.
@@ -814,45 +839,88 @@
 Chris Olave / Ricky Pearsall: These comparisons highlight his potential as a smooth, skilled route runner with reliable hands and the ability to create separation.
 Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Drafting Travis Hunter requires extreme caution. While his talent as a receiver warrants early first-round consideration based on this profile, the significant risk that his NFL team primarily views him as a cornerback makes him a potential fantasy bust.
 If his NFL team commits to him playing WR: His fantasy value skyrockets, likely into the top half of the first round of rookie drafts.
-If his primary role is CB (or unclear): His fantasy value plummets, making him undraftable in most standard leagues. The RSP evaluator explicitly advises waiting until the 4th round of early (pre-NFL Draft) rookie drafts if you want to take a speculative gamble, highlighting the immense risk involved before his NFL role is known. His landing spot and the team's stated intentions will be paramount.</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tim Brown – X/Jayden Reed - Lee Evans – Curtis Samuel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starter: Starting immediately with a large role and learning on the go. Golden is on the 
-cusp of the Franchise Tier: Challenging for the lead role and leadership anchor. </t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Matthew Golden (RSP WR3) is profiled as a dynamic, versatile wide receiver prospect poised for immediate impact, grading out on the cusp of the "Franchise" tier. Possessing elite timed speed (4.29 40-yard dash), Golden is far more than just a speedster, showcasing savvy route running that leverages his speed, reliable hands, and excellent ability after the catch. Drawing comparisons to versatile playmakers like Tim Brown and Jayden Reed, Golden can threaten defenses vertically, turn short passes into long gains, and operate effectively from multiple alignments (flanker, slot). While needing to improve consistency in contested catch situations and blocking, his overall skillset suggests high upside as potentially a primary or high-end secondary target in an NFL offense early in his career.
-Fantasy Strengths:
-Elite Speed &amp; Athleticism: Fastest timed WR in the class; possesses game-breaking speed for vertical routes and pulling away after the catch.
-Advanced Route Running: Intelligently uses his speed within routes, attacks stems effectively, shows sharp breaks with good deceleration, and understands how to set up defenders. Not just a vertical threat.
-Excellent YAC Ability: Displays quickness, vision, body control, and power after the catch to make multiple defenders miss, break tackles, and finish runs. Dangerous with the ball in his hands.
-Reliable Hands &amp; Tracking: Very dependable hands (100% catch rate on pinpoint/general targets in tracked games), tracks the ball well (including over-the-shoulder), extends effectively, and makes catches through contact.
-Versatility: Capable of playing multiple WR roles (flanker, slot) and winning in various ways (deep, intermediate, short, YAC). Viewed as a "match-up player."
-Good Ball Security: Takes care of the football with generally sound technique.
-Fantasy Weaknesses:
-Inconsistent Contested Catch Technique: While capable of making spectacular contested catches, struggles with timing, positioning, and attack technique consistently, especially when pinned near the boundary (67% tight coverage catch rate, drops vs. contact noted).
-Blocking Technique: Needs refinement; relies more on shielding/positioning ("hugger") than effective strikes, which could lead to holding penalties or ineffective blocks.
-Durability Concerns: Has a history of multiple nagging injuries (foot, groin, back) over the past couple of seasons, raising some concern about his ability to consistently stay available.
-Minor Catching Lapses: Occasional "clap-catches" on low targets need cleaning up.
-Player Comparisons:
-High end: Tim Brown (versatile HOF playmaker).
-Modern comps: Jayden Reed (versatile slot/outside threat), Lee Evans (deep threat ability), Curtis Samuel (speed/YAC/versatility). These comparisons point to a dynamic offensive weapon.
-Bottom Line for Rookie Drafts: Golden possesses an elite combination of speed, route-running savvy, reliable hands, and YAC ability, making him a high-upside fantasy prospect. He projects as an immediate contributor who can be deployed in multiple ways to exploit defenses. While he needs to improve his contested-catch consistency and blocking, his playmaking potential is significant. The RSP evaluator suggests he warrants late first-round consideration in rookie drafts (pre-NFL Draft), potentially slipping into the early second, representing strong value for a player with his dynamic profile.</t>
-  </si>
-  <si>
-    <t>Isaac Bruce – T.Y. Hilton/X – Marvin Mims</t>
-  </si>
-  <si>
-    <t>Starter: Starting immediately with a large role and learning on the go</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Isaiah Bond (RSP WR4) profiles as a high-level "Starter" tier prospect who, according to this evaluation, might be significantly undervalued relative to his teammate Matthew Golden. Bond is described as a polished route runner with legitimate deep speed, reliable hands, dangerous YAC ability, and a strong release package, drawing comparisons to T.Y. Hilton with potential to grow into an Isaac Bruce type. While needing refinement in specific catching techniques and significant development as a blocker, Bond possesses the tools to become a high-end WR2 with WR1 potential in an NFL offense, potentially exceeding public perception and offering strong value in rookie drafts.
+If his primary role is CB (or unclear): His fantasy value plummets, making him undraftable in most standard leagues. The RSP evaluator explicitly advises waiting until the 4th round of early (pre-NFL Draft) rookie drafts if you want to take a speculative gamble, highlighting the immense risk involved before his NFL role is known. His landing spot and the teams stated intentions will be paramount.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall Fantasy Outlook: Tre Harris (RSP WR14) is described as a physically gifted draftnik favorite known for exciting contested catches and good YAC ability, drawing a ceiling comparison to Alshon Jeffery. However, this profile expresses significant caution, highlighting that Harris is currently technically raw in crucial areas and needs substantial development, similar to Terrell Owens before he became a star. His releases, route running precision, catching technique (prone to clap-attacks/wrong hand usage), and zone awareness are all inconsistent works in progress. This lack of refinement leads to bust comparisons like Quentin Johnston and Bryan Edwards. While athletic and capable of highlight plays, Harris likely begins with situational usage and needs significant coaching to potentially reach his high ceiling.
+Fantasy Strengths:
+Contested Catch Potential: Makes exciting plays on the ball in the air, adjusts reasonably well, and shows ability to win through contact when his technique holds up. Possesses good size (62, 205) for this role.
+Good YAC Ability: Shines after the catch with good vision to find secondary lanes, patience, and the strength/power to run through wraps and work past multiple points of contact. Uses an effective stiff arm.
+Good Athleticism: Possesses adequate speed and acceleration to create separation on vertical routes occasionally and contribute after the catch. Agile enough to make defenders miss.
+Release Variety (Raw): Has a wide range of release moves in his arsenal, indicating potential if he can add craft and pacing. Shows ability to stack defenders when he gets separation.
+Durability: No significant reported injuries.
+Fantasy Weaknesses:
+Raw Route Running Technique: Lacks consistent precision, snap, and acceleration into/out of breaks. Setups arent always convincing. Struggles to consistently separate against man coverage with pure technique.
+Inconsistent Release Technique: Releases often lack craft, pacing (patience/suddenness contrast), and consistent violence/effectiveness against press coverage. Can get pinned or jammed.
+Catching Technique Lapses: Prone to clap-attacks (especially on high points), uses suboptimal hand positions (e.g., underhand too often), and tries to transition before securing the ball, leading to drops (multiple drops vs contact/tight coverage noted in data).
+Inconsistent Zone Awareness: Doesnt always read zone triangles correctly or know when to settle vs. continue running, leading to potential miscommunications.
+Lacks Elite Speed: Not a true burner; speed is functional but unlikely to consistently erase angles against faster NFL DBs over long distances.
+Player Comparisons:
+Ceiling: Alshon Jeffery (big-bodied, contested-catch winner).
+Floor/Bust Risk: Quentin Johnston / Bryan Edwards (physically gifted but technically unrefined disappointments).
+Bottom Line for Rookie Drafts: Harris is a high-variance prospect with undeniable physical tools and highlight-reel potential, but significant technical flaws across his game make him a risky investment requiring considerable development. He fits the profile of a player who could boom if the technique clicks, but carries substantial bust potential if it doesnt. He likely needs manufactured touches or specific vertical opportunities early on. The RSP evaluator suggests that drafting him in the early third round of rookie drafts (pre-NFL Draft) might even be reaching, indicating significant concern about his immediate readiness and overall refinement compared to his perceived hype. His value is highly dependent on coaching and development at the next level.
+</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Colston Loveland ranks as the RSP TE1 and possesses the all-around skillset to become a high-end NFL starter, fitting firmly into the T.J. Hockenson tier of tight ends – a versatile weapon capable of significant receiving production while being a capable blocker. While not possessing the chimera level blocking/receiving combination of a Gronkowski or perhaps Kittle, Loveland excels as a route runner at all levels, is dangerous after the catch, and shows promise as a blocker (though inconsistent). He projects as a potential top-three target in his future NFL offense, offering significant fantasy value, especially in TE premium formats. His recovery from major shoulder surgery (Oct 24, expected ready late July 25) is the primary immediate concern.
+Fantasy Strengths:
+Excellent Receiving Ability: Polished route runner who can stretch the field vertically (beats safeties up seam), win intermediate routes (digs), and operate underneath. Understands zone concepts, uses effective releases/setups, and shows good nuance.
+Strong YAC Ability: Physical runner after the catch who wins collisions, gets high knees through contact, drags defenders, uses an effective stiff arm, and shows good vision/patience.
+Good Athleticism &amp; Size: Ideal TE frame (65, 248 lbs) combined with good speed, acceleration, and agility to win as both a receiver and ball carrier.
+Versatility: Capable of lining up inline or detached and contributing significantly as both a receiver and a blocker (when technique holds). High football IQ.
+Reliable Hands: Generally dependable hands (100% PP catch rate), tracks the ball well, high-points effectively, and makes catches through contact.
+Fantasy Weaknesses:
+Inconsistent Blocking Technique: Prone to overextending inline, inconsistent aiming points on lead blocks. Needs more consistent execution despite showing capability.
+Route Break Refinement: Needs more consistent suddenness and deeper weight drop on some breaks (drop &amp; pop, whip) to maximize separation against NFL defenders.
+Minor Catching/Ball Security Lapses: Occasional clap-attacks (underhand at back hip); habit of not securing the ball immediately after catch (led to past fumble). Needs to improve boundary footwork consistency when high-pointing. Drops noted vs contact/tight coverage.
+Shoulder Injury Recovery: Underwent significant shoulder surgery (labrum/AC joint) in October 2024; expected return by late July 2025 needs monitoring for any rookie year impact or long-term concerns.
+Player Comparisons:
+Primary Comp Tier: T.J. Hockenson (high-end receiving TE, capable blocker, top-3 offensive option).
+Stylistic Comps: George Kittle / Tyler Eifert (athletic receiving TEs with blocking ability).
+Explicit Non-Comp: Brock Bowers (evaluator notes Bowers has superior athleticism).
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Loveland is a top-tier TE prospect with a well-rounded game poised for significant NFL production, likely mirroring T.J. Hockensons fantasy impact. He offers both a high floor due to his receiving skills and blocking potential, and a considerable ceiling as a potential focal point of a passing attack. The shoulder injury recovery is the main variable for his rookie season. His fantasy draft value varies significantly by format:
+TE Premium (1.5 PPR+): Clear first-round rookie pick value.
+Standard PPR: Better value in the back half of the second round.
+Non-PPR: Value likely falls to the back half of the third round. Hes a strong investment, particularly in formats that reward tight end production.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Skattebo presents a high-risk, potential-reward profile for fantasy managers. On the field, his running style draws comparisons to David Montgomery, suggesting potential for RB2 production with peak RB1 seasons if everything clicks. However, the profile raises significant red flags regarding potential off-field maturity issues (explicitly labeled a gamble and potentially leading to an implosion) and glaring technical flaws in pass protection. Hes likely a Day 3 NFL pick whose fantasy value is highly volatile and depends heavily on landing spot, coaching, and whether the off-field concerns materialize.
+Fantasy Strengths:
+Powerful &amp; Elusive Runner: Skattebo excels between the tackles with good vision, power, and excellent contact balance (direct and indirect). He runs hard, breaks tackles (notably with a strong forearm shiver), and possesses agility (spins, jump cuts) to make defenders miss in tight quarters.
+Workhorse Potential Traits: His running style, power, and balance suggest he could handle a significant workload if given the chance, similar to his primary comp, David Montgomery.
+Capable Receiver: Shows good hands, ball tracking, and route awareness against zone coverage. He can make plays in the receiving game, adding PPR upside if he can stay on the field.
+Decent Short-Yardage Instincts: Generally makes wise decisions to attack creases rather than attempting risky bounces in short-yardage situations.
+Fantasy Weaknesses:
+Major Off-Field/Maturity Concerns: The profile heavily emphasizes rumors and commentary regarding potential immaturity (Bizarro Montgomery, Johnny Manziel...Archetype, comparisons to Onterrio Smiths downfall). This poses a significant risk to his draft capital, team investment, and long-term viability, making him a potential implosion candidate. This is the biggest risk factor for fantasy.
+Poor Pass Protection Technique: Described as a potential liability who leads with his head, overextends, and misses assignments. This is a critical flaw that could severely limit his playing time, especially on lucrative passing downs, hindering his path to a three-down role despite receiving skills.
+Questionable On-Field Decision Making: Profile notes he sometimes doesnt know his athletic limitations and tries to do too much, leading to negative plays or drive failures.
+Ball Security: His career fumble rate (roughly 1 per 94-113 touches depending on the timeframe) is adequate at best and notably worse than other top prospects. Loose carrying style noted. This could limit trust and touches.
+Limited Top-End Speed: While acceleration is good, elite long speed might be lacking compared to true home-run threats.
+Player Comparisons:
+The primary comparison is David Montgomery, highlighting his power, balance, and potential workhorse style.
+The inclusion of Onterrio Smith serves as a cautionary tale, representing talent derailed by off-field issues. The Bizarro Montgomery label encapsulates this duality.
+Bottom Line for Rookie Drafts: Skattebo is the definition of a gamble. The Montgomery-esque rushing talent offers fantasy appeal, but the combination of significant off-field risk and poor pass protection makes him a volatile asset. The evaluator suggests drafting him only if you have existing RB depth and can afford the risk, while risk-averse managers should likely avoid him. His fantasy ceiling is intriguing, but his floor is potentially zero. His NFL draft capital and landing spot will be crucial indicators.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Elic Ayomanor (RSP WR24) presents a frustratingly inconsistent profile. He possesses intriguing tools, including good size (62, 206 lbs) and a surprisingly refined and diverse release package that often creates initial separation. However, his evaluation is marred by significant flaws after the release, particularly egregious struggles at the catch point against tight coverage due to poor technique (clap-attacks, suboptimal attack choices, poor positioning) and an inability to consistently stack defenders. This leads to a boom-bust profile with comparisons ranging from the similarly frustrating Adonai Mitchell to disappointing journeymen like Marquez Callaway and Jaray Jenkins. The evaluator expresses significant concern, suggesting Ayomanor frequently undermines his own good work and advises extreme caution in rookie drafts.
+Fantasy Strengths:
+Good Release Package: Possesses a strong array of nuanced footwork and hand counters delivered with good patience/suddenness contrast, allowing him to win early against coverage at the line.
+Good Size &amp; Frame: Has the physical dimensions desired for an outside receiver role.
+Functional YAC Ability: Uses his size and strength effectively after the catch, runs through contact, employs a decent stiff arm, and shows awareness to split defenders when needed.
+Solid Blocker: Shows good technique and willingness as a blocker in the run game.
+Good Ball Security &amp; Durability (Recently): Takes care of the ball; played full seasons recently despite past knee issues (HS PCL, 2022 camp injury).
+Fantasy Weaknesses:
+Poor Catch Point Execution vs. Tight Coverage: Major weakness. Consistently fails to secure contested catches due to poor technique (clap-attacks), suboptimal attack angles, poor positioning, and not attacking the ball early enough. Gets the ball ripped away frequently. Low tight coverage catch rate (50%).
+Inability to Stack/Maintain Separation: Frequently allows defenders back into the play after initially winning off the line or on the stem. Doesnt capitalize on separation created.
+Lacks Elite Speed/Acceleration: Described as having build-up speed rather than sudden burst; gets chased down by safeties and doesnt consistently pull away.
+Inconsistent Catching Technique: Prone to clap-attacking even on some easier targets, suggesting fundamental flaws in hand technique beyond just contested situations.
+Player Comparisons:
+Ceiling/Style Comp: Adonai Mitchell (physically gifted, flashes separation, frustratingly inconsistent at catch point).
+Floor/Bust Risk: Marquez Callaway / Jaray Jenkins (big-bodied receivers who didnt stick due to lack of refinement/consistency).
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Ayomanor is a high-risk prospect whose promising releases are frequently negated by his failures at the catch point, especially against tight coverage. While the physical tools and initial separation ability offer a glimpse of upside, his inability to consistently finish plays makes him a significant gamble. He needs major improvement in his catching technique and consistency to become a reliable fantasy asset. The RSP evaluator expresses strong skepticism, advising fantasy managers to essentially avoid him in rookie drafts before the NFL draft unless he falls significantly (4th round or later) and higher-ranked options are gone. His landing spot and coaching environment will be critical, but the existing flaws present a major hurdle.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Isaiah Bond (RSP WR4) profiles as a high-level Starter tier prospect who, according to this evaluation, might be significantly undervalued relative to his teammate Matthew Golden. Bond is described as a polished route runner with legitimate deep speed, reliable hands, dangerous YAC ability, and a strong release package, drawing comparisons to T.Y. Hilton with potential to grow into an Isaac Bruce type. While needing refinement in specific catching techniques and significant development as a blocker, Bond possesses the tools to become a high-end WR2 with WR1 potential in an NFL offense, potentially exceeding public perception and offering strong value in rookie drafts.
 Fantasy Strengths:
 Advanced Route Running &amp; Separation: Polished route runner with a diverse release package, ability to stack defenders, precise breaks (with good weight drop), and understanding of leverage/setups. Wins consistently against man coverage at intermediate and deep levels.
 Deep Speed &amp; Vertical Threat: Possesses legitimate long speed to stretch the field and win vertically.
@@ -862,9 +930,9 @@
 Football IQ: Understands zone coverage, works scramble drills well, and demonstrates good awareness.
 Good Ball Security: Generally secure with the ball, using the proper arm and tightening carriage in traffic.
 Fantasy Weaknesses:
-Catching Technique Lapses: While mostly reliable, shows specific inconsistencies – potential "clap-attacks" with overhand position and occasional "high-low" trapping on targets at shoulder height away from his frame.
+Catching Technique Lapses: While mostly reliable, shows specific inconsistencies – potential clap-attacks with overhand position and occasional high-low trapping on targets at shoulder height away from his frame.
 Underdeveloped Blocking: Technique is poor; primarily shields rather than delivers effective strikes, lacks punch, and needs significant development to contribute in the run game.
-Size: Slightly undersized frame (5'11", 180 lbs) may present challenges against larger, physical corners, though he shows ability to win contested catches.
+Size: Slightly undersized frame (511, 180 lbs) may present challenges against larger, physical corners, though he shows ability to win contested catches.
 Durability Note: Suffered a high ankle sprain late in the 2024 season, causing him to miss a playoff game.
 Player Comparisons:
 High end: Isaac Bruce (potential ceiling).
@@ -873,41 +941,7 @@
 Bottom Line for Rookie Drafts: Bond appears to be a potentially undervalued asset according to this profile. He possesses the route running skills, deep speed, and reliable hands to project as a highly productive NFL receiver, likely operating as a high-end WR2 with upside for more. While blocking is a weakness and minor catching technique issues need cleaning up, his overall profile is strong. The RSP evaluator suggests targeting him in the late-first or early-second round of rookie drafts (pre-NFL Draft), anticipating he might provide excellent value compared to public perception which may view him as secondary to his teammate Golden.</t>
   </si>
   <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>X/Nico Collins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starter: Starting immediately with a large role and learning on the go. </t>
-  </si>
-  <si>
-    <t>Tetairoa McMillan - Fantasy Football Summary
-Overall Fantasy Outlook: Tetairoa McMillan (RSP WR5) is the top prospect fitting the appealing big-bodied 'X' receiver archetype in this class, drawing a strong comparison to Nico Collins. His elite size (6'4", 219 lbs) and exceptional ability in contested catch situations ("excels at the jump up and through") provide a significant ceiling. However, the profile indicates he requires substantial technical refinement in several key areas – particularly his releases against press coverage, route running precision, and catching technique consistency – which might limit his immediate rookie production. While possessing the tools for future dominance, he's viewed as needing more development than the receivers ranked ahead of him.
-Fantasy Strengths:
-Elite Size &amp; Frame: Prototypical dimensions for an outside 'X' receiver, creating a large catch radius.
-Excellent Contested Catch Ability: Dominant in jump ball situations, using his size, body control, and positioning to win at the catch point, especially near boundaries and in the red zone.
-Good YAC Vision &amp; Creativity: Sees the field well after the catch, shows patience, creativity (including reversing field), and finds ways to work downhill.
-Physicality: Willing to use his size and strength after the catch and shows good contact balance to work through initial hits. Possesses a violent stiff arm.
-Durability: No significant reported injuries.
-Fantasy Weaknesses:
-Release vs. Press (Major Refinement Needed): Lacks craft, nuance, and consistent patience/suddenness in his releases. Struggles to beat press consistently and can get pinned to the boundary easily. Needs significant development here to thrive outside in the NFL.
-Route Running Polish: Doesn't always attack leverage optimally, lacks consistent explosion/snap out of breaks, and needs to be savvier navigating underneath zone coverage. Not maximizing separation potential currently.
-Catching Technique Lapses: Prone to "clap-catches" on various targets (hitches, wide extensions, sometimes high points), occasionally fails to look the ball in fully, and technique suffers when pinned to the boundary on contested catches. This inconsistency could lead to drops at the NFL level.
-Lacks Elite Suddenness (YAC): While creative, doesn't possess the high-end quickness to consistently exploit cutback lanes he sees, limiting massive YAC gains compared to more agile receivers. Can try to get "cute" instead of using his size.
-Blocking Technique: Needs refinement; prone to overextending and relies more on shielding/latching than effective strikes.
-Player Comparisons:
-Nico Collins: This comparison highlights his potential ceiling as a big-bodied 'X' receiver who can develop into a dominant player after refining his technique, similar to Collins' trajectory.
-Bottom Line for Rookie Drafts: McMillan offers the tantalizing upside associated with dominant big receivers, making him appealing for fantasy managers prioritizing that archetype. His size and contested-catch skills provide a path to red-zone relevance and big plays. However, the significant technical refinement needed, especially in releases and route running, suggests he may require patience and might not be an immediate high-volume target earner. He carries more developmental risk than the higher-ranked, more polished receivers in this RSP evaluation. The evaluator ranks him WR5 with a notable gap below the top tier, likely placing his pre-NFL Draft rookie value in the mid-to-late first round, acknowledging both the high ceiling and the required development curve.</t>
-  </si>
-  <si>
-    <t>Iowa State</t>
-  </si>
-  <si>
-    <t>X - Tee Higgins / Mike Williams</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Jayden Higgins (RSP WR6) profiles as a high-floor "Starter" tier prospect, fitting the mold of big-bodied perimeter receivers like his pro comparisons, Tee Higgins and Mike Williams. He excels at using his size (6'4", 214 lbs) to win contested catches and erase inaccuracies, making him a valuable asset near the boundaries and in the red zone. Combined with good route running and reliable hands overall, he projects as an immediate contributor with the potential to become a high-volume "possession-plus" target. His main limitations are below-average hand strength (making him vulnerable to drops when defenders contest at the catch point) and occasional lapses in zone coverage recognition.
+    <t>Overall Fantasy Outlook: Jayden Higgins (RSP WR6) profiles as a high-floor Starter tier prospect, fitting the mold of big-bodied perimeter receivers like his pro comparisons, Tee Higgins and Mike Williams. He excels at using his size (64, 214 lbs) to win contested catches and erase inaccuracies, making him a valuable asset near the boundaries and in the red zone. Combined with good route running and reliable hands overall, he projects as an immediate contributor with the potential to become a high-volume possession-plus target. His main limitations are below-average hand strength (making him vulnerable to drops when defenders contest at the catch point) and occasional lapses in zone coverage recognition.
 Fantasy Strengths:
 Excellent Size &amp; Contested Catch Ability: Uses his large frame effectively to box out defenders, high-point the football, and win in contested situations. Great body control near the boundary. Significant red zone potential.
 Good Route Running &amp; Releases: Possesses a solid release package, understands how to set up defenders, runs routes effectively, and creates separation through technique and size. Stacks defenders on vertical routes.
@@ -924,14 +958,120 @@
 Bottom Line for Rookie Drafts: Higgins profiles as a relatively safe prospect with a clear path to an NFL role as a starting perimeter receiver. His size and contested-catch ability provide a valuable skillset for fantasy, especially in the red zone. While the hand strength issue caps his absolute ceiling slightly, he projects as a reliable target who should command volume. The RSP evaluator considers him a likely bet for early production and values him as a second-round rookie pick (potentially sliding to the early third) before the NFL Draft, making him a solid target for teams needing a dependable outside receiver.</t>
   </si>
   <si>
-    <t>TCU / LSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Wilson/X – Josh Palmer </t>
+    <t>Bhayshul Tuten - Fantasy Football Summary
+Overall Fantasy Outlook: Tuten is a classic high-risk, high-reward fantasy prospect. His profile highlights explosive athleticism, receiving prowess, and surprising power, drawing lofty comparisons to dual-threat backs like Charlie Garner and Jahmyr Gibbs. However, a critical flaw – significant ball security issues – casts a major shadow over his potential. His success may also be scheme-dependent. The RSP evaluator views him as having early-round talent but advises caution, suggesting hes a risky pick before the 4th round due to the fumble concerns potentially derailing his career.
+Fantasy Strengths:
+Explosiveness &amp; Speed: Tuten possesses game-breaking speed (can pull away from safeties) and good acceleration, giving him big-play potential on any touch.
+Receiving Upside: Profiles as a capable receiver with reliable hands, good tracking ability, and effectiveness after the catch (catch-and-pierce). Shows potential in route running and is used in various passing situations, suggesting PPR value.
+Power &amp; Contact Balance: Despite his size (59, 200 lbs), he plays physically, runs with good pad level, breaks tackles, pushes piles, and shows good balance through contact.
+Pass Protection Technique: When he identifies his assignment, Tuten displays good technique, using his hands well, shuffling effectively, and anchoring against blitzers. This is a plus for staying on the field on passing downs if recognition improves.
+Gap Scheme Fit: Noted as being a confident, decisive runner on Duo plays and potentially capable of starter production in a gap-heavy scheme where reads are clearer.
+Fantasy Weaknesses:
+Critical Ball Security Issues: This is the biggest red flag. His fumble rate (1 per 67 touches, with 9 in the last two years) is flagged as historically problematic for NFL success. He has a tendency for the ball to swing loose. This single issue could severely limit his playing time or even end his career prospects, torpedoing fantasy value.
+Zone Scheme Vision/Decision-Making: Struggles significantly with inside zone reads, often ignoring blocking leverage, running to space instead of following design, or making risky cutbacks. Prone to bouncing outside too early on outside zone. This limits his scheme versatility and makes him potentially boom/bust as a runner depending on the offensive system.
+Pass Protection Recognition: While his technique is good, he can be late identifying blitzers (especially B/C gap), leading to missed assignments.
+Durability Note: Observed wearing a knee brace in 2024 (context suggests this was during the 2023 college season tracked in early 24), which warrants monitoring.
+Player Comparisons:
+High-end comparisons include Marshall Faulk, Charlie Garner, and Jahmyr Gibbs. These comps highlight his potential ceiling as an explosive, versatile weapon capable of contributing significantly in both the running and passing games – a highly valuable fantasy archetype if he overcomes his flaws.
+Bottom Line for Rookie Drafts: Tuten is an enticing athlete whose speed and receiving ability fit the modern NFL, offering significant fantasy upside (especially PPR). However, the severe fumbling issue makes him incredibly risky. Hes best suited for a gap/power running scheme. Fantasy managers should treat him as a volatile asset. Drafting him requires tolerance for risk, ideally at a discount to his perceived talent level due to the fumble concerns. His landing spot and ability to protect the football in the NFL will determine if he booms or busts.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Jaylin Noel (RSP WR12) is presented as an athletic receiver prospect with excellent quickness and acceleration, drawing comparisons to a discount version of Matthew Golden, as well as John Metchie and Devin Duvernay. Graded as a Rotational Starter on the cusp of the Starter tier, Noel excels with the ball in his hands and shows promise as a route runner, leveraging his stop-start ability effectively. While his game needs refinement—particularly in adding nuance to his releases and improving consistency in his route breaks and catching—he possesses the tools to develop into an every-down player capable of working inside and outside. He projects as an immediate contributor, likely in a rotational role initially, with upside for more.
+Fantasy Strengths:
+Excellent Quickness &amp; Acceleration: Possesses dynamic stop-start ability and re-acceleration, which he uses effectively both as a route runner to create separation and as a ball carrier after the catch.
+Good YAC Ability: Manipulates defenders in open space, uses his blocks well, shows decisiveness, and has an effective stiff arm. Runs with adequate power through contact for his size (510, 194).
+Speed Potential: Evaluator notes potential for elite speed, suggesting college QB limitations may have masked his true deep threat ability. Can blow by defenders when given space.
+Route Running Potential: Shows a variety of setups, understands how to attack leverage, uses his quickness well in routes, and displays good zone awareness. Breaks are generally clean, though sometimes lack optimal snap/flatness.
+Versatility Potential: Has the tools to eventually play both inside (slot) and outside, offering scheme flexibility. Also has gadget potential (option pass noted).
+Durability: No significant reported injuries.
+Fantasy Weaknesses:
+Release Refinement Needed: While possessing various moves, lacks the consistent contrast of patience and suddenness needed to reliably beat NFL press coverage without further development.
+Inconsistent Route Breaks: Execution can be sloppy at times; breaks arent always sharp/flat, potentially limiting separation against tight coverage.
+Catching Consistency: While generally reliable and capable of making tough catches, tracked data shows several pinpoint drops (3/21) and juggles, indicating concentration can lapse.
+Stacking Ability Unproven: Potential deep speed exists, but limited evidence on tape of consistently stacking defenders vertically.
+Player Comparisons:
+Primary Comp: Discount Matthew Golden (similar athletic profile, slightly less refined).
+Spectrum Comps: John Metchie (quick slot type with route savvy), Devin Duvernay (speed/quickness, gadget/returner ability).
+Bottom Line for Rookie Drafts: Noel is an athletic prospect with appealing quickness, speed potential, and YAC skills, fitting the profile of a versatile playmaker. He likely needs some development, particularly refining his releases and route consistency, before commanding a full-time starting role. However, his athletic traits give him immediate contributor potential in a rotational/slot role. The RSP evaluator suggests hes a viable second-round rookie pick, potentially falling to the third, representing solid value for a player with his athletic upside and potential to grow into a significant role.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Giddens presents a frustrating profile for fantasy evaluation. He possesses intriguing physical tools, good receiving skills, excellent ball security, and flashes moments (when the light switch is on) reminiscent of a more explosive Melvin Gordon. However, his fantasy potential is significantly capped by pervasive inconsistency in effort and intensity (light switch player). This inconsistency negatively impacts his vision, decision-making, acceleration, and pass blocking, making him unreliable. The RSP evaluator ranks him low (RB30, Contributor role) and expresses skepticism about his ability to maintain NFL-level intensity, advising drafting him only at a significant value.
+Fantasy Strengths:
+Flashes of High-Level Play: When motivated/engaged, Giddens shows good vision to press creases, decisive cuts, starter-caliber burst, and a diverse set of elusive moves (sticks, jump cuts, sharp pressure cuts).
+Receiving Potential: Generally a reliable pass-catcher with good technique (tracking, high-pointing, catch-and-pierce), suggesting potential PPR value if effort and blocking allow him onto the field.
+Excellent Ball Security: His fumble rate (1 per 191.67 touches) is very good and a significant positive, meaning hes unlikely to be benched for fumbles.
+Pass Protection Recognition: Shows good mental processing in recognizing blitzes (interior, safety, linebacker) and setting up correctly in pass protection initially.
+Good Athletic Tools: Possesses the size (60, 212 lbs) and athletic traits (burst, agility) to potentially succeed.
+Fantasy Weaknesses:
+Inconsistent Effort/Intensity (MAJOR RED FLAG): This is the core issue. Described as a light switch player who lacks consistent intensity in his attack, pacing, and finish. This leads to tentative running, poor decision-making, and failure to maximize his physical gifts. Coaches often have little patience for inconsistent effort.
+Inconsistent Vision/Decision-Making: Due to lack of intensity, often fails to press creases properly, cuts back or bounces too early, and looks hesitant instead of attacking downhill.
+Unreliable Pass Protection: Despite good recognition, his execution is poor (speedbump). He overextends, fails to deliver effective strikes, loses leverage, and shows effort lapses, making him a liability. This will limit passing down snaps.
+Doesnt Play to Timed Speed: While possessing good burst, his top-end speed appears functional but not elite; acceleration doesnt always translate to maximizing his speed on the field.
+Minor Receiving Technique Lapses: Occasional clap-catching on underhand targets or letting the ball into his frame.
+Player Comparisons:
+The primary comparison is Melvin Gordon, but heavily qualified. Giddens can look like a more explosive version when playing with intensity, but often appears disengaged (daydreaming). This highlights potential skillset (burst, receiving ability) but emphasizes the massive consistency issue.
+Bottom Line for Rookie Drafts: Giddens is a talented but deeply flawed prospect from a fantasy perspective due to the questions surrounding his effort and consistency. While the Melvin Gordon flashes and strong ball security are appealing, the risk that he doesnt develop the necessary NFL mindset is significant. His unreliable pass protection further limits his upside. Hes likely a late-round rookie pick who needs to land in a situation where coaches can motivate him or find a niche role. Hes a player to monitor, but drafting him early requires a leap of faith that he can flip the switch permanently to on.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Jalen Royals (RSP WR10) is presented as a high-risk, high-reward prospect whose evaluation is based heavily on projected development rather than current polish. The evaluator explicitly expresses concern about scoring him this high and warns against drafting him commensurate with this rank. Royals is an explosive athlete with excellent YAC ability (Mecole Hardman with Hands) and big-play speed. However, he is currently underdeveloped as a route runner, possesses poor release technique against press coverage, shows inconsistent zone awareness, and has lapses in catching technique. A recent foot injury adds another layer of risk. His comparisons range from productive playmaker Chris Chambers to notable busts John Ross/Corey Coleman, highlighting the significant variance in his potential outcomes.
+Fantasy Strengths:
+Excellent YAC Ability: Dynamic after the catch with elite stop-start skills, efficient cuts, good vision in traffic, and creativity to make multiple defenders miss.
+Good Speed &amp; Athleticism: Possesses game-breaking speed (ran 4.42 40 post-injury, potentially faster) and quickness. Shows good acceleration and agility.
+Good Hands (Overall): Generally reliable hands capable of making plays away from his frame, high-pointing, and digging out low throws despite technical lapses.
+Potential for Development: Evaluator notes the components for route running/releases are there, just need stitching together, suggesting improvement is projectable (though not guaranteed). Shows flashes of good setups using pace changes during stems.
+Functional Power: Runs hard, uses stiff arm, and shows ability to run through wraps and finish plays.
+Fantasy Weaknesses:
+Raw Route Running &amp; Releases: Considered not strong by conventional standards. Release technique lacks pacing, craft, and violence, making him vulnerable to press coverage. Route breaks often lack snap and acceleration. Significant development required.
+Inconsistent Zone Awareness: Shows eyes too early, misreads zone triangles, and doesnt always know when to settle vs. keep running, leading to potential miscommunications.
+Catching Technique Lapses: Prone to clap-attacks on various targets (overhand, underhand, away from frame), inconsistent positioning on contested/high-point plays. Leads to drops (PP drop vs contact noted).
+Durability/Injury: Suffered a season-ending foot injury in 2024. Recovery timeline and long-term impact are concerns, despite running at the Combine.
+Ball Security Technique: While the rate isnt terrible (1 per ~106 touches), his carrying technique (loose elbow, defaults to one side) needs improvement.
+Limited College Scheme: Heavily featured on manufactured touches (screens, RPOs, crossers); needs to prove effectiveness on a full route tree.
+Player Comparisons:
+Ceiling: Chris Chambers (big-play threat).
+Floor/Bust Risk: John Ross / Corey Coleman (athletic disappointments).
+Bottom Line for Rookie Drafts: Royals is a developmental prospect with intriguing athletic upside, particularly after the catch. However, his significant technical deficiencies as a receiver (routes, releases, hands technique, zone awareness) and recent foot injury make him a very risky fantasy investment. He likely needs a specific role featuring manufactured touches early on while he develops. The RSP evaluator explicitly advises against drafting him based on his WR10 ranking/Starter score, suggesting letting him fall 1-2 rounds lower as a speculative, high-risk/high-reward gamble, acknowledging the substantial bust potential if the necessary development doesnt occur. His NFL landing spot and coaching will be crucial.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Harold Fannin Jr. (RSP TE3) presents a compelling profile strongly reminiscent of Sam LaPorta, possessing elite short-area quickness and change-of-direction ability that fuel polished route running and exceptional YAC elusiveness. Graded as a Rotational Starter, his lack of elite long speed (4.71 40-yard dash) is considered less critical given his likely role and demonstrable on-field speed that meets NFL starter standards. While blocking needs development, Fannin excels as a receiver with reliable hands and savvy movement skills. His primary risk lies in landing with a team that doesnt utilize his move TE skillset optimally. If deployed correctly, he has the potential for a LaPorta-like impact as a high-volume target.
+Fantasy Strengths:
+Elite Quickness &amp; Change of Direction: Possesses top-tier agility (Shuttle/3-Cone comparable to LaPorta), enabling sharp route breaks and elite elusiveness after the catch.
+Excellent YAC Ability: Arguably the best YAC TE in the class due to creativity, patience setting up defenders, excellent footwork, and eliminating pursuit angles. Makes defenders miss frequently.
+Polished Route Running: Understands how to manipulate coverage, uses patient/sudden releases, effective setups, precise breaks (when clean), and good zone awareness. Gets open consistently underneath and intermediate.
+Reliable Hands: Generally dependable catcher (100% PP Catch Rate), adjusts well to targets, shows good focus through contact, and attacks the ball effectively.
+Versatility: Former WR/S with experience detached; fits schemes using move TEs, offering mismatch potential.
+Durability: No significant reported injuries.
+Fantasy Weaknesses:
+Lack of Elite Long Speed: 4.71 40-time and ~20 MPH max speed confirm hes not a true field-stretching burner, limiting deep threat ceiling compared to the most explosive TEs.
+Blocking (Needs Development): Not his calling card; needs refinement and likely added strength to be more than a situational/backside blocker. Risk of being misused if coaches prioritize this.
+Scheme Fit Risk: Potential downside if drafted by a team that doesnt utilize a move TE effectively or tries to make him a primary inline blocker.
+Minor Catching Lapses: Occasional clap-attacks away from frame; tracked data shows drops versus contact and tight coverage (0% catch rate in small sample).
+Player Comparisons:
+Strong Comp/Realistic Aspiration: Sam LaPorta (skillset, athletic profile sans 40, potential usage/production).
+Spectrum Comps: Brock Bowers (aspirational top end, Fannin less explosive), Delanie Walker (productive move TE), Garrett Graham (lower-end floor).
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Fannin possesses the athletic traits (quickness/agility &gt; speed) and receiving skills to potentially replicate Sam LaPortas rookie success if—and its a significant if—he lands in the right offensive scheme that plays to his strengths. His YAC ability and route running give him significant fantasy upside, particularly in PPR formats. While the evaluator ranks him TE3, the advice is to wait until after the NFL Draft to target him, ensuring the landing spot is conducive to his success. If the fit looks good, he could be a high-value pick likely available later than Loveland/Taylor, offering similar or potentially greater fantasy production potential. Hes a prime post-draft target depending on situation.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Sampson profiles as a dynamic and versatile running back with significant fantasy upside, ranked RB7 by RSP and on the cusp of an immediate starting role. Despite a smaller build (58, 200 lbs), he displays surprising ruggedness, good vision (especially in gap schemes), receiving ability, and promising, improving pass protection. The evaluator sees potential for him to be an every-down back with Top 12 fantasy upside if he refines his game and fixes a key flaw: ball security. His floor looks like a valuable committee/receiving back similar to James Cook.
+Fantasy Strengths:
+Dynamic Skillset: Blends speed, acceleration, and agility (slippery) with surprising power and determination (rugged). He can create yards at all three levels of the defense.
+Vision &amp; Intelligence: Shows good patience, decisiveness, and creativity as a runner, particularly excelling in gap schemes. Reads leverage well and manages game situations wisely.
+Three-Down Potential: Possesses receiving skills and, crucially, shows significant improvement and promise in pass protection (better technique, recognition), which boosts his chances of earning snaps on all downs.
+Plays Bigger Than Size: Runs with low pad level, breaks tackles, runs through contact, and shows good balance, mitigating some concerns about his smaller frame.
+Big Play Ability: Has the acceleration and speed to break long runs and pull away from defenders (can split safeties and corners).
+Fantasy Weaknesses:
+Ball Security Concerns: This is the most significant red flag. While his overall career rate is passable, his fumble rate increased significantly in 2024 (1 per ~70 touches) with his largest workload, putting him near a historically problematic threshold for NFL success. This needs immediate improvement.
+Zone Scheme Development: Needs to learn to press blocks deeper and be more consistent in zone schemes compared to his effectiveness in gap runs.
+Receiving Technique: While effective as a receiver, his catching technique (prone to clap-catching) is noted as flawed and needs tightening to prevent drops against NFL defenders.
+Durability Note: Suffered/aggravated a hamstring injury late in the 2024 season, which warrants monitoring.
+Player Comparisons:
+The primary comparison listed is James Cook, highlighting his potential role as an efficient space player with receiving value.
+The profile suggests Sampson has the potential to be more of an every-down option than Cook if he develops fully, particularly if he improves ball security. Justin Jackson is listed as a lower-end comparison.
+Bottom Line for Rookie Drafts: Sampson is an exciting prospect with a well-rounded game and significant upside, especially in PPR leagues. His improving pass protection is a major plus. However, the concerning 2024 fumble rate makes him a riskier investment than his talent might suggest. If he can secure the football, he has the potential to outperform his draft slot significantly and grow into a fantasy RB1/RB2. The evaluator considers him a potential bargain after the mid-second round of rookie drafts, assuming the fumble issues dont tank his NFL draft capital.</t>
   </si>
   <si>
     <t>Jack Bech - Fantasy Football Summary
-Overall Fantasy Outlook: Jack Bech (RSP WR7) profiles as a reliable, well-built possession receiver with a "Starter" grade, drawing comparisons to solid NFL contributors like Michael Wilson and Josh Palmer. His strengths lie in his reliable hands, ability to win through contact and in contested situations, good short-area quickness, and effective YAC ability driven by vision and power. While lacking elite long speed, his dependable nature and route-running prowess make him a high-floor prospect likely suited for a slot/flanker role. Refinement is needed in release pacing and positioning on certain types of throws, but he projects as a potential immediate contributor.
+Overall Fantasy Outlook: Jack Bech (RSP WR7) profiles as a reliable, well-built possession receiver with a Starter grade, drawing comparisons to solid NFL contributors like Michael Wilson and Josh Palmer. His strengths lie in his reliable hands, ability to win through contact and in contested situations, good short-area quickness, and effective YAC ability driven by vision and power. While lacking elite long speed, his dependable nature and route-running prowess make him a high-floor prospect likely suited for a slot/flanker role. Refinement is needed in release pacing and positioning on certain types of throws, but he projects as a potential immediate contributor.
 Fantasy Strengths:
 Reliable Hands &amp; Contested Catching: Very dependable hands (100% pinpoint catch rate in tracked games), uses his body well, wins through contact, and makes catches in tight coverage. Secure target for quarterbacks.
 Good Short-Area Quickness &amp; Releases: Possesses good quickness and acceleration off the line, utilizing a variety of releases (feet-switch, stick, hesitations) to defeat press coverage potential.
@@ -943,177 +1083,190 @@
 Lacks Elite Long Speed: More quick than fast; unlikely to consistently win as a vertical deep threat based purely on speed.
 Release Pacing/Refinement: While possessing various moves, needs to better incorporate pacing variations (patience/suddenness) into his releases to consistently beat NFL corners.
 Positioning on Specific Throws: Needs work adjusting and positioning his body effectively on back-shoulder throws and underthrown passes, sometimes tipping off his intention.
-Minor Catching Technique Lapses: Occasional "clap-attacks" due to wide hands, particularly on overhand catches away from his frame.
+Minor Catching Technique Lapses: Occasional clap-attacks due to wide hands, particularly on overhand catches away from his frame.
 Blocking Sustain: Needs to sustain blocks longer, especially away from the line of scrimmage.
 Durability History: Has missed time due to knee and shin injuries in the past couple of seasons, raising minor flags.
 Player Comparisons:
 Michael Wilson / Josh Palmer: These comparisons suggest a reliable WR2/WR3 type known for dependability, good hands, and effectiveness in the intermediate areas of the field.
-Bottom Line for Rookie Drafts: Bech offers a high floor as a dependable possession receiver likely to contribute early in a slot or flanker role. His strong hands, contested-catch ability, and functional YAC skills make him a safe prospect. While he lacks elite deep speed or dynamic YAC elusiveness, he profiles as a solid chain-mover and reliable target. The RSP evaluator suggests he's a good value as a third-round rookie pick before the NFL Draft, with potential to rise into the second round if he lands in a favorable situation with immediate starting potential.</t>
-  </si>
-  <si>
-    <t>Puka Nacua - X - Jermaine Kearse – Quincy Morgan</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Emeka Egbuka (RSP WR9) is evaluated as a "Starter" tier prospect with skills suited for a specific role, likely as a flanker or slot receiver operating primarily in space. His strengths lie in his ability after the catch, good deep speed, and effectiveness on linear routes across the field. However, significant concerns about inconsistent catching technique (using the wrong attack, letting the ball into his frame, drops vs. contact) and a lack of consistent sharpness in his route breaks limit his projected effectiveness against tight man coverage, on timing routes, and in contested situations. While compared situationally to Puka Nacua's role, he's explicitly noted as less skilled currently. He projects as an immediate contributor in a defined role, but may require refinement and an ideal scheme fit to reach consistent fantasy starter production.
-Fantasy Strengths:
-Strong YAC Ability: Dangerous runner after the catch, utilizing acceleration, vision, functional power (stiff arm, finishes plays), and good balance to create extra yards. Excels when catching the ball with space to operate.
-Good Speed &amp; Acceleration: Possesses the speed to win vertically, stack defenders, and pull away after the catch.
-Effective on Linear Routes/Zone: Runs routes across the field well, understands zone concepts, and has good release moves to get into his stem.
-Good Ball Security: Generally takes care of the football with sound technique.
-Willing Blocker: Shows good effort and intensity as a blocker, even if technique is inconsistent.
-Fantasy Weaknesses:
-Inconsistent Catching Technique: Significant issue. Frequently opts for the wrong hand position (e.g., underhand on chest-high targets), lets the ball into his frame unnecessarily, and seems unprepared for non-pinpoint throws, leading to drops and struggles in contested situations (low G vs. Contact % in tracked data).
-Route Break Sharpness: Often drifts or rounds off breaks, particularly on intermediate speed cuts, limiting separation against tight coverage. Needs more consistent precision and snap.
-Limited Role Projection: Seen primarily as a flanker/slot type best utilized on crossing routes or manufactured touches rather than a boundary 'X' consistently winning against press or on contested timing routes.
-Inconsistent Blocking Technique: While effortful, technique is flawed (locks arms, drops head), making him unreliable.
-Player Comparisons:
-Role/Usage Comp: Puka Nacua (but Egbuka lacks Nacua's current skill level).
-Spectrum Comps: Jermaine Kearse / Quincy Morgan (suggesting potential for productive seasons, often excelling vertically or after the catch, but perhaps lacking elite overall consistency or refinement).
-Bottom Line for Rookie Drafts: Egbuka offers appealing speed and YAC ability that could translate to fantasy points in the right system, particularly in PPR formats where volume on shorter routes can accrue value. However, the significant concerns about his catching technique and route break precision create substantial risk and may limit his ceiling, especially against better NFL defenders. He likely needs a specific scheme (like the Rams using Nacua) that maximizes his strengths in space and minimizes his weaknesses against tight coverage. The RSP evaluator suggests he's worth an early third-round rookie pick before the NFL Draft, with potential to rise slightly if he lands in an ideal offensive fit, but views him as less versatile and refined than other top WRs in the class.</t>
-  </si>
-  <si>
-    <t>Utah State</t>
-  </si>
-  <si>
-    <t>Chris Chambers - x – John Ross/Corey Coleman</t>
-  </si>
-  <si>
-    <t>Starter: Starting immediately with a large role and learning on the go. Royals is on the cusp 
-of the Rotational Starter tier: Executes at a starter level in a role playing to their strengths.</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Jalen Royals (RSP WR10) is presented as a high-risk, high-reward prospect whose evaluation is based heavily on projected development rather than current polish. The evaluator explicitly expresses concern about scoring him this high and warns against drafting him commensurate with this rank. Royals is an explosive athlete with excellent YAC ability ("Mecole Hardman with Hands") and big-play speed. However, he is currently underdeveloped as a route runner, possesses poor release technique against press coverage, shows inconsistent zone awareness, and has lapses in catching technique. A recent foot injury adds another layer of risk. His comparisons range from productive playmaker Chris Chambers to notable busts John Ross/Corey Coleman, highlighting the significant variance in his potential outcomes.
-Fantasy Strengths:
-Excellent YAC Ability: Dynamic after the catch with elite stop-start skills, efficient cuts, good vision in traffic, and creativity to make multiple defenders miss.
-Good Speed &amp; Athleticism: Possesses game-breaking speed (ran 4.42 40 post-injury, potentially faster) and quickness. Shows good acceleration and agility.
-Good Hands (Overall): Generally reliable hands capable of making plays away from his frame, high-pointing, and digging out low throws despite technical lapses.
-Potential for Development: Evaluator notes the components for route running/releases are there, just need "stitching together," suggesting improvement is projectable (though not guaranteed). Shows flashes of good setups using pace changes during stems.
-Functional Power: Runs hard, uses stiff arm, and shows ability to run through wraps and finish plays.
-Fantasy Weaknesses:
-Raw Route Running &amp; Releases: Considered "not strong by conventional standards." Release technique lacks pacing, craft, and violence, making him vulnerable to press coverage. Route breaks often lack snap and acceleration. Significant development required.
-Inconsistent Zone Awareness: Shows eyes too early, misreads zone triangles, and doesn't always know when to settle vs. keep running, leading to potential miscommunications.
-Catching Technique Lapses: Prone to "clap-attacks" on various targets (overhand, underhand, away from frame), inconsistent positioning on contested/high-point plays. Leads to drops (PP drop vs contact noted).
-Durability/Injury: Suffered a season-ending foot injury in 2024. Recovery timeline and long-term impact are concerns, despite running at the Combine.
-Ball Security Technique: While the rate isn't terrible (1 per ~106 touches), his carrying technique (loose elbow, defaults to one side) needs improvement.
-Limited College Scheme: Heavily featured on manufactured touches (screens, RPOs, crossers); needs to prove effectiveness on a full route tree.
-Player Comparisons:
-Ceiling: Chris Chambers (big-play threat).
-Floor/Bust Risk: John Ross / Corey Coleman (athletic disappointments).
-Bottom Line for Rookie Drafts: Royals is a developmental prospect with intriguing athletic upside, particularly after the catch. However, his significant technical deficiencies as a receiver (routes, releases, hands technique, zone awareness) and recent foot injury make him a very risky fantasy investment. He likely needs a specific role featuring manufactured touches early on while he develops. The RSP evaluator explicitly advises against drafting him based on his WR10 ranking/Starter score, suggesting letting him fall 1-2 rounds lower as a speculative, high-risk/high-reward gamble, acknowledging the substantial bust potential if the necessary development doesn't occur. His NFL landing spot and coaching will be crucial.</t>
-  </si>
-  <si>
-    <t>Matthew Golden – X – John Metchie – Devin Duvernay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotational Starter: Executes at a starter level in a role playing to their strengths. Noel is 
-on the cusp of the Starter tier: Starting immediately with a large role and learning on the go. </t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Jaylin Noel (RSP WR12) is presented as an athletic receiver prospect with excellent quickness and acceleration, drawing comparisons to a "discount version of Matthew Golden," as well as John Metchie and Devin Duvernay. Graded as a Rotational Starter on the cusp of the Starter tier, Noel excels with the ball in his hands and shows promise as a route runner, leveraging his stop-start ability effectively. While his game needs refinement—particularly in adding nuance to his releases and improving consistency in his route breaks and catching—he possesses the tools to develop into an every-down player capable of working inside and outside. He projects as an immediate contributor, likely in a rotational role initially, with upside for more.
-Fantasy Strengths:
-Excellent Quickness &amp; Acceleration: Possesses dynamic stop-start ability and re-acceleration, which he uses effectively both as a route runner to create separation and as a ball carrier after the catch.
-Good YAC Ability: Manipulates defenders in open space, uses his blocks well, shows decisiveness, and has an effective stiff arm. Runs with adequate power through contact for his size (5'10", 194).
-Speed Potential: Evaluator notes potential for elite speed, suggesting college QB limitations may have masked his true deep threat ability. Can blow by defenders when given space.
-Route Running Potential: Shows a variety of setups, understands how to attack leverage, uses his quickness well in routes, and displays good zone awareness. Breaks are generally clean, though sometimes lack optimal snap/flatness.
-Versatility Potential: Has the tools to eventually play both inside (slot) and outside, offering scheme flexibility. Also has gadget potential (option pass noted).
-Durability: No significant reported injuries.
-Fantasy Weaknesses:
-Release Refinement Needed: While possessing various moves, lacks the consistent contrast of patience and suddenness needed to reliably beat NFL press coverage without further development.
-Inconsistent Route Breaks: Execution can be sloppy at times; breaks aren't always sharp/flat, potentially limiting separation against tight coverage.
-Catching Consistency: While generally reliable and capable of making tough catches, tracked data shows several pinpoint drops (3/21) and juggles, indicating concentration can lapse.
-Stacking Ability Unproven: Potential deep speed exists, but limited evidence on tape of consistently stacking defenders vertically.
-Player Comparisons:
-Primary Comp: "Discount Matthew Golden" (similar athletic profile, slightly less refined).
-Spectrum Comps: John Metchie (quick slot type with route savvy), Devin Duvernay (speed/quickness, gadget/returner ability).
-Bottom Line for Rookie Drafts: Noel is an athletic prospect with appealing quickness, speed potential, and YAC skills, fitting the profile of a versatile playmaker. He likely needs some development, particularly refining his releases and route consistency, before commanding a full-time starting role. However, his athletic traits give him immediate contributor potential in a rotational/slot role. The RSP evaluator suggests he's a viable second-round rookie pick, potentially falling to the third, representing solid value for a player with his athletic upside and potential to grow into a significant role.</t>
-  </si>
-  <si>
-    <t>Ole Miss</t>
-  </si>
-  <si>
-    <t>Alshon Jeffery - X/Quentin Johnston – Byan Edwards</t>
-  </si>
-  <si>
-    <t>Rotational Starter: Executes at a starter level in a role playing to their strengths.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall Fantasy Outlook: Tre Harris (RSP WR14) is described as a physically gifted "draftnik favorite" known for exciting contested catches and good YAC ability, drawing a ceiling comparison to Alshon Jeffery. However, this profile expresses significant caution, highlighting that Harris is currently technically raw in crucial areas and needs substantial development, similar to Terrell Owens before he became a star. His releases, route running precision, catching technique (prone to clap-attacks/wrong hand usage), and zone awareness are all inconsistent works in progress. This lack of refinement leads to bust comparisons like Quentin Johnston and Bryan Edwards. While athletic and capable of highlight plays, Harris likely begins with situational usage and needs significant coaching to potentially reach his high ceiling.
-Fantasy Strengths:
-Contested Catch Potential: Makes exciting plays on the ball in the air, adjusts reasonably well, and shows ability to win through contact when his technique holds up. Possesses good size (6'2", 205) for this role.
-Good YAC Ability: Shines after the catch with good vision to find secondary lanes, patience, and the strength/power to run through wraps and work past multiple points of contact. Uses an effective stiff arm.
-Good Athleticism: Possesses adequate speed and acceleration to create separation on vertical routes occasionally and contribute after the catch. Agile enough to make defenders miss.
-Release Variety (Raw): Has a wide range of release moves in his arsenal, indicating potential if he can add craft and pacing. Shows ability to stack defenders when he gets separation.
-Durability: No significant reported injuries.
-Fantasy Weaknesses:
-Raw Route Running Technique: Lacks consistent precision, snap, and acceleration into/out of breaks. Setups aren't always convincing. Struggles to consistently separate against man coverage with pure technique.
-Inconsistent Release Technique: Releases often lack craft, pacing (patience/suddenness contrast), and consistent violence/effectiveness against press coverage. Can get pinned or jammed.
-Catching Technique Lapses: Prone to "clap-attacks" (especially on high points), uses suboptimal hand positions (e.g., underhand too often), and tries to transition before securing the ball, leading to drops (multiple drops vs contact/tight coverage noted in data).
-Inconsistent Zone Awareness: Doesn't always read zone triangles correctly or know when to settle vs. continue running, leading to potential miscommunications.
-Lacks Elite Speed: Not a true burner; speed is functional but unlikely to consistently erase angles against faster NFL DBs over long distances.
-Player Comparisons:
-Ceiling: Alshon Jeffery (big-bodied, contested-catch winner).
-Floor/Bust Risk: Quentin Johnston / Bryan Edwards (physically gifted but technically unrefined disappointments).
-Bottom Line for Rookie Drafts: Harris is a high-variance prospect with undeniable physical tools and highlight-reel potential, but significant technical flaws across his game make him a risky investment requiring considerable development. He fits the profile of a player who could boom if the technique clicks, but carries substantial bust potential if it doesn't. He likely needs manufactured touches or specific vertical opportunities early on. The RSP evaluator suggests that drafting him in the early third round of rookie drafts (pre-NFL Draft) might even be reaching, indicating significant concern about his immediate readiness and overall refinement compared to his perceived hype. His value is highly dependent on coaching and development at the next level.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Parker Washington/X - James Proche – Amari Rodgers – Byron Marshall</t>
-  </si>
-  <si>
-    <t>Rotational Starter</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Xavier Restrepo (RSP WR19) fits the archetype of a "classic slot receiver" whose fantasy upside appears significantly limited by athletic constraints and technical flaws. While possessing strong hands at the catch point and good YAC ability fueled by shiftiness and surprising power for his size, he lacks the necessary speed, acceleration, and route-running precision to consistently separate against NFL defenders, especially outside the slot. His catching technique also breaks down on non-pinpoint throws. Comparisons to players like Parker Washington, James Proche, and Amari Rodgers suggest a likely career path as a reserve or low-volume contributor rather than a fantasy starter. The evaluator considers him a "low-ceiling, high-floor [reserve]" option and advises against drafting him before the NFL Draft clarifies his role and potential opportunity.
+Bottom Line for Rookie Drafts: Bech offers a high floor as a dependable possession receiver likely to contribute early in a slot or flanker role. His strong hands, contested-catch ability, and functional YAC skills make him a safe prospect. While he lacks elite deep speed or dynamic YAC elusiveness, he profiles as a solid chain-mover and reliable target. The RSP evaluator suggests hes a good value as a third-round rookie pick before the NFL Draft, with potential to rise into the second round if he lands in a favorable situation with immediate starting potential.</t>
+  </si>
+  <si>
+    <t>Okay, heres a fantasy football-focused summary of the Devin Neal RSP profile:
+Devin Neal - Fantasy Football Summary
+Overall Fantasy Outlook: Devin Neal projects as a high-floor, likely lower-ceiling running back prospect best suited for a committee role at the NFL level. His standout trait is elite ball security, which the RSP evaluator notes significantly boosts his ranking and should earn him coaches trust. He complements this with good vision, patience, and receiving ability. However, limitations in power and high-end athletic explosion likely cap his upside, preventing him from being a true lead back or consistent high-volume touchdown scorer. The Bilal Powell comparison seems apt for his potential NFL role and fantasy impact – a reliable contributor rather than a star.
+Fantasy Strengths:
+Elite Ball Security: This is his defining characteristic. His extremely low fumble rate (1 per 168 career, 1 per 237 over the last two seasons) is a massive plus and should ensure he sees the field.
+Vision &amp; Patience: Displays good patience setting up blocks, reads keys effectively pre- and post-snap, and generally makes sound decisions, managing game situations well.
+Receiving Ability: Tracks the ball well, shows toughness making catches through contact, utilizes late hands, and adjusts well to targets. Profiles as a capable contributor in the passing game, boosting PPR value.
+Elusiveness (Micro-Movements): Excels at subtle adjustments (micro-mover) to avoid contact in tight spaces. Possesses efficient footwork, good stop-start ability, and various jukes.
+Pass Protection Recognition: Diagnoses blitzes well (crosses, corners) and generally understands assignments.
+Durability: No significant injury history reported.
+Fantasy Weaknesses:
+Limited Power &amp; Explosion: Described as having functional power but not being a strong tackle-breaker or pile-pusher. Unlikely to improve significantly in this area, limiting yards-after-contact and goal-line potential.
+Capped Athletic Upside: Long speed is considered good, not great, and acceleration requires build-up time. Doesnt possess elite dynamic traits.
+Pass Protection Execution: While recognition is good, he can struggle when isolated, overextends at times, and lacks violence in his punch. Needs refinement to be consistently reliable against NFL defenders.
+Scheme Fit Questions: Primarily operated in a perimeter-heavy scheme at Kansas; how well he adapts to potentially more inside-focused NFL systems remains somewhat uncertain despite showing competence on Duo plays.
+Inconsistent Elusive Moves: Sometimes relies too heavily on less efficient long-step pressure cuts, though improvement was noted in 2024.
+Player Comparisons:
+The primary comparison is Bilal Powell, fitting the profile of a reliable, smart, pass-catching committee back with excellent ball security but limited dynamism.
+KeShawn Vaughn is listed as a potential bust comparison if Neal fails to secure a consistent role.
+Bottom Line for Rookie Drafts: Neal shapes up as a safe, dependable fantasy asset likely destined for committee work. His elite ball security gives him a high floor for earning touches. Hes a solid prospect for PPR leagues due to his receiving skills. Dont expect league-winning upside, but he could provide steady, reliable RB3/Flex production for fantasy teams. The RSP evaluator views him as a decent value in the third round of rookie drafts, reflecting his likely role as a solid contributor.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Xavier Restrepo (RSP WR19) fits the archetype of a classic slot receiver whose fantasy upside appears significantly limited by athletic constraints and technical flaws. While possessing strong hands at the catch point and good YAC ability fueled by shiftiness and surprising power for his size, he lacks the necessary speed, acceleration, and route-running precision to consistently separate against NFL defenders, especially outside the slot. His catching technique also breaks down on non-pinpoint throws. Comparisons to players like Parker Washington, James Proche, and Amari Rodgers suggest a likely career path as a reserve or low-volume contributor rather than a fantasy starter. The evaluator considers him a low-ceiling, high-floor [reserve] option and advises against drafting him before the NFL Draft clarifies his role and potential opportunity.
 Fantasy Strengths:
 Strong Hands (at Catch Point): Reliable hands when the ball is thrown accurately, shows toughness through contact, and positions himself well. Good contested catch results when positioned properly.
-Good YAC Ability: Shifty and patient runner after the catch with good vision. Uses his stocky build (5'9", 209 lbs) effectively to break tackles and gain extra yards. More powerful than typical small slots.
+Good YAC Ability: Shifty and patient runner after the catch with good vision. Uses his stocky build (59, 209 lbs) effectively to break tackles and gain extra yards. More powerful than typical small slots.
 Slot Savvy: Understands how to work from the slot, find space against zone coverage, and utilize releases effective in two-way go situations.
 Good Ball Security: Appears to take care of the football; no major concerns highlighted.
 Fantasy Weaknesses:
 Lack of Speed &amp; Acceleration: Does not possess the speed to threaten vertically or consistently separate from defenders based on athleticism alone. Capped athletic ceiling.
 Imprecise Route Running: Breaks lack snap, precision, and sharp deceleration, particularly on timing routes. Drifts out of breaks and struggles to create separation against man coverage.
-Inconsistent Catching Technique (Off-Target Throws): Technique falters on throws that aren't pinpoint (high/away, low/behind), resorting to "clap-attacks" that lead to drops.
-Poor Blocking: Technique is generally poor (doesn't close gap, poor strike method, gets beaten to punch), making him ineffective as a blocker.
+Inconsistent Catching Technique (Off-Target Throws): Technique falters on throws that arent pinpoint (high/away, low/behind), resorting to clap-attacks that lead to drops.
+Poor Blocking: Technique is generally poor (doesnt close gap, poor strike method, gets beaten to punch), making him ineffective as a blocker.
 Limited Role Projection: Profiles almost exclusively as a slot receiver working underneath routes.
 Durability History: Missed significant time with a foot injury in 2022.
 Player Comparisons:
 Parker Washington / James Proche / Amari Rodgers / Byron Marshall: These comparisons point towards players who primarily operate from the slot, often relying on YAC or gadget roles, and have generally had limited and inconsistent fantasy production.
-Bottom Line for Rookie Drafts: Restrepo's fantasy appeal is largely confined to deeper PPR leagues where underneath targets and some YAC can provide a baseline floor. However, his lack of athletic upside, combined with technical flaws in route running and catching (on off-target throws), severely limits his ceiling. He doesn't project as a player likely to command a high target share or produce significant fantasy numbers consistently. The RSP evaluator strongly suggests waiting until after the NFL Draft to assess his situation and considers him a poor value compared to other prospects with more upside, likely making him a late-round rookie pick at best, even in deep formats.</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Tank Dell - X - Tutu Atwell</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Tez Johnson (RSP WR22) is a highly polarizing prospect due to his extreme outlier size (5'9", 154 lbs) juxtaposed with elite short-area quickness, acceleration, and polished route-running skills for a slot receiver. While his athletic traits and YAC ability draw comparisons to players like Tank Dell and Tutu Atwell, and the evaluator argues his size might not be prohibitive citing historical examples (Gerald McNeil), it undeniably creates massive uncertainty regarding his NFL draft capital, role, and long-term durability. Compounding the size issue are significant concerns about inconsistent hands/drops and very poor blocking. Johnson possesses the skills to be a dynamic playmaker from the slot if given the chance, but the risks are substantial.
-Fantasy Strengths:
-Elite Acceleration &amp; Short-Area Quickness: Possesses top-tier burst and change-of-direction ability, crucial for separating in the short-to-intermediate areas and creating yards after the catch. Tested exceptionally well in these areas.
-Polished Route Running (Slot): Described as "sudden and artful," using a variety of releases, setups (hip shifts, pace changes, sticks), and sharp breaks (when clean) to create space underneath. Excels on scramble drills.
-Strong YAC Ability: Leverages his quickness, vision, and decisiveness effectively after the catch. Patient setting up blocks and can make multiple defenders miss. Uses stiff arm well for his size.
-Toughness: Has taken hard hits over the middle despite his frame.
-Versatile Usage: Experience playing slot, backfield, and wing suggests potential for creative deployment.
-Fantasy Weaknesses:
-Extreme Size/Weight: Historically small (154 lbs), raising major questions about durability, ability to handle NFL physicality, potential role limitations, and how NFL teams will value him (draft capital risk). This is the overriding concern.
-Inconsistent Hands/Drops: "Biggest concern... is his hands." Prone to "clap-attacks" due to wide hand positioning, leading to drops and fighting the ball. Had a multi-drop game, raising concentration/confidence questions. Tracked data shows drops and low catch rate vs contact/tight coverage.
-Very Poor Blocking: Noted as a non-blocker ("Joker... without blocking element"). Technique is poor across the board (approach, strike, sustain). Major liability.
-Limited Catch Radius/Contested Ability: Size naturally limits his catch radius. Profile notes he's strictly an "open-space player," unlikely to win contested catches consistently.
-Ball Security Technique: Elbow is loose, making ball vulnerable to being knocked out (though no rate provided).
-Durability: Shoulder injury in 2024 adds to long-term concerns given extreme weight.
-Player Comparisons:
-Tank Dell / Tutu Atwell: Undersized slot receivers known for speed/quickness, used primarily in space/gadget roles, with varying degrees of NFL success/consistency.
-Historical Comp: Gerald McNeil (used to argue against size being prohibitive, highlighting McNeil's success as a tiny returner in a tougher era).
-Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Johnson is the ultimate boom-or-bust prospect based on whether an NFL team is willing to overlook his unprecedented size and inconsistent hands to utilize his elite quickness and route savvy from the slot. If he earns significant draft capital (inside Round 6 suggested as a benchmark by RSP) and lands with a creative play-caller, he offers intriguing upside, especially in PPR formats. However, the risks (size, drops, blocking inability) are immense. The RSP evaluator advises extreme caution, suggesting fantasy managers wait for the NFL Draft to gauge team interest before considering Johnson, likely only as a speculative pick in the second half of rookie drafts if the draft capital provides a "tacit stamp of approval."</t>
-  </si>
-  <si>
-    <t>TCU</t>
-  </si>
-  <si>
-    <t>Cordarrelle Patterson</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Savion Williams (RSP WR11) is a unique and intriguing prospect due to his potential positional ambiguity, drawing a direct comparison to Cordarrelle Patterson. Possessing an elite physical profile (6'4", 222 lbs) and exceptional ability with the ball in his hands, Williams grades out with elite power and contact balance by running back standards and has experience playing the position at TCU. While evaluated primarily as a WR here (Rotational Starter, cusp of Starter tier), his ceiling might be highest if an NFL team converts him to RB. As a receiver, he shows promising tools – good releases, attacking leverage, reliable hands – but needs refinement in pacing, route setups, and break consistency. His fantasy value is highly dependent on his declared NFL position.
+Bottom Line for Rookie Drafts: Restrepos fantasy appeal is largely confined to deeper PPR leagues where underneath targets and some YAC can provide a baseline floor. However, his lack of athletic upside, combined with technical flaws in route running and catching (on off-target throws), severely limits his ceiling. He doesnt project as a player likely to command a high target share or produce significant fantasy numbers consistently. The RSP evaluator strongly suggests waiting until after the NFL Draft to assess his situation and considers him a poor value compared to other prospects with more upside, likely making him a late-round rookie pick at best, even in deep formats.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Ollie Gordon presents a high-variance, scheme-dependent profile for fantasy managers. He possesses an enticing combination of NFL size (61, 226 lbs), good receiving skills, solid ball security, and better-than-Combine speed/acceleration demonstrated on tape. However, his value is heavily tied to landing in a gap-heavy or simple outside zone running scheme, as he struggles significantly with vision and decision-making in complex zone concepts or tight traffic. Additionally, inconsistent application of his power and significant flaws in pass protection limit his current three-down potential. An off-field DUI arrest adds another layer of risk. His wide range of outcomes is reflected in comparisons spanning from Deuce McAllister/David Johnson to William Green.
+Fantasy Strengths:
+Ideal Size &amp; Frame: Possesses the prototypical build for a potential workhorse running back.
+Good Receiving Skills: Soft hands, good technique extending for the ball, effective as an outlet receiver – valuable for PPR formats.
+Effective in Space: Utilizes his size, strength, and movement well once he gets into the second level or open field.
+Solid On-Field Speed/Acceleration: Despite poor Combine testing, his game tape shows sufficient speed and acceleration to create big plays (can flip the field).
+Gap Scheme Proficiency: Shows good vision, processing, and execution specifically within gap running schemes (like Duo), reading leverage and setting up blocks effectively in those concepts.
+Solid Ball Security: His fumble rate (1 per ~103 touches) is respectable and shouldnt be a major deterrent for coaches.
+Fantasy Weaknesses:
+Highly Scheme Dependent: Explicitly noted as needing a gap-heavy or simple zone scheme to thrive. Struggles significantly with vision, trust, and decision-making in other schemes, potentially rendering him ineffective. Landing spot is critical.
+Poor Vision/Decisiveness in Tight Traffic: Prone to overacting, bouncing runs unnecessarily, and running into defenders when plays get congested near the line of scrimmage.
+Doesnt Consistently Play to Size/Power: Fails to consistently accelerate into contact or leverage his size to break tackles or dictate collisions, leaving yards on the field. Evaluator doubts this will improve.
+Flawed Pass Protection: Significant technical issues, including overextending, dropping his head, telegraphing intent, lacking punch, and inconsistency with cut blocks depending on direction. Limits his reliability on passing downs.
+Off-Field DUI: Arrested in July 2024 (context implies summer before his final college season), raising potential character/maturity flags.
+Inconsistent Production/Perception: Followed a huge 2023 with a less impressive 2024 season and poor Combine, creating doubts about his true talent level and trajectory.
+Player Comparisons:
+High end: Deuce McAllister / David Johnson (prime) - Big, productive backs with receiving ability.
+Low end: William Green - Talented college back who busted in the NFL. This wide range highlights the risk/reward nature.
+Bottom Line for Rookie Drafts: Gordon is a gamble heavily dependent on his NFL landing spot and scheme fit. If drafted by a team employing a power/gap running scheme, his size, receiving ability, and flashes of on-field dynamism offer considerable upside, potentially as a rotational starter or better if he refines his game. If he lands in a zone-heavy scheme, his value plummets, and he could struggle to earn meaningful touches. The pass protection issues and DUI add further risk. Hes likely a mid-to-late round rookie pick whose value could shift significantly after the NFL Draft reveals his destination. Conservative drafters might wait for confirmation of a good scheme fit.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Elijah Arroyo (RSP TE4) is described as the eye candy of the tight end class, possessing elite speed and athleticism for his size (65, 250 lbs), drawing comparisons to athletic TEs like Jared Cook or Todd Heap (with Travis Kelce being a highly aspirational, likely unreachable ceiling). However, this Rotational Starter graded prospect comes with significant risk due to a major injury history (ACL costing most of 2022-23, recent Senior Bowl knee injury) and considerable technical rawness. His route running lacks precision, pacing, and consistent sharpness, and his catching technique breaks down on awkward targets. While his athletic gifts offer massive upside if developed, he requires significant refinement and carries substantial bust potential.
+Fantasy Strengths:
+Elite Speed &amp; Athleticism: Considered the fastest TE in the class with speed to challenge safeties vertically and pull away in the open field. Possesses good agility and overall athleticism.
+Strong YAC Potential: Uses his speed, size, and agility effectively after the catch to run through/bounce off contact, make defenders miss, and generate chunk plays.
+Good Hands/Catching (Flashes): Shows ability to make difficult athletic catches, extend for the ball, track over the shoulder, and win through contact when technique holds up. Possesses a good catch radius.
+Blocking Potential: Shows quick hands, combativeness, understands aiming points, and flashes ability to execute specific blocks well (especially backside DEs). Potential to develop into a competent blocker.
+Ideal Size: Excellent frame for a versatile TE role.
+Fantasy Weaknesses:
+Significant Injury History: Torn ACL wiped out most of his 2022 and 2023 seasons. Suffered another knee injury at the 2024 Senior Bowl. Durability is a major concern.
+Raw Route Running: Lacks refinement. Runs routes at one speed, breaks lack consistent sharpness/precision/deceleration, setups need work. Relies on athleticism over craft currently.
+Inconsistent Catching Technique: Lacks ingrained reactions/uniform hand position on awkward targets, leading to potential drops or inefficient catches. Allows ball into frame sometimes.
+Inconsistent Blocking: Prone to overextending, misses assignments due to inefficient lateral movement, needs to improve punch/sustain ability despite flashes of good technique.
+Limited Initial Role: Likely needs specific schemed looks early on leveraging his speed; blocking role best suited for backside/stalk duties initially.
+Player Comparisons:
+Ceiling Comp: Healthier Todd Heap (Realistic). Travis Kelce (Aspirational/Unlikely).
+Stylistic/Volatility Comp: Jared Cook / Luke Willson / Coby Fleener (Athletic TEs with inconsistent production often tied to refinement/hands).
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Arroyo is a high-risk, high-reward developmental tight end. His elite athleticism offers a tantalizing ceiling, but his significant injury history and considerable technical rawness (routes, hands, blocking) make him a volatile prospect. He needs time, health, and excellent coaching to reach his potential. Fantasy managers drafting him are betting purely on athletic upside overcoming major hurdles. The RSP evaluator suggests caution, viewing him as a mid-round rookie pick after Round 2 (unless in TE premium formats where the upside is more valuable earlier) and potentially a better buy-low candidate in a year or two if development stalls initially. Given the injury history and needed refinement, drafting him early is a significant gamble.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: This profile paints Sanders as a physically well-built back with good build-up speed and reliable hands, but significant flaws cap his fantasy ceiling and create considerable risk. His lack of short-area explosion limits his ability to create outside of whats blocked, making him reliant on clear runways. More critically, his ball security rate is borderline unacceptable for the NFL, and he has notable durability concerns (shoulder surgery, ankle injury). The evaluator suggests a ceiling similar to Roschon Johnson or Gus Edwards (a situational/committee role) if he fixes the fumbling, but strongly advises caution, recommending fantasy managers monitor from afar unless in very deep leagues.
+Fantasy Strengths:
+Size and Build: Possesses a good frame (well-built) for an NFL running back.
+Good Top-End Speed (Build-Up): Hes a downfield bully with strong straight-line speed once he gets a runway, allowing for big plays if he reaches open space.
+Reliable Receiver: Described as having good hands, reliable, and capable of making plays on schemed targets (screens) and extending for the ball. Offers PPR potential.
+Scheme Fits (Gap/Inside Zone): Shows competence and good decision-making within gap schemes (Counter) and inside zone, anticipating blocks and pressing lanes effectively in those concepts.
+Power with Momentum: Utilizes his size and a strong stiff-arm effectively when running downhill with momentum, allowing him to break through initial contact.
+Fantasy Weaknesses:
+Lack of Short-Area Explosion/Suddenness: This is a major limitation. He lacks the juice or quickness for effective stop-start movement, making him struggle in heavy traffic and limiting his ability to create yards independently.
+Problematic Ball Security: His career fumble rate (1 per ~73 touches) is flagged as on the cusp of being unacceptable. This is a critical flaw that could severely limit playing time or even roster viability.
+Durability Concerns: Significant injury history, including a torn labrum requiring surgery (missed end of 2023/Spring 2024) and an ankle injury limiting him in 2024. Raises major red flags about his availability.
+Processing/Execution Speed: Can be a beat late processing or reacting to penetration, potentially due to slower recognition or inefficient movement.
+Footwork Issues Near LOS: Prone to tripping over blockers and struggles to get his feet over low tackle attempts near the line of scrimmage.
+Flawed Blocking Technique: Particularly poor as a cut blocker (drops head, slow, lacks force, tips off intent).
+Player Comparisons:
+Gus Edwards: Suggests a potential role as a downhill, runway-dependent runner.
+Roschon Johnson: Implies a ceiling as a solid committee back or valuable role player if he overcomes his flaws (especially fumbles).
+Bottom Line for Rookie Drafts: Sanders carries significant risk for fantasy purposes. While his size, build-up speed, and receiving ability offer some intrigue, the combination of poor ball security, significant durability concerns, and a lack of dynamic short-area quickness makes him a highly questionable investment. His reliance on specific schemes and clean blocking further limits his upside. Based on this profile and the evaluators strong cautionary advice, he should likely be avoided in standard rookie drafts and only considered as a late-round flier in very deep dynasty leagues where taxi squad spots are plentiful.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: RJ Harvey is profiled as a dynamic, quick-twitch athlete with exciting movement skills and receiving potential, drawing comparisons to Tarik Cohen. However, he possesses critical flaws – namely abysmal pass protection and a highly problematic fumble rate – that severely threaten his NFL viability and fantasy upside. While his agility, speed, surprising contact balance, and vision in zone schemes are appealing, these major weaknesses make him a significant project. The RSP evaluator suggests hes currently a late-round stash candidate at best, needing significant improvement in key areas to become even a viable fantasy flex play.
+Fantasy Strengths:
+Dynamic Movement &amp; Elusiveness: Elite short-area quickness, hip mobility, and body control make him slippery and dangerous in space. Can make defenders miss and navigate traffic effectively.
+Receiving Ability: Skilled pass-catcher who adjusts well to the ball and shows promise as a route runner, particularly against linebackers. Offers significant PPR upside if he can overcome other flaws.
+Zone Scheme Vision: Excels in Zone, Draw, and Duo concepts, showing patience, pressing lanes effectively, and finding cutbacks.
+Surprising Contact Balance: Despite his smaller size (58, 205 lbs), he has a low center of gravity and good lower-body strength, allowing him to bounce off hits and gain yards after contact.
+Speed &amp; Acceleration: Good initial burst and excellent (elite) second gear once in the open field, making him a home-run threat.
+Fantasy Weaknesses:
+Very Poor Pass Protection: Described as a one-and-done blocker who lacks proper technique, sustain ability, and punch. A significant liability that will severely limit his playing time on passing downs.
+Problematic Ball Security: His fumble rate (1 per ~72 touches) is near an unacceptable level for the NFL. Coupled with poor carrying technique (elbow wide, swinging ball), this is a critical flaw that could make him unplayable.
+Poor Decision-Making (Gap Schemes): Tends to excessively hunt for cutbacks in gap schemes, ignoring the designed play and running into worse situations. Limits his scheme versatility.
+Focus Drops: Prone to dropping passes due to looking upfield before securing the catch, undermining his receiving potential.
+Durability Concern (Past Injury): Suffered an ACL tear in 2021, which is relevant medical history.
+Player Comparisons:
+Tarik Cohen: Highlights his potential ceiling as a dynamic, shifty receiving weapon used in specific roles.
+Ito Smith: Represents the downside risk of a smaller, satellite-type back who doesnt carve out a lasting role.
+Bottom Line for Rookie Drafts: Harvey is an exciting athlete to watch but carries immense risk for fantasy football. The combination of terrible pass protection and a very high fumble rate creates massive hurdles to earning significant playing time, regardless of his dynamic running and receiving skills. He needs to land in a zone-heavy scheme that minimizes his gap-scheme decision flaws and ideally doesnt ask him to pass protect often. He requires significant development and must fix his ball security immediately. Treat him as a late-round developmental stash in deep dynasty leagues, with a low probability of contributing meaningfully early in his career.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Jarquez Hunter (RSP RB20) is an intriguing running back prospect who possesses a strong combination of athletic traits – quickness, acceleration, top-end speed, and agility – along with determined, powerful running between the tackles. Drawing comparisons to efficient, explosive backs like J.K. Dobbins and Khalil Herbert, Hunter shows promise, particularly as a zone runner. However, his game requires significant refinement in key areas, including decision-making in tight gap-scheme creases, reacting consistently to interior penetration, receiving technique on non-routine targets, and especially pass protection consistency. If he can clean up these issues, he has the potential to become a productive committee back with big-play ability.
+Fantasy Strengths:
+Good Athleticism &amp; Speed: Possesses notable quickness, acceleration, and top-end speed, allowing him to beat defenders to the edge and create chunk plays. Excellent hip flexibility enhances his elusiveness.
+Power &amp; Determination: Runs hard, possesses a powerful stiff arm, breaks tackles through functional strength and determination, and finishes runs effectively. Forces gang tackles.
+Elusiveness: Utilizes good footwork, jukes, hurdles, and stride variations to make defenders miss. Weaves through traffic well when he sees the lane.
+Zone Scheme Vision: Generally sees the field well, reads leverage effectively on zone plays, and attacks creases decisively within that scheme. Manages game situations well.
+Durability &amp; Adequate Ball Security: No significant injury history reported. Ball security (1 fumble per ~127 touches) is acceptable, though not elite.
+Fantasy Weaknesses:
+Gap Scheme Decision-Making: While capable in zone, his decisiveness wanes in tight gap-scheme creases, leading to ill-advised bounces or cutbacks.
+Reacting to Interior Penetration: Can be slow to identify and react to defenders penetrating quickly up the middle.
+Inconsistent Receiving Technique: Adequate overall, but prone to clap-attacks and drops on targets away from his frame (especially high or low). Needs more consistency securing the ball. Hesitates occasionally after the catch.
+Inconsistent Pass Protection: Shows flashes of good technique but is often rendered a temporary obstacle due to lapses in details like overextending, leading with the helmet, poor depth, or tipping off blocks. Needs significant refinement to be reliable.
+Player Comparisons:
+J.K. Dobbins / Khalil Herbert: These comparisons suggest potential as an efficient, explosive runner often effective in zone schemes, likely fitting best within a committee approach.
+Bottom Line for Rookie Drafts: Hunter is a physically gifted back with the raw tools to succeed, particularly fitting a zone-running scheme. His blend of speed and power offers upside. However, the need for significant technical refinement in receiving, pass protection, and decision-making in certain run concepts makes him more of a developmental prospect than a finished product. He projects as a committee back who could offer splash weeks if he earns a role. The RSP evaluator suggests hes worth stashing (Rounds 3-4+ value in rookie drafts), betting on his athletic ability and potential for rapid development with NFL coaching.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall Fantasy Outlook: Terrance Ferguson (RSP TE16) profiles as a highly limited, linear athlete whose intriguing size/speed/leap potential is severely undermined by significant technical flaws and a lack of functional football fluidity. Graded as a low-end Contributor, his comparisons range from a less reliable Mike Gesicki to outright bust Micheal Egnew. While capable on straight-line routes (seams, screens) where he can build speed, he struggles immensely with skills requiring short-area quickness or bend – releases vs. tight coverage, sharp route breaks, YAC elusiveness, and blocking adjustments. Critically, his catching technique is poor (clap-attacks, focus drops, wrong hand usage), leading to inconsistency, especially in contested situations. The evaluator is extremely low on his NFL projection and cannot recommend drafting him for fantasy purposes.
+Fantasy Strengths:
+Linear Speed/Vertical Ability: Possesses good straight-line speed once he gets a runway and vertical leaping ability. Can generate chunk plays on schemed targets (screens, seams).
+Good Tracking (Linear Routes): Tracks the ball well over his shoulder on vertical routes when he has time/space.
+YAC Power (Linear): Uses size (65, 247 lbs) and momentum effectively when running downhill; has a decent stiff arm and can pull through some tackles.
+Fantasy Weaknesses:
+Lack of Fluidity/Linear Athlete: Stiff athlete whose lack of short-area quickness and bend limits effectiveness in releases, route breaks (especially hard breaks), creating YAC through agility, and adjusting as a blocker.
+Poor Catching Technique/Drops: Major issue. Prone to frequent clap-attacks, uses suboptimal hand positions, lacks focus, and drops contested targets far more often than he catches them. Technique breaks down on non-pinpoint throws. Low catch rates vs contact/tight coverage.
+Limited Route Running: Struggles significantly against man coverage due to inability to create separation via releases or sharp breaks. Effectiveness largely limited to zone coverage or schemed plays.
+Poor Blocking: Consistently overextends, lacks quickness to redirect, struggles with assignments requiring agility (lead blocking, stalk blocking reactions). Significant liability.
+Limited YAC Elusiveness: Not effective with stop-start movement; relies on linear power/speed rather than agility.
+Player Comparisons:
+High end (but flawed): Mike Gesicki (less reliable hands than Gesicki).
+Low end: Ed Dickson (journeyman).
+Bust warning: Micheal Egnew (similar linear athlete who failed).
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Ferguson appears to be a highlight reel prospect whose athletic testing might entice, but his on-field limitations, particularly his poor catching technique and lack of functional fluidity, make him a very poor bet for fantasy success. He projects as a highly specialized, likely inconsistent player at the NFL level, if he sticks at all. The RSP evaluator strongly advises against drafting him in any format, viewing him as a likely bust candidate whose linear traits wont translate effectively to the nuances of the TE position in the NFL. Avoid him in rookie drafts.
+</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Trevor Etienne (RSP RB13) projects as a dynamic, versatile running back capable of making an immediate impact, particularly as a change-of-pace runner and receiver. The evaluator holds him in high regard, suggesting he possesses more nuance and craft as a runner (especially in gap schemes) than his productive brother, Travis. With exciting speed, acceleration, elusiveness, and receiving chops, Trevor fits the mold of valuable modern committee backs like Jahmyr Gibbs or Charlie Garner, potentially offering more rushing upside than DAndre Swift. His primary hurdle to a true three-down role is significantly refining his pass protection technique.
+Fantasy Strengths:
+Dynamic Athleticism: Possesses high-level acceleration, long speed (can pull away once open), sudden change-of-direction ability, and elusiveness to make multiple defenders miss. Legitimate big-play threat.
+Excellent Gap Scheme Runner: Reads leverage well, sets up blocks effectively, shows patience, and runs decisively in gap schemes (his strength). More adept in Duo/Zone than his brother was at the same stage.
+Receiving Upside: Good hands, runs routes well for a back, adjusts to the ball, and can be a mismatch weapon. Offers significant PPR value.
+Momentum-Based Power &amp; Balance: Despite his size (58, 198 lbs), he runs with determination, accelerates into contact well, displays good contact balance, breaks tackles (especially in the secondary), and can drag defenders.
+Versatility: Offers potential as both a runner and receiver, fitting well into a committee role with the upside for significant touches.
+Durability: No significant reported injury history.
+Fantasy Weaknesses:
+Pass Protection Technique: This is his biggest weakness. While he recognizes assignments reasonably well, his technique (overextending, dropping head, poor hand usage/punch) makes him a liability currently and needs major improvement.
+Vision/Timing in Zone: While capable, he doesnt press blocks as deeply or consistently in zone schemes compared to gap, and can be a step late reacting to penetration on Duo plays. Needs refinement for optimal consistency in all schemes.
+Receiving Technique Polish: While a good receiver overall, has occasional lapses in attack technique (clap-catches) that need cleaning up.
+Stiff Arm Usage: Could be more effective breaking tackles if he utilized his stiff arm more consistently and effectively.
+Player Comparisons:
+High end (Spectrum): Marshall Faulk, Charlie Garner, Jahmyr Gibbs (dynamic receiving/running threats).
+Floor (Spectrum): Kevin Faulk (productive long-term committee/receiving back).
+Narrative: Compared favorably to Travis Etienne (as a prospect); potential to offer more rushing value than DAndre Swift.
+Bottom Line for Rookie Drafts: Etienne is an exciting talent with the speed, receiving ability, and running skill (especially in gap schemes) to be an immediate fantasy contributor in a committee role, particularly in PPR leagues. His upside is significant if he can refine his pass protection. He offers a strong receiving floor with explosive play potential. His rookie draft value is somewhat uncertain (RSP suggests anywhere from late 2nd to early 5th round), but his talent suggests he could be a valuable pick, potentially developing into a high-end committee back with weekly starter value for fantasy teams.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Savion Williams (RSP WR11) is a unique and intriguing prospect due to his potential positional ambiguity, drawing a direct comparison to Cordarrelle Patterson. Possessing an elite physical profile (64, 222 lbs) and exceptional ability with the ball in his hands, Williams grades out with elite power and contact balance by running back standards and has experience playing the position at TCU. While evaluated primarily as a WR here (Rotational Starter, cusp of Starter tier), his ceiling might be highest if an NFL team converts him to RB. As a receiver, he shows promising tools – good releases, attacking leverage, reliable hands – but needs refinement in pacing, route setups, and break consistency. His fantasy value is highly dependent on his declared NFL position.
 Fantasy Strengths:
 Elite Physical Tools &amp; Size: Outstanding size, power, agility, and contact balance profile.
 Exceptional Ball Carrier Ability (RB Potential): Described as one of the best YAC receivers, essentially grading as a running back with the ball. Runs through all levels of contact, shows patience/decisiveness between tackles, good footwork/hip mobility. Potential first-round rookie pick value if drafted as an RB.
@@ -1129,41 +1282,141 @@
 Player Comparisons:
 Cordarrelle Patterson: Perfect comparison highlighting his potential as a big, athletic weapon who excels with the ball in his hands, usable as a WR, RB, or returner, but potentially needing schematic help or development to thrive purely as a traditional WR.
 Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Savion Williams is one of the most fascinating prospects due to his potential RB conversion upside.
-As a WR: He projects as a high-upside rotational player (WR11 rank) with good size and YAC ability, needing technical refinement but offering intriguing potential. The RSP evaluator suggests he's worth considering in the second round of rookie drafts in this role.
-As an RB: His physical tools grade out as potentially elite, offering a ceiling of 2,000 scrimmage yards and double-digit TDs according to the evaluator. If an NFL team drafts him with the intention of playing him at RB, his fantasy value would skyrocket, potentially into the first round of rookie drafts. Monitor his NFL Draft designation closely; it will dictate his fantasy value more than almost any other prospect. He's a high-upside gamble with multiple paths to fantasy relevance.</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adonai Mitchell – X – Marquez Callaway – Jaray Jenkins </t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Elic Ayomanor (RSP WR24) presents a frustratingly inconsistent profile. He possesses intriguing tools, including good size (6'2", 206 lbs) and a surprisingly refined and diverse release package that often creates initial separation. However, his evaluation is marred by significant flaws after the release, particularly egregious struggles at the catch point against tight coverage due to poor technique (clap-attacks, suboptimal attack choices, poor positioning) and an inability to consistently stack defenders. This leads to a boom-bust profile with comparisons ranging from the similarly frustrating Adonai Mitchell to disappointing journeymen like Marquez Callaway and Jaray Jenkins. The evaluator expresses significant concern, suggesting Ayomanor frequently undermines his own good work and advises extreme caution in rookie drafts.
-Fantasy Strengths:
-Good Release Package: Possesses a strong array of nuanced footwork and hand counters delivered with good patience/suddenness contrast, allowing him to win early against coverage at the line.
-Good Size &amp; Frame: Has the physical dimensions desired for an outside receiver role.
-Functional YAC Ability: Uses his size and strength effectively after the catch, runs through contact, employs a decent stiff arm, and shows awareness to split defenders when needed.
-Solid Blocker: Shows good technique and willingness as a blocker in the run game.
-Good Ball Security &amp; Durability (Recently): Takes care of the ball; played full seasons recently despite past knee issues (HS PCL, 2022 camp injury).
-Fantasy Weaknesses:
-Poor Catch Point Execution vs. Tight Coverage: Major weakness. Consistently fails to secure contested catches due to poor technique ("clap-attacks"), suboptimal attack angles, poor positioning, and not attacking the ball early enough. Gets the ball ripped away frequently. Low tight coverage catch rate (50%).
-Inability to Stack/Maintain Separation: Frequently allows defenders back into the play after initially winning off the line or on the stem. Doesn't capitalize on separation created.
-Lacks Elite Speed/Acceleration: Described as having build-up speed rather than sudden burst; gets chased down by safeties and doesn't consistently pull away.
-Inconsistent Catching Technique: Prone to clap-attacking even on some easier targets, suggesting fundamental flaws in hand technique beyond just contested situations.
-Player Comparisons:
-Ceiling/Style Comp: Adonai Mitchell (physically gifted, flashes separation, frustratingly inconsistent at catch point).
-Floor/Bust Risk: Marquez Callaway / Jaray Jenkins (big-bodied receivers who didn't stick due to lack of refinement/consistency).
-Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Ayomanor is a high-risk prospect whose promising releases are frequently negated by his failures at the catch point, especially against tight coverage. While the physical tools and initial separation ability offer a glimpse of upside, his inability to consistently finish plays makes him a significant gamble. He needs major improvement in his catching technique and consistency to become a reliable fantasy asset. The RSP evaluator expresses strong skepticism, advising fantasy managers to essentially avoid him in rookie drafts before the NFL draft unless he falls significantly (4th round or later) and higher-ranked options are gone. His landing spot and coaching environment will be critical, but the existing flaws present a major hurdle.</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chris Godwin - - Brenden Rice/X – Damon Hazelton </t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Pat Bryant (RSP WR25) profiles as a technically sound, reliable possession receiver with good size (6'4", 204 lbs) whose strengths lie in setting up and executing route breaks effectively. While lacking elite top-end speed, he possesses good acceleration and stop-start quickness, which he leverages well both in routes and after the catch. His hands are generally reliable, and he navigates traffic well as a runner. However, his release package needs significant refinement (lacking nuance/pacing), and minor technical inconsistencies persist (clap-attacks, break sharpness). He projects as a high-floor WR3/WR4 type, potentially filling a flanker/big slot role, similar to a Chris Godwin mold (though perhaps less dynamic), but the evaluator advises caution pre-draft due to the capped athletic ceiling.
+As a WR: He projects as a high-upside rotational player (WR11 rank) with good size and YAC ability, needing technical refinement but offering intriguing potential. The RSP evaluator suggests hes worth considering in the second round of rookie drafts in this role.
+As an RB: His physical tools grade out as potentially elite, offering a ceiling of 2,000 scrimmage yards and double-digit TDs according to the evaluator. If an NFL team drafts him with the intention of playing him at RB, his fantasy value would skyrocket, potentially into the first round of rookie drafts. Monitor his NFL Draft designation closely; it will dictate his fantasy value more than almost any other prospect. Hes a high-upside gamble with multiple paths to fantasy relevance.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: LeQuint Allen profiles primarily as a receiving specialist whose fantasy value is heavily tied to his potential role in the passing game. His strengths lie in his excellent hands, route-running ability (advanced for an RB), and good footwork/elusiveness in space. However, significant limitations cap his overall upside. He lacks top-end speed and acceleration, limiting his potential as a runner, and possesses major technical flaws in pass protection that could prevent him from securing a consistent third-down role despite his receiving talent. The evaluator compares him to Kenneth Gainwell, suggesting a potentially frustrating fantasy asset (limited fantasy tease) who may flash but likely lacks consistent volume or starter upside.
+Fantasy Strengths:
+Excellent Receiving Skills: Considered his best trait. Natural hands catcher who wins targets all around his frame, makes difficult adjustments (one-handed, back-shoulder, boundary work), tracks well, and transitions quickly after the catch. High PPR potential.
+Good Route Running: Runs routes well for a back, showing nuance (releases, setting up defenders, working zones) and potential to be a mismatch against linebackers/safeties.
+Good Feet &amp; Elusiveness: Agile with good footwork to make defenders miss in space, gets over low tackle attempts, and can transition downhill quickly.
+Solid Vision: Reads leverage effectively in zone and gap schemes, presses blocks well, and shows some pre-snap awareness.
+Improved Ball Security: Showed significant improvement in 2024 (1 fumble in 292 touches) after an acceptable but higher career rate (1 per ~129 touches).
+Fantasy Weaknesses:
+Lack of Top-End Speed/Acceleration: Doesnt possess the speed or burst to consistently pull away from defenders or create big plays as a runner. Athleticism is functional but not special.
+Major Pass Protection Flaws: Technique is fundamentally flawed (rarely integrates his upper and lower halves). He struggles to coordinate his hands and feet, often overextending or being off-balance, making him a liability despite decent recognition. (Cut blocking shows some promise but isnt reliable yet). This significantly hinders his path to consistent passing-down snaps.
+Limited Rushing Upside: Lack of dynamic athletic traits likely caps him as a complementary runner rather than a volume carrier.
+Minor Receiving Lapses: Occasional clap-catches on high-point attempts or unnecessary leaps for targets.
+Player Comparisons:
+Kenneth Gainwell: This comparison suggests a player who primarily contributes through the air but may struggle for consistent touches or a large role due to limitations elsewhere in his game.
+Bottom Line for Rookie Drafts: Allens fantasy value hinges almost entirely on his receiving ability translating into a consistent third-down or satellite role. While his hands and route-running are appealing for PPR leagues, his severe limitations in pass protection and lack of dynamic rushing ability make him a risky bet. He needs significant technical refinement in blocking to earn steady snaps. The RSP evaluator strongly advises against reaching for him (likely be over-drafted as a sleeper) and recommends considering him only as a late-round speculative pick in very deep PPR formats.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Tez Johnson (RSP WR22) is a highly polarizing prospect due to his extreme outlier size (59, 154 lbs) juxtaposed with elite short-area quickness, acceleration, and polished route-running skills for a slot receiver. While his athletic traits and YAC ability draw comparisons to players like Tank Dell and Tutu Atwell, and the evaluator argues his size might not be prohibitive citing historical examples (Gerald McNeil), it undeniably creates massive uncertainty regarding his NFL draft capital, role, and long-term durability. Compounding the size issue are significant concerns about inconsistent hands/drops and very poor blocking. Johnson possesses the skills to be a dynamic playmaker from the slot if given the chance, but the risks are substantial.
+Fantasy Strengths:
+Elite Acceleration &amp; Short-Area Quickness: Possesses top-tier burst and change-of-direction ability, crucial for separating in the short-to-intermediate areas and creating yards after the catch. Tested exceptionally well in these areas.
+Polished Route Running (Slot): Described as sudden and artful, using a variety of releases, setups (hip shifts, pace changes, sticks), and sharp breaks (when clean) to create space underneath. Excels on scramble drills.
+Strong YAC Ability: Leverages his quickness, vision, and decisiveness effectively after the catch. Patient setting up blocks and can make multiple defenders miss. Uses stiff arm well for his size.
+Toughness: Has taken hard hits over the middle despite his frame.
+Versatile Usage: Experience playing slot, backfield, and wing suggests potential for creative deployment.
+Fantasy Weaknesses:
+Extreme Size/Weight: Historically small (154 lbs), raising major questions about durability, ability to handle NFL physicality, potential role limitations, and how NFL teams will value him (draft capital risk). This is the overriding concern.
+Inconsistent Hands/Drops: Biggest concern... is his hands. Prone to clap-attacks due to wide hand positioning, leading to drops and fighting the ball. Had a multi-drop game, raising concentration/confidence questions. Tracked data shows drops and low catch rate vs contact/tight coverage.
+Very Poor Blocking: Noted as a non-blocker (Joker... without blocking element). Technique is poor across the board (approach, strike, sustain). Major liability.
+Limited Catch Radius/Contested Ability: Size naturally limits his catch radius. Profile notes hes strictly an open-space player, unlikely to win contested catches consistently.
+Ball Security Technique: Elbow is loose, making ball vulnerable to being knocked out (though no rate provided).
+Durability: Shoulder injury in 2024 adds to long-term concerns given extreme weight.
+Player Comparisons:
+Tank Dell / Tutu Atwell: Undersized slot receivers known for speed/quickness, used primarily in space/gadget roles, with varying degrees of NFL success/consistency.
+Historical Comp: Gerald McNeil (used to argue against size being prohibitive, highlighting McNeils success as a tiny returner in a tougher era).
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Johnson is the ultimate boom-or-bust prospect based on whether an NFL team is willing to overlook his unprecedented size and inconsistent hands to utilize his elite quickness and route savvy from the slot. If he earns significant draft capital (inside Round 6 suggested as a benchmark by RSP) and lands with a creative play-caller, he offers intriguing upside, especially in PPR formats. However, the risks (size, drops, blocking inability) are immense. The RSP evaluator advises extreme caution, suggesting fantasy managers wait for the NFL Draft to gauge team interest before considering Johnson, likely only as a speculative pick in the second half of rookie drafts if the draft capital provides a tacit stamp of approval.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Brashard Smith is an intriguing prospect (RSP RB11) with significant fantasy upside, largely due to his elite speed, acceleration, and receiving prowess stemming from his background as a WR. Having recently converted to RB at SMU, he showed rapid growth and flashes dynamic playmaking ability, drawing a favorable comparison to Aaron Jones. While his vision excels in zone schemes and he displays surprising toughness, his game requires refinement in gap concepts, pre-snap recognition, pass protection, and ball security consistency due to his inexperience at the position. The evaluator is optimistic that his flaws are fixable, potentially leading to an every-down role, making him a compelling target with high potential, especially in PPR formats.
+Fantasy Strengths:
+Elite Speed &amp; Acceleration: Possesses true home-run ability (blow past linebackers... split safeties, and hold off cornerbacks for 75-80 yards). Game-breaking potential on any touch.
+Excellent Receiving &amp; Route Running (WR Background): Natural hands catcher with highlight-reel ability, advanced route nuances for an RB, and experience split wide. Huge PPR upside. Former All-ACC return specialist adds versatility.
+Dynamic Elusiveness: Quick feet, good jump cuts, efficient change of direction, and effective spin move (when used properly) allow him to make defenders miss.
+Zone Scheme Vision: Has quickly developed a good feel for zone blocking, showing patience, ability to press lanes, and adjust stride/pace.
+Rapid Development: Showed significant improvement in RB skills (stiff arm, cut blocking) in a short time after converting from WR, suggesting high coachability and upside.
+Improving Power/Contact Balance: Runs tough for his size (510, 196), keeps feet moving, developed a stiff arm, and shows ability to win collisions and push piles with help.
+Fantasy Weaknesses:
+RB Inexperience: Leads to specific areas needing development:
+Gap Scheme Vision/Decisions: Less comfortable than in zone, can bounce runs too early or rely on spins inappropriately.
+Pre-Snap Reads: Still learning to diagnose defenses pre-snap to identify optimal lanes/cutbacks.
+Pass Protection (Work in Progress): Primarily effective via cut blocks; stand-up blocking relies on shielding rather than effective strikes. Needs significant development to be trusted consistently.
+Ball Security: Rate improved in 2024 (1 per ~96 touches) but is still only average. Technique (loose carriage, slow switching) needs cleaning up to be reliable.
+Over-Reliance on Spin Move: Uses the spin too often and telegraphs it in suboptimal situations, hindering effectiveness.
+Player Comparisons:
+Aaron Jones: This comparison highlights his potential as an explosive, versatile backfield weapon with significant receiving value, capable of high efficiency even without massive size.
+Bottom Line for Rookie Drafts: Smith is a high-upside fantasy prospect whose value is tied to his dynamic athleticism and receiving ability. He fits the mold of a modern satellite/committee back immediately, with the potential to grow into much more if his development as a pure runner and blocker continues its rapid trajectory. The Aaron Jones comparison paints a picture of a potential fantasy RB1/RB2, especially in PPR leagues. While his rawness presents risk, his explosive traits make him an exciting player worth investing in, likely as a mid-round rookie pick, banking on his continued growth and playmaking ability. The evaluator believes his flaws are fixable and he could become an every-down player.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Damien Martinez is presented as a high-floor, high-upside running back prospect, ranked RB4 by RSP and considered one of the safest backs in the class. Hes described as a dynamic runner in the disguise of a lunchpail volume runner, blending power, excellent contact balance, savvy vision across multiple schemes, and deceptive speed. While reliable receiving skills add to his profile, his pass protection technique needs significant refinement. Despite likely being a Day 3 NFL draft pick, the evaluator considers him a first-round talent in rookie drafts, suggesting significant value potential.
+Fantasy Strengths:
+Excellent Power &amp; Contact Balance: A defining trait. Runs through hits at all levels, breaks multiple tackles consistently, possesses a strong stiff arm, and maintains balance through contact.
+Vision &amp; Scheme Versatility: Smart and reliable decision-maker who effectively runs various concepts (Zone, Duo, Counter, Power, Windback). Confident in tight creases and efficient on cutbacks.
+Reliability &amp; High Floor: Considered very safe due to his intelligence, game management, scheme versatility, and overall soundness.
+Good Athleticism: Possesses effective acceleration to beat defenders to the second level and deceptive gliding speed in the open field (a little faster than he appears). Good footwork and agility complement his power.
+Reliable Receiver: A good outlet option with sound technique, reliable hands, good tracking, and awareness. Solid contributor in the passing game.
+Improving Ball Security: Decent career rate (1 per ~137 touches), but showed marked improvement with zero fumbles on 176 touches in 2024.
+Durability: No significant reported injuries.
+Fantasy Weaknesses:
+Pass Protection Technique: While he diagnoses pressures well and shows willingness, his execution is flawed. He tends to overextend, leading to poor positioning and allowing defenders to counter easily. This needs significant coaching to avoid being a liability and limiting passing-down snaps early on.
+Runs Slightly Upright: His running style is somewhat upright, which can slightly limit leverage and power between the tackles, though he compensates well with balance and strength.
+Lacks Elite Suddenness: More of a powerful, one-cut runner than an incredibly shifty back who relies on stop-start quickness in tight spaces.
+Player Comparisons:
+High end: Adrian Peterson (power/vision/deceptive speed ceiling), Ryan Mathews (talented power back).
+Floor/Solid Starter: Ryan Grant. These comparisons point towards a powerful runner with clear NFL starter potential.
+Bottom Line for Rookie Drafts: Martinez profiles as a potentially immediate contributor with a desirable blend of power, vision, balance, and reliability. His ability to handle volume, contribute adequately as a receiver, and stay healthy boosts his fantasy floor. The main hurdle to a true three-down role is refining his pass protection technique. The RSP evaluator is very high on his talent (ranking him RB4, viewing him as 1st round rookie value) relative to his likely Day 3 NFL draft capital, making Martinez a potentially excellent value pick in rookie drafts who could significantly outperform draft expectations.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Tai Felton (RSP WR26) is the definition of a boom-or-bust prospect, described as having a high ceiling with a trap door leading to a deep drop. His allure comes from legitimate deep speed and creative, dynamic ability after the catch. However, his profile is marred by significant and critical flaws, most notably highly inconsistent hands and catching technique (catch-point woes, frequent clap-attacks, drops), along with raw, unrefined route running and release techniques. Comparisons to Jameson Williams and Quez Watkins aptly capture his profile: tantalizing speed offset by frustrating inconsistency. He requires significant development and carries substantial risk.
+Fantasy Strengths:
+Speed &amp; Big-Play Ability: Possesses legitimate deep speed to separate vertically and is dangerous after the catch, capable of turning short gains into long touchdowns.
+Creative YAC Ability: Agile and creative with the ball in his hands, uses stop-start quickness, spins, and vision to make defenders miss and create yardage independently.
+Route Running Potential: Shows flashes of good route running elements – sharp breaks (when clean), effective setups (using head fakes, stems), and a variety of release moves. Has the athletic tools to develop further.
+Return Specialist Potential: Implied by speed/athleticism and explicitly mentioned as a way he could earn early opportunities while developing as a receiver.
+Durability: No significant reported injuries.
+Fantasy Weaknesses:
+Catching Technique / Drops (Major Flaw): Hands are a significant liability. Prone to frequent clap-attacks, uses suboptimal hand positions, lets the ball into his frame, and struggles with focus, leading to numerous drops across various target types (PP, G, vs Contact, Tight Coverage drops all noted in tracked data).
+Raw Route Running &amp; Release Technique: Lacks precision, consistency, and refinement. Releases need more pacing/craft, breaks can drift or lack optimal technique, and setups arent always convincing. Needs significant technical development.
+Inconsistent Zone Awareness: Struggles with identifying zone triangles, knowing when to settle, and showing eyes to the QB at the right time.
+Poor Blocking: Technique needs significant correction; approach is flawed, prone to overextension.
+Ball Security Technique: Carries ball loose, elbow wide, prone to using wrong arm near boundary.
+Player Comparisons:
+Jameson Williams / Quez Watkins: Both comparisons highlight elite speed potential coupled with significant concerns about hands, route running consistency, and overall reliability, leading to boom/bust fantasy production.
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Felton is a high-risk developmental prospect purely for fantasy managers willing to gamble on elite speed potentially overcoming massive technical flaws. His inconsistent hands are a major red flag that could prevent him from ever earning consistent targets, regardless of his speed. He likely needs time to develop and may only contribute initially via special teams or gadget plays. The RSP evaluator strongly cautions against investing significant draft capital, suggesting hes a late-round flier only, and advises having clear boundaries on roster patience due to the potential for him to be a practice hype player who struggles in games. Wait for the NFL Draft results before considering him, and even then, temper expectations significantly.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Mason Taylor (RSP TE2) profiles as an elite tight end prospect with a high floor and considerable ceiling, drawing strong comparisons to Mark Andrews but possessing potentially a higher ceiling as a blocker. Evaluated as a Starter tier talent, Taylor is a smooth, versatile athlete who excels in all facets: refined route running, reliable hands, dynamic ability after the catch, and increasingly effective blocking. While minor technical flaws exist (ball security carriage, occasional clap-attacks), his overall skillset suggests he can be a cornerstone piece of an NFL offense, potentially outproducing more hyped TEs like Loveland depending on scheme fit and opportunity. He projects as a high-end fantasy TE1.
+Fantasy Strengths:
+Excellent Receiving Skills: Smooth route runner with a solid grasp of releases, setups, and breaks. Creates separation and makes catches at all levels. Reliable hands (92% PP catch rate), extends well, wins through contact, good focus.
+Dynamic YAC Ability: Possesses impressive curvilinear speed and vision to weave through traffic after the catch, often creating extra yards independently. Uses power and a stiff arm effectively.
+Strong Blocking Potential: Shows a high ceiling as a blocker with good technique (hand usage, counters, footwork), power (uppercut, generates force), and versatility (inline, lead, pass pro). Already effective and improving.
+Ideal Size &amp; Athleticism: Prototypical TE frame (65, 251 lbs) combined with smooth athleticism, good acceleration, and speed to challenge defenses vertically and after the catch.
+Scheme Versatility: Fits any offensive scheme due to his well-rounded skillset; can operate inline, detached in the slot, or even outside like Ertz/Kelce, exploiting mismatches.
+Durability: No significant reported injuries.
+Fantasy Weaknesses:
+Ball Security Technique: Prone to swinging the ball in the open field with a loose elbow; needs to consistently keep it tighter.
+Minor Catching Technique Lapses: Occasional small clap-attacks on targets high and away from his frame. Drops noted on G/G vs Contact/Tight Coverage.
+Release Pacing (Minor): Footwork on releases when detached could incorporate more patience/suddenness artistry.
+Player Comparisons:
+Primary Comp: Mark Andrews (high-end receiving TE; Taylor has better blocking potential).
+Remote Ceiling Comp: George Kittle (if speed/YAC fully translate).
+Functional Comps (Usage): Zach Ertz / Travis Kelce (ability to be used detached/exploit mismatches).
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Taylor looks like a high-end, immediate impact fantasy tight end. His combination of receiving prowess, dynamic YAC ability, and strong blocking potential gives him immense upside comparable to the elite TEs in the NFL. He might be undervalued in rookie drafts compared to Loveland (or Bowers if he were in this hypothetical class) but possesses arguably similar or even greater potential depending on landing spot. He warrants consideration late in the first round or early in the second round of standard rookie drafts and likely higher in TE premium formats. He has a strong chance to become a long-term fantasy TE1.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Montrell Johnson Jr. profiles as a high-floor, fundamentally sound running back whose fantasy ceiling hinges significantly on whether his athletic testing translates more consistently to the field. Hes a reliable, well-balanced runner capable in both gap and zone schemes, boasting excellent tackle-breaking ability, elite ball security, and solid pass protection skills. However, his on-field acceleration and speed havent always matched his potentially impressive workout numbers. If he unlocks that athleticism, his ceiling is considerable (evidenced by lofty comparisons); if not, he projects as a dependable committee back. A recent knee injury also adds a slight risk factor.
+Fantasy Strengths:
+Excellent Ball Security: Elite level (1 fumble per ~211 touches), providing a strong foundation of trust for coaches.
+Tackle-Breaking &amp; Contact Balance: Very difficult to bring down, effectively gets his feet/knees high through contact, pulls through wraps, uses a strong stiff arm, and shows good balance through both direct and indirect hits.
+Well-Rounded Skillset: A sound technician who can effectively run in both gap and zone schemes, reads leverage well, and makes generally good decisions between the tackles.
+Solid Pass Protection: Shows good technique and recognition, squares defenders, uses his hands well, and identifies pressures. Reliable in this phase.
+Good Elusiveness: Utilizes effective footwork (jump cuts, stops, hip openers, sharp lateral cuts) and stride variation to make defenders miss and avoid low shots.
+Fantasy Weaknesses:
+On-Field Athleticism Disconnect: The biggest question mark. His tested acceleration and speed appear better than what he consistently displays on film. Until he unlocks this consistently, his big-play upside remains theoretical.
+Second/Third Level Vision Lapses: Occasionally misses opportunities to maximize runs by bouncing towards defenders instead of hitting developing lanes deeper downfield.
+Durability Concern: Missed most of the 2024 season with a knee injury (no surgery required), which adds an element of risk.
+Player Comparisons:
+High end: Terrell Davis (if athletic potential is fully realized in the right scheme), Johnathan Franklin (talented all-around back).
+Low end: Joshua Kelley (reliable but replaceable committee back). This spectrum highlights the uncertainty tied to his athleticism translating.
+Bottom Line for Rookie Drafts: Johnson offers a safe floor due to his reliability, excellent ball security, toughness, and competence in all phases. Hes likely to carve out at least a committee role. The key variable for fantasy is his ceiling – can he consistently play to the athletic potential his testing suggests? If yes, he could be a significant value. If not, hes a dependable, but likely unexciting, fantasy asset (RB3/Flex type). The RSP evaluator views him as a high-floor prospect and a decent late-round bet (5th-7th round+) in rookie drafts, worth adding based on his reliability even with the athletic questions.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Pat Bryant (RSP WR25) profiles as a technically sound, reliable possession receiver with good size (64, 204 lbs) whose strengths lie in setting up and executing route breaks effectively. While lacking elite top-end speed, he possesses good acceleration and stop-start quickness, which he leverages well both in routes and after the catch. His hands are generally reliable, and he navigates traffic well as a runner. However, his release package needs significant refinement (lacking nuance/pacing), and minor technical inconsistencies persist (clap-attacks, break sharpness). He projects as a high-floor WR3/WR4 type, potentially filling a flanker/big slot role, similar to a Chris Godwin mold (though perhaps less dynamic), but the evaluator advises caution pre-draft due to the capped athletic ceiling.
 Fantasy Strengths:
 Good Route Running (Setups/Breaks): Excels at setting up defenders mid-route using various techniques (head fakes, peeks, insets, stair-steps) and executing breaks effectively, particularly working back to the QB. Understands zone concepts.
 Good Acceleration &amp; Quickness: Compensates for lack of top speed with good burst and stop-start ability, aiding separation and YAC.
@@ -1174,285 +1427,32 @@
 Fantasy Weaknesses:
 Lack of Top-End Speed: Unlikely to consistently win vertically or generate huge plays based on speed alone. Likely confined to underneath/intermediate work primarily.
 Release Refinement Needed: Release package lacks nuance, pacing variation (patience/suddenness), and artistry needed to consistently defeat NFL press coverage at the line.
-Inconsistent Catching Technique: Prone to minor "clap-attacks," which could be problematic despite generally good hands.
+Inconsistent Catching Technique: Prone to minor clap-attacks, which could be problematic despite generally good hands.
 Route Break Consistency: While generally good, breaks sometimes lack optimal sharpness/snap, especially on timing routes.
 Player Comparisons:
 High end: Chris Godwin (versatile, reliable, tough possession receiver).
 Spectrum Comps: Brenden Rice / Damon Hazelton (representing a range from solid contributor to less impactful player).
-Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Bryant offers a safe floor as a technically sound receiver with good size and reliable hands, likely capable of carving out a role as a dependable possession target. His lack of elite speed caps his ceiling, but his quickness, YAC ability, and route savvy make him a solid prospect for a WR3/WR4 role in an NFL offense, potentially as a flanker or big slot. The RSP evaluator advises monitoring him from afar pre-draft, suggesting he's likely a late-round value pick (6th-8th round leagues) unless significant NFL draft capital indicates a clearer path to early opportunity.</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Jameson Williams – X – Quez Watkins</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Tai Felton (RSP WR26) is the definition of a boom-or-bust prospect, described as having a "high ceiling with a trap door leading to a deep drop." His allure comes from legitimate deep speed and creative, dynamic ability after the catch. However, his profile is marred by significant and critical flaws, most notably highly inconsistent hands and catching technique ("catch-point woes," frequent "clap-attacks," drops), along with raw, unrefined route running and release techniques. Comparisons to Jameson Williams and Quez Watkins aptly capture his profile: tantalizing speed offset by frustrating inconsistency. He requires significant development and carries substantial risk.
-Fantasy Strengths:
-Speed &amp; Big-Play Ability: Possesses legitimate deep speed to separate vertically and is dangerous after the catch, capable of turning short gains into long touchdowns.
-Creative YAC Ability: Agile and creative with the ball in his hands, uses stop-start quickness, spins, and vision to make defenders miss and create yardage independently.
-Route Running Potential: Shows flashes of good route running elements – sharp breaks (when clean), effective setups (using head fakes, stems), and a variety of release moves. Has the athletic tools to develop further.
-Return Specialist Potential: Implied by speed/athleticism and explicitly mentioned as a way he could earn early opportunities while developing as a receiver.
-Durability: No significant reported injuries.
-Fantasy Weaknesses:
-Catching Technique / Drops (Major Flaw): Hands are a significant liability. Prone to frequent "clap-attacks," uses suboptimal hand positions, lets the ball into his frame, and struggles with focus, leading to numerous drops across various target types (PP, G, vs Contact, Tight Coverage drops all noted in tracked data).
-Raw Route Running &amp; Release Technique: Lacks precision, consistency, and refinement. Releases need more pacing/craft, breaks can drift or lack optimal technique, and setups aren't always convincing. Needs significant technical development.
-Inconsistent Zone Awareness: Struggles with identifying zone triangles, knowing when to settle, and showing eyes to the QB at the right time.
-Poor Blocking: Technique needs "significant correction"; approach is flawed, prone to overextension.
-Ball Security Technique: Carries ball loose, elbow wide, prone to using wrong arm near boundary.
-Player Comparisons:
-Jameson Williams / Quez Watkins: Both comparisons highlight elite speed potential coupled with significant concerns about hands, route running consistency, and overall reliability, leading to boom/bust fantasy production.
-Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Felton is a high-risk developmental prospect purely for fantasy managers willing to gamble on elite speed potentially overcoming massive technical flaws. His inconsistent hands are a major red flag that could prevent him from ever earning consistent targets, regardless of his speed. He likely needs time to develop and may only contribute initially via special teams or gadget plays. The RSP evaluator strongly cautions against investing significant draft capital, suggesting he's a late-round flier only, and advises having "clear boundaries" on roster patience due to the potential for him to be a "practice hype" player who struggles in games. Wait for the NFL Draft results before considering him, and even then, temper expectations significantly.</t>
-  </si>
-  <si>
-    <t>San Jose State</t>
-  </si>
-  <si>
-    <t>Michael Wilson – X/Grant DuBose – Damon Hazelton</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Nick Nash (RSP WR28) is an intriguing developmental prospect, having converted from QB to WR full-time in 2022. He shows significant promise with nuanced release packages (effectively using patience/suddenness), good route understanding, strong hands, and excellent ability in contested catch situations due to savvy positioning. Graded as a Rotational Starter, he compares favorably to reliable possession types like Michael Wilson. However, his fantasy ceiling is likely capped by a lack of high-end long speed. He also needs refinement in consistently attacking the ball early and cleaning up minor catching technique flaws (clap-attacks). He projects as a potential WR2/3 for an NFL team down the line, offering WR2-WR4 fantasy value if he develops.
-Fantasy Strengths:
-Good Route Running &amp; Releases: Possesses a wide array of release moves and effectively uses patience/suddenness to beat coverage at the line. Understands setups, runs routes well (especially timing routes), and shows good zone awareness.
-Strong Hands &amp; Contested Catch Ability: Skilled at winning contested catches through excellent positioning ("jump up and through," pull-back). Reliable hands, extends well, catches away from frame, and shows good focus through contact. High catch rates vs contact/tight coverage.
-Good Short-Area Quickness: Displays effective acceleration and change-of-direction ability, aiding releases and separation on shorter routes.
-Effective YAC Ability: Uses vision, agility (spins, jump cuts), and functional power (stiff arm, runs through wraps) to create yards after the catch.
-Versatility &amp; Football IQ: QB background likely contributes to his understanding. Has experience playing inside (slot) and outside (X).
-Good Ball Security &amp; Durability: Takes care of the ball (technique improved after early 2024 fumble) and has no significant injury history as a WR.
-Fantasy Weaknesses:
-Lack of Long Speed: Described as having speed in the "bottom range of starter value." Unlikely to consistently win deep purely on speed or pull away for long touchdowns.
-Catching Technique Refinement: Needs to attack the ball earlier more consistently, especially on targets arriving at his numbers. Prone to occasional "clap-attacks," particularly on high points.
-Route Break Polish: Speed breaks on intermediate routes need sharper execution (drive/line steps).
-Inconsistent Blocking: Technique can be flawed (overextension, relies on shielding vs. striking consistently).
-Player Comparisons:
-High end: Michael Wilson (reliable possession receiver who earned role quickly).1   
-1.
-NFL Draft Profile: Michael Wilson, Wide Receiver, Stanford Cardinal - Sports Illustrated
-www.si.com
-Spectrum Comps: Grant DuBose / Damon Hazelton (representing lower-end outcomes for this physical archetype).
-Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Nash is a high-floor prospect due to his advanced releases, reliable hands, and contested-catch skills. His lack of top-end speed likely relegates him to a possession role working underneath and intermediate, but he has the tools to be effective there. He projects as a dependable supporting receiver (WR2/3 on his own team) who could offer steady WR3/4 fantasy value with upside for more if he continues to develop. The RSP evaluator suggests considering him as a late-round rookie pick or waiver wire addition pre-draft, viewing him as a solid developmental prospect with a good chance to carve out a meaningful role within a couple of years.</t>
-  </si>
-  <si>
-    <t>UNLV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torry Holt – Antonio Bryant - X – Ronnie Bell- Tre Turner </t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Ricky White III (RSP WR34) possesses a solid technical foundation as a route runner and generally reliable hands, but his fantasy upside appears significantly capped by a lack of NFL-caliber speed ("pedestrian") and crucial inconsistencies in his catching technique. While compared aspirationally to the technician Torry Holt, his more realistic comparisons (Ronnie Bell, Tre Turner) suggest a future as a dependable but low-ceiling contributor. His inability to consistently win with speed, combined with technique flaws leading to drops (especially "clap-attacks"), makes him a risky bet for significant fantasy production. The evaluator expresses skepticism about his upside beyond a reserve role unless significant, perhaps unlikely, improvement occurs.
-Fantasy Strengths:
-Good Route Running Fundamentals: Shows good understanding of stems, setups (using sticks, double-ups, peeks), breaks (3-step, speed breaks shallow), and working back to the ball. Strong technical foundation. Good zone awareness.
-Reliable Hands (Overall): Generally catches the ball well, tracks effectively, extends, and shows good focus through contact (100% PP Catch Rate overall, though one drop noted).
-Effective YAC Ability: Makes the first man miss with stop-start quickness and agility (stick, spin, jump cut), shows good vision, and uses functional power (stiff arm, runs through wraps) after the catch.
-Good Release Variety: Possesses a solid arsenal of release moves and counters.
-Solid Blocker: Shows good technique and effort as a blocker.
-Fantasy Weaknesses:
-Lack of Top-End Speed: Described as having speed that is "pedestrian by NFL standards," significantly limiting his ability to separate vertically or be a consistent deep threat.
-Catching Technique Flaws: "Most important thing... to address." Hands are often too wide, leading to frequent "clap-attacks" on various targets (high points, over shoulder, low/behind) and subsequent drops (drops noted in tracked data). Must be fixed to survive against NFL defenders, especially given lack of speed.
-Route Running/Release Refinement Needed: Needs better pacing and artistry in releases; breaks lack consistent snap and acceleration; needs sharper execution overall to compensate for average athleticism.
-Unnecessary Leaping: Leaves feet on catchable targets, limiting YAC.
-Ball Security Technique: Carries ball loose in open field, prone to using wrong arm.
-Player Comparisons:
-Aspirational Ceiling: Torry Holt (elite technician who overcame speed limitations - seen as unlikely for White).
-Realistic Comps: Ronnie Bell / Tre Turner (solid NFL contributors, likely WR3/4 types).
-Middle Ground/Warning: Antonio Bryant (talented but inconsistent/flawed).
-Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): White profiles as a technically sound receiver likely limited to a possession role due to athletic constraints. The major concern is whether his inconsistent catching technique can be fixed; if not, his lack of separating speed will make it very difficult to earn targets against NFL coverage. He projects as a potential depth receiver or practice squad player initially. The RSP evaluator advises extreme caution ("Monitor from afar"), suggesting fantasy managers only consider him late in very deep rookie drafts after the NFL Draft clarifies if a team invests any meaningful capital in him. He appears to have a low fantasy ceiling.</t>
-  </si>
-  <si>
-    <t>Colorado State</t>
-  </si>
-  <si>
-    <t>Van Jefferson</t>
-  </si>
-  <si>
-    <t>Reserve</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Tory Horton (RSP WR63) is evaluated as a "Reserve" tier prospect with significant flaws that likely outweigh his intriguing flashes, leading to a highly cautionary outlook. While possessing some YAC quickness and a variety of release moves, his game is plagued by sloppy route breaks, problematic catching technique (especially "clap-attacks"), and a lack of NFL-caliber speed or burst. A comparison to Van Jefferson suggests a limited ceiling as a depth receiver. Compounding these issues is a recent knee injury requiring surgery. The evaluator notes potential for improvement if major technical flaws are fixed, but expresses skepticism, advising fantasy managers to "monitor from afar" and consider him only as a deep dynasty stash contingent on glowing camp reports.
-Fantasy Strengths:
-YAC Quickness: Shows good quickness, jump cuts, and spins to make defenders miss after the catch in tight quarters. Good vision to find cutback lanes.
-Release Variety (Raw): Possesses a range of release maneuvers (stretch, two-quick, foot switch, double-up, stick, counters), suggesting a foundation for development if pacing and craft are added.
-Blocking Effort/Flashes: Shows willingness and some good technical elements (squaring up, aiming for chest, moving feet) when technique holds up.
-Fantasy Weaknesses:
-Problematic Catching Technique: Major issue. Prone to "clap-attacks" due to incorrect hand positioning (palms facing each other), allows ball into frame, struggles adjusting to non-pinpoint throws, leading to drops and unreliability. Catch rate data shows drops vs contact and tight coverage.
-Sloppy Route Running: Breaks lack consistent sharpness, snap, and proper footwork (drifting, poor line steps, balance issues). Needs significant refinement for NFL separation.
-Lack of NFL Speed/Burst: Does not possess starter-level speed or acceleration; struggles to separate vertically or pull away. Athleticism is a significant limiter.
-Raw Release Technique: Lacks consistent pacing, violence, and craft needed to make his variety of moves effective against NFL corners.
-Durability/Injury: Missed most of the 2024 season with a knee injury requiring surgery in October. Recovery and long-term impact are concerns.
-Inconsistent Blocking Execution: Prone to overextending, wide hands ("hugger"), lacks punch force.
-Player Comparisons:
-Van Jefferson: Compares to a depth receiver known more for occasional flashes than consistent production or standout traits.
-Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Horton is a long-shot developmental prospect with significant hurdles to overcome. His catching technique issues are particularly concerning and could prevent him from sticking in the league, regardless of other skills. Combined with athletic limitations and recovery from knee surgery, his fantasy outlook is bleak. The RSP evaluator strongly advises against using a rookie pick on him before the NFL Draft and suggests only considering him as a deep dynasty stash if unexpected positive reports about his route running and catching emerge during training camp. He carries very high bust potential.</t>
-  </si>
-  <si>
-    <t>Mike Gesicki – Ed Dickson – X - Micheal Egnew</t>
-  </si>
-  <si>
-    <t>Contributor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall Fantasy Outlook: Terrance Ferguson (RSP TE16) profiles as a highly limited, linear athlete whose intriguing size/speed/leap potential is severely undermined by significant technical flaws and a lack of functional football fluidity. Graded as a low-end "Contributor," his comparisons range from a less reliable Mike Gesicki to outright bust Micheal Egnew. While capable on straight-line routes (seams, screens) where he can build speed, he struggles immensely with skills requiring short-area quickness or bend – releases vs. tight coverage, sharp route breaks, YAC elusiveness, and blocking adjustments. Critically, his catching technique is poor ("clap-attacks," focus drops, wrong hand usage), leading to inconsistency, especially in contested situations. The evaluator is extremely low on his NFL projection and cannot recommend drafting him for fantasy purposes.
-Fantasy Strengths:
-Linear Speed/Vertical Ability: Possesses good straight-line speed once he gets a runway and vertical leaping ability. Can generate chunk plays on schemed targets (screens, seams).
-Good Tracking (Linear Routes): Tracks the ball well over his shoulder on vertical routes when he has time/space.
-YAC Power (Linear): Uses size (6'5", 247 lbs) and momentum effectively when running downhill; has a decent stiff arm and can pull through some tackles.
-Fantasy Weaknesses:
-Lack of Fluidity/Linear Athlete: "Stiff athlete" whose lack of short-area quickness and bend limits effectiveness in releases, route breaks (especially hard breaks), creating YAC through agility, and adjusting as a blocker.
-Poor Catching Technique/Drops: Major issue. Prone to frequent "clap-attacks," uses suboptimal hand positions, lacks focus, and drops contested targets far more often than he catches them. Technique breaks down on non-pinpoint throws. Low catch rates vs contact/tight coverage.
-Limited Route Running: Struggles significantly against man coverage due to inability to create separation via releases or sharp breaks. Effectiveness largely limited to zone coverage or schemed plays.
-Poor Blocking: Consistently overextends, lacks quickness to redirect, struggles with assignments requiring agility (lead blocking, stalk blocking reactions). Significant liability.
-Limited YAC Elusiveness: Not effective with stop-start movement; relies on linear power/speed rather than agility.
-Player Comparisons:
-High end (but flawed): Mike Gesicki (less reliable hands than Gesicki).
-Low end: Ed Dickson (journeyman).
-Bust warning: Micheal Egnew (similar linear athlete who failed).
-Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Ferguson appears to be a "highlight reel" prospect whose athletic testing might entice, but his on-field limitations, particularly his poor catching technique and lack of functional fluidity, make him a very poor bet for fantasy success. He projects as a highly specialized, likely inconsistent player at the NFL level, if he sticks at all. The RSP evaluator strongly advises against drafting him in any format, viewing him as a likely bust candidate whose linear traits won't translate effectively to the nuances of the TE position in the NFL. Avoid him in rookie drafts.
-</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">George Kittle - T.J. Hockenson/Tyler Eifert/X </t>
-  </si>
-  <si>
-    <t>Starter</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Colston Loveland ranks as the RSP TE1 and possesses the all-around skillset to become a high-end NFL starter, fitting firmly into the T.J. Hockenson tier of tight ends – a versatile weapon capable of significant receiving production while being a capable blocker. While not possessing the "chimera" level blocking/receiving combination of a Gronkowski or perhaps Kittle, Loveland excels as a route runner at all levels, is dangerous after the catch, and shows promise as a blocker (though inconsistent). He projects as a potential top-three target in his future NFL offense, offering significant fantasy value, especially in TE premium formats. His recovery from major shoulder surgery (Oct '24, expected ready late July '25) is the primary immediate concern.
-Fantasy Strengths:
-Excellent Receiving Ability: Polished route runner who can stretch the field vertically (beats safeties up seam), win intermediate routes (digs), and operate underneath. Understands zone concepts, uses effective releases/setups, and shows good nuance.
-Strong YAC Ability: Physical runner after the catch who wins collisions, gets high knees through contact, drags defenders, uses an effective stiff arm, and shows good vision/patience.
-Good Athleticism &amp; Size: Ideal TE frame (6'5", 248 lbs) combined with good speed, acceleration, and agility to win as both a receiver and ball carrier.
-Versatility: Capable of lining up inline or detached and contributing significantly as both a receiver and a blocker (when technique holds). High football IQ.
-Reliable Hands: Generally dependable hands (100% PP catch rate), tracks the ball well, high-points effectively, and makes catches through contact.
-Fantasy Weaknesses:
-Inconsistent Blocking Technique: Prone to overextending inline, inconsistent aiming points on lead blocks. Needs more consistent execution despite showing capability.
-Route Break Refinement: Needs more consistent suddenness and deeper weight drop on some breaks (drop &amp; pop, whip) to maximize separation against NFL defenders.
-Minor Catching/Ball Security Lapses: Occasional clap-attacks (underhand at back hip); habit of not securing the ball immediately after catch (led to past fumble). Needs to improve boundary footwork consistency when high-pointing. Drops noted vs contact/tight coverage.
-Shoulder Injury Recovery: Underwent significant shoulder surgery (labrum/AC joint) in October 2024; expected return by late July 2025 needs monitoring for any rookie year impact or long-term concerns.
-Player Comparisons:
-Primary Comp Tier: T.J. Hockenson (high-end receiving TE, capable blocker, top-3 offensive option).
-Stylistic Comps: George Kittle / Tyler Eifert (athletic receiving TEs with blocking ability).
-Explicit Non-Comp: Brock Bowers (evaluator notes Bowers has superior athleticism).
-Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Loveland is a top-tier TE prospect with a well-rounded game poised for significant NFL production, likely mirroring T.J. Hockenson's fantasy impact. He offers both a high floor due to his receiving skills and blocking potential, and a considerable ceiling as a potential focal point of a passing attack. The shoulder injury recovery is the main variable for his rookie season. His fantasy draft value varies significantly by format:
-TE Premium (1.5 PPR+): Clear first-round rookie pick value.
-Standard PPR: Better value in the back half of the second round.
-Non-PPR: Value likely falls to the back half of the third round. He's a strong investment, particularly in formats that reward tight end production.</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>Mark Andrews / X</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Mason Taylor (RSP TE2) profiles as an elite tight end prospect with a high floor and considerable ceiling, drawing strong comparisons to Mark Andrews but possessing potentially a higher ceiling as a blocker. Evaluated as a "Starter" tier talent, Taylor is a smooth, versatile athlete who excels in all facets: refined route running, reliable hands, dynamic ability after the catch, and increasingly effective blocking. While minor technical flaws exist (ball security carriage, occasional clap-attacks), his overall skillset suggests he can be a cornerstone piece of an NFL offense, potentially outproducing more hyped TEs like Loveland depending on scheme fit and opportunity. He projects as a high-end fantasy TE1.
-Fantasy Strengths:
-Excellent Receiving Skills: Smooth route runner with a solid grasp of releases, setups, and breaks. Creates separation and makes catches at all levels. Reliable hands (92% PP catch rate), extends well, wins through contact, good focus.
-Dynamic YAC Ability: Possesses impressive curvilinear speed and vision to weave through traffic after the catch, often creating extra yards independently. Uses power and a stiff arm effectively.
-Strong Blocking Potential: Shows a high ceiling as a blocker with good technique (hand usage, counters, footwork), power (uppercut, generates force), and versatility (inline, lead, pass pro). Already effective and improving.
-Ideal Size &amp; Athleticism: Prototypical TE frame (6'5", 251 lbs) combined with smooth athleticism, good acceleration, and speed to challenge defenses vertically and after the catch.
-Scheme Versatility: Fits any offensive scheme due to his well-rounded skillset; can operate inline, detached in the slot, or even outside like Ertz/Kelce, exploiting mismatches.
-Durability: No significant reported injuries.
-Fantasy Weaknesses:
-Ball Security Technique: Prone to swinging the ball in the open field with a loose elbow; needs to consistently keep it tighter.
-Minor Catching Technique Lapses: Occasional "small clap-attacks" on targets high and away from his frame. Drops noted on G/G vs Contact/Tight Coverage.
-Release Pacing (Minor): Footwork on releases when detached could incorporate more patience/suddenness artistry.
-Player Comparisons:
-Primary Comp: Mark Andrews (high-end receiving TE; Taylor has better blocking potential).
-Remote Ceiling Comp: George Kittle (if speed/YAC fully translate).
-Functional Comps (Usage): Zach Ertz / Travis Kelce (ability to be used detached/exploit mismatches).
-Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Taylor looks like a high-end, immediate impact fantasy tight end. His combination of receiving prowess, dynamic YAC ability, and strong blocking potential gives him immense upside comparable to the elite TEs in the NFL. He might be undervalued in rookie drafts compared to Loveland (or Bowers if he were in this hypothetical class) but possesses arguably similar or even greater potential depending on landing spot. He warrants consideration late in the first round or early in the second round of standard rookie drafts and likely higher in TE premium formats. He has a strong chance to become a long-term fantasy TE1.</t>
-  </si>
-  <si>
-    <t>Bowling Green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brock Bowers – Sam LaPorta – X/Delanie Walker – Garrett Graham  </t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Harold Fannin Jr. (RSP TE3) presents a compelling profile strongly reminiscent of Sam LaPorta, possessing elite short-area quickness and change-of-direction ability that fuel polished route running and exceptional YAC elusiveness. Graded as a "Rotational Starter," his lack of elite long speed (4.71 40-yard dash) is considered less critical given his likely role and demonstrable on-field speed that meets NFL starter standards. While blocking needs development, Fannin excels as a receiver with reliable hands and savvy movement skills. His primary risk lies in landing with a team that doesn't utilize his 'move' TE skillset optimally. If deployed correctly, he has the potential for a LaPorta-like impact as a high-volume target.
-Fantasy Strengths:
-Elite Quickness &amp; Change of Direction: Possesses top-tier agility (Shuttle/3-Cone comparable to LaPorta), enabling sharp route breaks and elite elusiveness after the catch.
-Excellent YAC Ability: Arguably the best YAC TE in the class due to creativity, patience setting up defenders, excellent footwork, and eliminating pursuit angles. Makes defenders miss frequently.
-Polished Route Running: Understands how to manipulate coverage, uses patient/sudden releases, effective setups, precise breaks (when clean), and good zone awareness. Gets open consistently underneath and intermediate.
-Reliable Hands: Generally dependable catcher (100% PP Catch Rate), adjusts well to targets, shows good focus through contact, and attacks the ball effectively.
-Versatility: Former WR/S with experience detached; fits schemes using 'move' TEs, offering mismatch potential.
-Durability: No significant reported injuries.
-Fantasy Weaknesses:
-Lack of Elite Long Speed: 4.71 40-time and ~20 MPH max speed confirm he's not a true field-stretching burner, limiting deep threat ceiling compared to the most explosive TEs.
-Blocking (Needs Development): Not his calling card; needs refinement and likely added strength to be more than a situational/backside blocker. Risk of being misused if coaches prioritize this.
-Scheme Fit Risk: Potential downside if drafted by a team that doesn't utilize a 'move' TE effectively or tries to make him a primary inline blocker.
-Minor Catching Lapses: Occasional clap-attacks away from frame; tracked data shows drops versus contact and tight coverage (0% catch rate in small sample).
-Player Comparisons:
-Strong Comp/Realistic Aspiration: Sam LaPorta (skillset, athletic profile sans 40, potential usage/production).
-Spectrum Comps: Brock Bowers (aspirational top end, Fannin less explosive), Delanie Walker (productive move TE), Garrett Graham (lower-end floor).
-Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Fannin possesses the athletic traits (quickness/agility &gt; speed) and receiving skills to potentially replicate Sam LaPorta's rookie success if—and it's a significant if—he lands in the right offensive scheme that plays to his strengths. His YAC ability and route running give him significant fantasy upside, particularly in PPR formats. While the evaluator ranks him TE3, the advice is to wait until after the NFL Draft to target him, ensuring the landing spot is conducive to his success. If the fit looks good, he could be a high-value pick likely available later than Loveland/Taylor, offering similar or potentially greater fantasy production potential. He's a prime post-draft target depending on situation.</t>
-  </si>
-  <si>
-    <t>Travis Kelce – Jared Cook – Todd Heap/X – Luke Willson – Coby Fleener</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Elijah Arroyo (RSP TE4) is described as the "eye candy" of the tight end class, possessing elite speed and athleticism for his size (6'5", 250 lbs), drawing comparisons to athletic TEs like Jared Cook or Todd Heap (with Travis Kelce being a highly aspirational, likely unreachable ceiling). However, this "Rotational Starter" graded prospect comes with significant risk due to a major injury history (ACL costing most of 2022-23, recent Senior Bowl knee injury) and considerable technical rawness. His route running lacks precision, pacing, and consistent sharpness, and his catching technique breaks down on awkward targets. While his athletic gifts offer massive upside if developed, he requires significant refinement and carries substantial bust potential.
-Fantasy Strengths:
-Elite Speed &amp; Athleticism: Considered the fastest TE in the class with speed to challenge safeties vertically and pull away in the open field. Possesses good agility and overall athleticism.
-Strong YAC Potential: Uses his speed, size, and agility effectively after the catch to run through/bounce off contact, make defenders miss, and generate chunk plays.
-Good Hands/Catching (Flashes): Shows ability to make difficult athletic catches, extend for the ball, track over the shoulder, and win through contact when technique holds up. Possesses a good catch radius.
-Blocking Potential: Shows quick hands, combativeness, understands aiming points, and flashes ability to execute specific blocks well (especially backside DEs). Potential to develop into a competent blocker.
-Ideal Size: Excellent frame for a versatile TE role.
-Fantasy Weaknesses:
-Significant Injury History: Torn ACL wiped out most of his 2022 and 2023 seasons. Suffered another knee injury at the 2024 Senior Bowl. Durability is a major concern.
-Raw Route Running: Lacks refinement. Runs routes at one speed, breaks lack consistent sharpness/precision/deceleration, setups need work. Relies on athleticism over craft currently.
-Inconsistent Catching Technique: Lacks ingrained reactions/uniform hand position on awkward targets, leading to potential drops or inefficient catches. Allows ball into frame sometimes.
-Inconsistent Blocking: Prone to overextending, misses assignments due to inefficient lateral movement, needs to improve punch/sustain ability despite flashes of good technique.
-Limited Initial Role: Likely needs specific schemed looks early on leveraging his speed; blocking role best suited for backside/stalk duties initially.
-Player Comparisons:
-Ceiling Comp: Healthier Todd Heap (Realistic). Travis Kelce (Aspirational/Unlikely).
-Stylistic/Volatility Comp: Jared Cook / Luke Willson / Coby Fleener (Athletic TEs with inconsistent production often tied to refinement/hands).
-Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Arroyo is a high-risk, high-reward developmental tight end. His elite athleticism offers a tantalizing ceiling, but his significant injury history and considerable technical rawness (routes, hands, blocking) make him a volatile prospect. He needs time, health, and excellent coaching to reach his potential. Fantasy managers drafting him are betting purely on athletic upside overcoming major hurdles. The RSP evaluator suggests caution, viewing him as a mid-round rookie pick after Round 2 (unless in TE premium formats where the upside is more valuable earlier) and potentially a better buy-low candidate in a year or two if development stalls initially. Given the injury history and needed refinement, drafting him early is a significant gamble.</t>
-  </si>
-  <si>
-    <t>Penn State</t>
-  </si>
-  <si>
-    <t>Dallas Clark – X/Tucker Kraft</t>
-  </si>
-  <si>
-    <t>Overall Fantasy Outlook: Tyler Warren (RSP TE5) is a physically impressive prospect whose highlight reel, featuring contested catches and powerful running (including from the backfield), has generated significant buzz. However, this profile expresses caution, ranking him below the elite tiers and highlighting substantial technical deficiencies in both blocking and route running that need significant refinement for NFL success. While possessing a potential ceiling similar to Dallas Clark if development occurs, his current game is closer to Tucker Kraft, relying more on size and aggression than nuanced technique. He projects as a rotational starter initially, likely needing time and coaching to potentially reach his ceiling as a productive fantasy TE.
-Fantasy Strengths:
-Excellent Contested Catch Ability: Wins 50/50 balls effectively using his size (6'5", 256 lbs), physicality, and good positioning/body control. A potential red zone weapon.
-Strong YAC Ability: Powerful runner after the catch ("looks like tank"), patient setting up blocks, savvy footwork, breaks tackles through strength, and finishes runs with low pad level. Effective when used on designed runs.
-Versatility (Usage): Utilized inline, detached, and uniquely in the backfield (even as a QB in short yardage) at Penn State, offering schematic flexibility.
-Adequate Athleticism: Possesses viable short-area quickness and smooth acceleration for his size, though lacks elite top-end speed.
-Durability: No significant reported injuries.
-Fantasy Weaknesses:
-Poor Blocking Technique: A major area of concern. Frequently overextends, telegraphs intentions, doesn't use hands effectively (needs to learn punch), and relies on size/aggression over technique, which is less likely to work consistently in the NFL.
-Raw Route Running: Lacks artistry and refinement. Releases lack pacing variation, setups are underdeveloped, and breaks often lack necessary sharpness, snap, or weight drop, limiting separation potential against NFL defenders.
-Catching Technique Lapses (Minor): Occasional "clap-attacks," particularly on high points or when using underhand position where overhand might be better. Needs to attack the ball earlier consistently.
-Lacks Elite Speed/Dynamism: Athleticism is good, not great ("not an elite mover"). Unlikely to generate consistent breakaway plays purely with speed.
-Player Comparisons:
-Ceiling: Dallas Clark (modern version - versatile, high-volume receiver).
-Realistic Comp/Floor: Tucker Kraft (solid contributor needing refinement).
-Production Tier: Comparable potential to David Njoku / Jonnu Smith (capable of 700-900 yards, 6-8 TDs in zone-heavy/YAC roles).
-Explicit Non-Comps: Not Kittle/Gronk or Hockenson tier.
-Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Warren offers an intriguing package of size, contested-catch ability, and YAC power, making him a high-ceiling prospect if he undergoes significant technical development. However, his current rawness in route running and blocking makes him a project. He likely needs a specific role early on (red zone specialist, H-back, schemed YAC touches) while he refines his game. The RSP evaluator warns against buying into potential pre-draft hype ("overrated in early fantasy drafts") and suggests he's a safer investment after the NFL Draft reveals his landing spot and potential role. Pre-draft, he likely falls into the mid-to-late second or early third round of rookie drafts, representing a developmental gamble on his physical tools overcoming technical deficiencies.</t>
-  </si>
-  <si>
-    <t>RSP Pos. Ranking</t>
-  </si>
-  <si>
-    <t>RSP Notes</t>
-  </si>
-  <si>
-    <t>Comparison Spectrum</t>
-  </si>
-  <si>
-    <t>Depth of Talent Score</t>
-  </si>
-  <si>
-    <t>Depth of Talent Description</t>
+Bottom Line for Rookie Drafts (as of April 2, 2025 - Pre-NFL Draft): Bryant offers a safe floor as a technically sound receiver with good size and reliable hands, likely capable of carving out a role as a dependable possession target. His lack of elite speed caps his ceiling, but his quickness, YAC ability, and route savvy make him a solid prospect for a WR3/WR4 role in an NFL offense, potentially as a flanker or big slot. The RSP evaluator advises monitoring him from afar pre-draft, suggesting hes likely a late-round value pick (6th-8th round leagues) unless significant NFL draft capital indicates a clearer path to early opportunity.</t>
+  </si>
+  <si>
+    <t>Overall Fantasy Outlook: Tahj Brooks profiles as an elite running back prospect according to this RSP evaluation (RB3, tied for RB2; cusp of Franchise talent score), despite likely being overlooked due to playing at Texas Tech and potentially falling to Day 3 of the NFL Draft. The evaluator is extremely high on him, comparing his playing style (patience, decisiveness, quickness, maneuverability) favorably to Frank Gore and LeVeon Bell. Brooks is presented as a complete, scheme-versatile back capable of handling a three-down workload immediately, excelling at creating yards after contact, securing the football, and contributing in the passing game. Hes considered one of the best values in the class, likely available much later in rookie drafts than his talent suggests.
+Fantasy Strengths:
+Elite Vision, Patience &amp; Decision-Making: Described as one of the best at pressing the line to set up blocks, patiently waiting for creases, and intelligently maximizing runs (turns lemons into lemonade). Creative and efficient between the tackles.
+Excellent Tackle-Breaking &amp; Contact Balance: Possesses elite short-area quickness, power, and balance to defeat multiple points of contact consistently. Forces gang tackles and generates significant yards after contact.
+Elite Ball Security: Outstanding record with only 5 fumbles in nearly 1,000 career touches (1 per ~197 touches). Highly trustworthy with the football.
+Three-Down Versatility: Shows capability as a runner, a reliable receiver with good hands who can win downfield, and a promising pass protector with the tools to acclimate quickly. Handled a massive workload in college.
+Scheme Versatile: While perhaps best in gap schemes where his vision shines, he shows the skills (pressing line, quickness, power) to succeed in various systems. Evaluator dismisses concerns about Texas Techs offense limiting translation.
+Good Athleticism: Possesses elite short-area quickness and acceleration. Combine 40-time (4.52) was adequate-to-good (pleasant surprise) and confirmed his functional speed, even if he lacks elite breakaway gear.
+Durability: Handled a heavy workload and has no significant reported injuries.
+Fantasy Weaknesses:
+Lack of Elite Long Speed: While fast enough and capable of breaking chunk plays (30-40 yard range cited as upper limit), he may not possess true game-breaking, home-run speed to consistently erase angles against the fastest NFL defenders.
+Pass Protection Refinement Needed: While willing and promising with good diagnostic skills, his technique (overextending, hand placement/timing, occasional missed assignments on late shifts) needs coaching and refinement to become a true asset.
+Potential Perception/Draft Capital Issue: Evaluator anticipates he might be undervalued by NFL teams/other analysts due to logo scouting or scheme questions (which the evaluator refutes), potentially leading to lower-than-deserved draft capital.
+Player Comparisons:
+Stylistic comparisons to Frank Gore and LeVeon Bell (patience, vision, quickness, processing).
+Notes Brooks sees himself like Josh Jacobs (whom the evaluator links to Gore).
+Floor comparison listed is CJ Anderson (solid, productive NFL starter).
+Bottom Line for Rookie Drafts: According to this evaluation, Brooks is a potential steal. He possesses the traits of a high-volume, three-down fantasy producer available at a likely Day 3 rookie draft price (RSP suggests potentially 5th-6th round rookie pick value). His combination of vision, tackle-breaking, elite ball security, and receiving chops gives him a high floor and significant ceiling. He appears NFL-ready and could quickly outperform his draft slot. Hes presented as a prime target for value-seeking fantasy managers.</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1834,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1857,22 +1857,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
         <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="F1" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="G1" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1898,7 +1898,7 @@
         <v>57</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>58</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1912,19 +1912,19 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3">
         <v>83.7</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>59</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1938,19 +1938,19 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F4">
         <v>86.4</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1964,19 +1964,19 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="F5">
         <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -1990,19 +1990,19 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F6">
         <v>84.6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2016,19 +2016,19 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="F7">
         <v>85.6</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2042,19 +2042,19 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F8">
         <v>83.8</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>69</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2068,19 +2068,19 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F9">
         <v>89</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2094,19 +2094,19 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="F10">
         <v>89.9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2120,19 +2120,19 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="F11">
         <v>82.7</v>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2146,19 +2146,19 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F12">
         <v>91.3</v>
       </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2172,19 +2172,19 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="F13">
         <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2198,19 +2198,19 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="F14">
         <v>88.8</v>
       </c>
       <c r="G14" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2224,19 +2224,19 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F15">
         <v>84.3</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>75</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2250,19 +2250,19 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="F16">
         <v>82.9</v>
       </c>
       <c r="G16" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2276,19 +2276,19 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="F17">
         <v>87.7</v>
       </c>
       <c r="G17" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2302,19 +2302,19 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="F18">
         <v>86.2</v>
       </c>
       <c r="G18" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2328,19 +2328,19 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F19">
         <v>82.1</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -2362,19 +2362,19 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="F21">
         <v>84.8</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2388,19 +2388,19 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F22">
         <v>78</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -2422,19 +2422,19 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="F24">
         <v>85</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2448,19 +2448,19 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="F25">
         <v>83.3</v>
       </c>
       <c r="G25" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2474,19 +2474,19 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F26">
         <v>84.5</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2500,19 +2500,19 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="F27">
         <v>86.1</v>
       </c>
       <c r="G27" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2526,19 +2526,19 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F28">
         <v>82.9</v>
       </c>
       <c r="G28" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>91</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2552,19 +2552,19 @@
         <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="F29">
         <v>71.2</v>
       </c>
       <c r="G29" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2578,19 +2578,19 @@
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="F30">
         <v>83</v>
       </c>
       <c r="G30" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2604,19 +2604,19 @@
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F31">
         <v>78.5</v>
       </c>
       <c r="G31" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -2638,19 +2638,19 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="F33">
         <v>83.2</v>
       </c>
       <c r="G33" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2664,19 +2664,19 @@
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F34">
         <v>75.3</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2690,19 +2690,19 @@
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F35">
         <v>75.400000000000006</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2716,19 +2716,19 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F36">
         <v>81</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2742,19 +2742,19 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="F37">
         <v>76.2</v>
       </c>
       <c r="G37" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2768,19 +2768,19 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F38">
         <v>83.4</v>
       </c>
       <c r="G38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2794,19 +2794,19 @@
         <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="E39" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="F39">
         <v>81.2</v>
       </c>
       <c r="G39" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2820,19 +2820,19 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="F40">
         <v>84.9</v>
       </c>
       <c r="G40" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2846,19 +2846,19 @@
         <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F41">
         <v>80.2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>122</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2872,19 +2872,19 @@
         <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="F42">
         <v>83.1</v>
       </c>
       <c r="G42" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2898,19 +2898,19 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F43">
         <v>83.6</v>
       </c>
       <c r="G43" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>118</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2924,19 +2924,19 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F44">
         <v>86.4</v>
       </c>
       <c r="G44" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>116</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2950,19 +2950,19 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="E45" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="F45">
         <v>82.7</v>
       </c>
       <c r="G45" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2976,19 +2976,19 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="E46" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="F46">
         <v>86.3</v>
       </c>
       <c r="G46" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -3002,19 +3002,19 @@
         <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F47">
         <v>80.099999999999994</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -3028,19 +3028,19 @@
         <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E48" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F48">
         <v>82.8</v>
       </c>
       <c r="G48" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -3054,24 +3054,24 @@
         <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="E49" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="F49">
         <v>82.2</v>
       </c>
       <c r="G49" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -3080,19 +3080,19 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E50" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F50">
         <v>89</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/data/RSP_Rookies.xlsx
+++ b/data/RSP_Rookies.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28a1ee50a88aa706/python_work/Dynasty_tools/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancontino/Desktop/Dynasty_tools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="333" documentId="8_{0EB90C79-FC22-4A12-A94D-9985B2A593C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2874B542-5983-48EF-95C4-A7889D38744D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A5C9F8-8259-E94B-9CBE-F7F24F9A4155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15460" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$50</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="217">
   <si>
     <t>Player</t>
   </si>
@@ -1453,6 +1453,9 @@
 Notes Brooks sees himself like Josh Jacobs (whom the evaluator links to Gore).
 Floor comparison listed is CJ Anderson (solid, productive NFL starter).
 Bottom Line for Rookie Drafts: According to this evaluation, Brooks is a potential steal. He possesses the traits of a high-volume, three-down fantasy producer available at a likely Day 3 rookie draft price (RSP suggests potentially 5th-6th round rookie pick value). His combination of vision, tackle-breaking, elite ball security, and receiving chops gives him a high floor and significant ceiling. He appears NFL-ready and could quickly outperform his draft slot. Hes presented as a prime target for value-seeking fantasy managers.</t>
+  </si>
+  <si>
+    <t>RSP 2023-2025 Rank</t>
   </si>
 </sst>
 </file>
@@ -1508,10 +1511,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1831,25 +1830,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BB6BA8-4F4C-43D2-B7ED-38D13DC00C71}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1860,22 +1860,25 @@
         <v>165</v>
       </c>
       <c r="D1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>167</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>168</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1885,23 +1888,26 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>92.9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1911,23 +1917,26 @@
       <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>59</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>83.7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1937,23 +1946,26 @@
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>118</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>119</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>86.4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1963,23 +1975,26 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>108</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>109</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>93</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1989,23 +2004,26 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>62</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>61</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>84.6</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2015,23 +2033,26 @@
       <c r="C7">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>62</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>125</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>85.6</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2041,23 +2062,26 @@
       <c r="C8">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
         <v>65</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>64</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>83.8</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2067,23 +2091,26 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
         <v>62</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>67</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>89</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2093,23 +2120,26 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
         <v>113</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>114</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>89.9</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2119,23 +2149,26 @@
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
         <v>163</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>164</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>82.7</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2145,23 +2178,26 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
         <v>111</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>112</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>91.3</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2171,23 +2207,26 @@
       <c r="C13">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
         <v>131</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>132</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>84</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -2197,23 +2236,26 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
         <v>155</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>156</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>88.8</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>157</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -2223,23 +2265,26 @@
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
         <v>68</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>69</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>84.3</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2249,23 +2294,26 @@
       <c r="C16">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
         <v>140</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>141</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>82.9</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>133</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2275,23 +2323,26 @@
       <c r="C17">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
         <v>113</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>116</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>87.7</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2301,23 +2352,26 @@
       <c r="C18">
         <v>6</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
         <v>121</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>122</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>86.2</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2327,23 +2381,26 @@
       <c r="C19">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
         <v>71</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>72</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>82.1</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2351,7 +2408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2361,23 +2418,26 @@
       <c r="C21">
         <v>12</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
         <v>121</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>129</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>84.8</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2387,23 +2447,26 @@
       <c r="C22">
         <v>30</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
         <v>73</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>74</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>78</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2411,7 +2474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -2421,23 +2484,26 @@
       <c r="C24">
         <v>10</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
         <v>126</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>127</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>85</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -2447,23 +2513,26 @@
       <c r="C25">
         <v>3</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
         <v>160</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>161</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>83.3</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>135</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2473,23 +2542,26 @@
       <c r="C26">
         <v>7</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
         <v>77</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>76</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>84.5</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2499,23 +2571,26 @@
       <c r="C27">
         <v>7</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
         <v>123</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>124</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>86.1</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2525,23 +2600,26 @@
       <c r="C28">
         <v>16</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
         <v>79</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>80</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>82.9</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -2551,23 +2629,26 @@
       <c r="C29">
         <v>63</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29">
+        <v>162</v>
+      </c>
+      <c r="E29" t="s">
         <v>150</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>151</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>71.2</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>152</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -2577,23 +2658,26 @@
       <c r="C30">
         <v>19</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
         <v>98</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>134</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>83</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>135</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -2603,23 +2687,26 @@
       <c r="C31">
         <v>28</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31">
+        <v>58</v>
+      </c>
+      <c r="E31" t="s">
         <v>82</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>83</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>78.5</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>84</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2627,7 +2714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -2637,23 +2724,26 @@
       <c r="C33">
         <v>4</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
         <v>98</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>162</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>83.2</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>135</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -2663,23 +2753,26 @@
       <c r="C34">
         <v>36</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34">
+        <v>80</v>
+      </c>
+      <c r="E34" t="s">
         <v>85</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>86</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>75.3</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -2689,23 +2782,26 @@
       <c r="C35">
         <v>35</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35">
+        <v>78</v>
+      </c>
+      <c r="E35" t="s">
         <v>88</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>89</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>75.400000000000006</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -2715,23 +2811,26 @@
       <c r="C36">
         <v>20</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
         <v>106</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>107</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>81</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2741,23 +2840,26 @@
       <c r="C37">
         <v>16</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s">
         <v>136</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>153</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>76.2</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>154</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -2767,23 +2869,26 @@
       <c r="C38">
         <v>13</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
         <v>105</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>72</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>83.4</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>60</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -2793,23 +2898,26 @@
       <c r="C39">
         <v>34</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39">
+        <v>73</v>
+      </c>
+      <c r="E39" t="s">
         <v>148</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>149</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>81.2</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>135</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -2819,23 +2927,26 @@
       <c r="C40">
         <v>11</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
         <v>138</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>139</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>84.9</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>135</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -2845,23 +2956,26 @@
       <c r="C41">
         <v>23</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
         <v>102</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>103</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>80.2</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -2871,23 +2985,26 @@
       <c r="C42">
         <v>22</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42">
+        <v>55</v>
+      </c>
+      <c r="E42" t="s">
         <v>136</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>137</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>83.1</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>135</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2897,23 +3014,26 @@
       <c r="C43">
         <v>11</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
         <v>98</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>101</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>83.6</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>81</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2923,23 +3043,26 @@
       <c r="C44">
         <v>4</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
         <v>98</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>99</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>86.4</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>100</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2949,23 +3072,26 @@
       <c r="C45">
         <v>26</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45">
+        <v>61</v>
+      </c>
+      <c r="E45" t="s">
         <v>144</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>145</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>82.7</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>135</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -2975,23 +3101,26 @@
       <c r="C46">
         <v>2</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
         <v>158</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>159</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>86.3</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>157</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -3001,23 +3130,26 @@
       <c r="C47">
         <v>24</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47">
+        <v>49</v>
+      </c>
+      <c r="E47" t="s">
         <v>91</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>93</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>80.099999999999994</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -3027,23 +3159,26 @@
       <c r="C48">
         <v>25</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48">
+        <v>59</v>
+      </c>
+      <c r="E48" t="s">
         <v>142</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>143</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>82.8</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>135</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -3053,23 +3188,26 @@
       <c r="C49">
         <v>28</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49">
+        <v>66</v>
+      </c>
+      <c r="E49" t="s">
         <v>146</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>147</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>82.2</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>135</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -3079,24 +3217,27 @@
       <c r="C50">
         <v>3</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
         <v>95</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>96</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>89</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>215</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H50" xr:uid="{57BB6BA8-4F4C-43D2-B7ED-38D13DC00C71}"/>
+  <autoFilter ref="A1:I50" xr:uid="{57BB6BA8-4F4C-43D2-B7ED-38D13DC00C71}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/RSP_Rookies.xlsx
+++ b/data/RSP_Rookies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancontino/Desktop/Dynasty_tools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A5C9F8-8259-E94B-9CBE-F7F24F9A4155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AFF0B4-8318-5B46-9F51-C5E54E028385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
   </bookViews>
@@ -1832,8 +1832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BB6BA8-4F4C-43D2-B7ED-38D13DC00C71}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
